--- a/Results/Robot_XYZ.xlsx
+++ b/Results/Robot_XYZ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D281"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,181 +446,3933 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>y</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.192092895507812e-06</v>
+        <v>1.668930053710938e-06</v>
       </c>
       <c r="B2" t="n">
-        <v>475.7945556640625</v>
+        <v>299.9862365722656</v>
       </c>
       <c r="C2" t="n">
-        <v>111.0600128173828</v>
+        <v>38.73059844970703</v>
       </c>
       <c r="D2" t="n">
-        <v>379.4025573730469</v>
+        <v>259.9827270507812</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.610508680343628</v>
+        <v>1.428916931152344</v>
       </c>
       <c r="B3" t="n">
-        <v>475.7945556640625</v>
+        <v>300.0135192871094</v>
       </c>
       <c r="C3" t="n">
-        <v>111.0600128173828</v>
+        <v>38.75971221923828</v>
       </c>
       <c r="D3" t="n">
-        <v>419.4025573730469</v>
+        <v>271.703857421875</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6.267231464385986</v>
+        <v>2.857269048690796</v>
       </c>
       <c r="B4" t="n">
-        <v>475.7945556640625</v>
+        <v>300.0259399414062</v>
       </c>
       <c r="C4" t="n">
-        <v>181.0600128173828</v>
+        <v>38.76319122314453</v>
       </c>
       <c r="D4" t="n">
-        <v>379.4025573730469</v>
+        <v>283.3597106933594</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>8.888116836547852</v>
+        <v>4.285760641098022</v>
       </c>
       <c r="B5" t="n">
-        <v>475.7945556640625</v>
+        <v>300.0090637207031</v>
       </c>
       <c r="C5" t="n">
-        <v>181.0600128173828</v>
+        <v>38.76038360595703</v>
       </c>
       <c r="D5" t="n">
-        <v>419.4025573730469</v>
+        <v>295.0316162109375</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>12.82975792884827</v>
+        <v>6.684832096099854</v>
       </c>
       <c r="B6" t="n">
-        <v>525.7945556640625</v>
+        <v>300.0025329589844</v>
       </c>
       <c r="C6" t="n">
-        <v>111.0600128173828</v>
+        <v>50.44277572631836</v>
       </c>
       <c r="D6" t="n">
-        <v>379.4025573730469</v>
+        <v>259.9562377929688</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>15.45071578025818</v>
+        <v>8.115867376327515</v>
       </c>
       <c r="B7" t="n">
-        <v>525.7945556640625</v>
+        <v>300.0106811523438</v>
       </c>
       <c r="C7" t="n">
-        <v>111.0600128173828</v>
+        <v>50.43278503417969</v>
       </c>
       <c r="D7" t="n">
-        <v>419.4025573730469</v>
+        <v>271.6791076660156</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>19.088050365448</v>
+        <v>9.543721914291382</v>
       </c>
       <c r="B8" t="n">
-        <v>525.7945556640625</v>
+        <v>300.0068054199219</v>
       </c>
       <c r="C8" t="n">
-        <v>181.0600128173828</v>
+        <v>50.42266082763672</v>
       </c>
       <c r="D8" t="n">
-        <v>379.4025573730469</v>
+        <v>283.3583068847656</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>21.69479560852051</v>
+        <v>10.97275257110596</v>
       </c>
       <c r="B9" t="n">
-        <v>525.7945556640625</v>
+        <v>300.0028991699219</v>
       </c>
       <c r="C9" t="n">
-        <v>181.0600128173828</v>
+        <v>50.42200469970703</v>
       </c>
       <c r="D9" t="n">
-        <v>419.4025573730469</v>
+        <v>295.0065612792969</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>25.63318252563477</v>
+        <v>13.37311673164368</v>
       </c>
       <c r="B10" t="n">
-        <v>575.7945556640625</v>
+        <v>300.0028991699219</v>
       </c>
       <c r="C10" t="n">
-        <v>111.0600128173828</v>
+        <v>62.10904312133789</v>
       </c>
       <c r="D10" t="n">
-        <v>379.4025573730469</v>
+        <v>259.9593811035156</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>28.2467360496521</v>
+        <v>14.8038113117218</v>
       </c>
       <c r="B11" t="n">
-        <v>575.7945556640625</v>
+        <v>300.0048217773438</v>
       </c>
       <c r="C11" t="n">
-        <v>111.0600128173828</v>
+        <v>62.09535980224609</v>
       </c>
       <c r="D11" t="n">
-        <v>419.4025573730469</v>
+        <v>271.6768798828125</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>31.88560962677002</v>
+        <v>16.24448871612549</v>
       </c>
       <c r="B12" t="n">
-        <v>575.7945556640625</v>
+        <v>300.0155334472656</v>
       </c>
       <c r="C12" t="n">
-        <v>181.0600128173828</v>
+        <v>62.09181213378906</v>
       </c>
       <c r="D12" t="n">
-        <v>379.4025573730469</v>
+        <v>283.3680114746094</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>34.48989582061768</v>
+        <v>17.67296004295349</v>
       </c>
       <c r="B13" t="n">
-        <v>575.7945556640625</v>
+        <v>300.0028991699219</v>
       </c>
       <c r="C13" t="n">
-        <v>181.0600128173828</v>
+        <v>62.08919906616211</v>
       </c>
       <c r="D13" t="n">
-        <v>419.4025573730469</v>
+        <v>295.0114135742188</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>20.07643485069275</v>
+      </c>
+      <c r="B14" t="n">
+        <v>299.9857788085938</v>
+      </c>
+      <c r="C14" t="n">
+        <v>73.78208160400391</v>
+      </c>
+      <c r="D14" t="n">
+        <v>259.9368286132812</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>21.50688886642456</v>
+      </c>
+      <c r="B15" t="n">
+        <v>300.0257263183594</v>
+      </c>
+      <c r="C15" t="n">
+        <v>73.761962890625</v>
+      </c>
+      <c r="D15" t="n">
+        <v>271.7055358886719</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>22.93645167350769</v>
+      </c>
+      <c r="B16" t="n">
+        <v>300.0166931152344</v>
+      </c>
+      <c r="C16" t="n">
+        <v>73.75713348388672</v>
+      </c>
+      <c r="D16" t="n">
+        <v>283.3704223632812</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>24.3672730922699</v>
+      </c>
+      <c r="B17" t="n">
+        <v>300.0173034667969</v>
+      </c>
+      <c r="C17" t="n">
+        <v>73.7579345703125</v>
+      </c>
+      <c r="D17" t="n">
+        <v>295.0317993164062</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>26.76645827293396</v>
+      </c>
+      <c r="B18" t="n">
+        <v>299.991943359375</v>
+      </c>
+      <c r="C18" t="n">
+        <v>85.4560546875</v>
+      </c>
+      <c r="D18" t="n">
+        <v>259.9533386230469</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>28.19614410400391</v>
+      </c>
+      <c r="B19" t="n">
+        <v>300.0162963867188</v>
+      </c>
+      <c r="C19" t="n">
+        <v>85.42449951171875</v>
+      </c>
+      <c r="D19" t="n">
+        <v>271.6958312988281</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>29.62460517883301</v>
+      </c>
+      <c r="B20" t="n">
+        <v>300.019775390625</v>
+      </c>
+      <c r="C20" t="n">
+        <v>85.42481994628906</v>
+      </c>
+      <c r="D20" t="n">
+        <v>283.3697204589844</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>31.05373501777649</v>
+      </c>
+      <c r="B21" t="n">
+        <v>300.0210571289062</v>
+      </c>
+      <c r="C21" t="n">
+        <v>85.42584991455078</v>
+      </c>
+      <c r="D21" t="n">
+        <v>295.0318908691406</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>33.45375490188599</v>
+      </c>
+      <c r="B22" t="n">
+        <v>299.9877624511719</v>
+      </c>
+      <c r="C22" t="n">
+        <v>97.11030578613281</v>
+      </c>
+      <c r="D22" t="n">
+        <v>259.9336547851562</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>34.88500285148621</v>
+      </c>
+      <c r="B23" t="n">
+        <v>300.0214538574219</v>
+      </c>
+      <c r="C23" t="n">
+        <v>97.10222625732422</v>
+      </c>
+      <c r="D23" t="n">
+        <v>271.6960754394531</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>36.31599879264832</v>
+      </c>
+      <c r="B24" t="n">
+        <v>300.01220703125</v>
+      </c>
+      <c r="C24" t="n">
+        <v>97.09042358398438</v>
+      </c>
+      <c r="D24" t="n">
+        <v>283.3561401367188</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>37.74695229530334</v>
+      </c>
+      <c r="B25" t="n">
+        <v>300.0015869140625</v>
+      </c>
+      <c r="C25" t="n">
+        <v>97.08765411376953</v>
+      </c>
+      <c r="D25" t="n">
+        <v>295.0034790039062</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>40.14601898193359</v>
+      </c>
+      <c r="B26" t="n">
+        <v>299.9960327148438</v>
+      </c>
+      <c r="C26" t="n">
+        <v>108.7721252441406</v>
+      </c>
+      <c r="D26" t="n">
+        <v>259.9510192871094</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>41.57465887069702</v>
+      </c>
+      <c r="B27" t="n">
+        <v>300.0154113769531</v>
+      </c>
+      <c r="C27" t="n">
+        <v>108.7708206176758</v>
+      </c>
+      <c r="D27" t="n">
+        <v>271.7012634277344</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>43.00401329994202</v>
+      </c>
+      <c r="B28" t="n">
+        <v>300.0108337402344</v>
+      </c>
+      <c r="C28" t="n">
+        <v>108.7594375610352</v>
+      </c>
+      <c r="D28" t="n">
+        <v>283.3529052734375</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>44.43446230888367</v>
+      </c>
+      <c r="B29" t="n">
+        <v>300.0043334960938</v>
+      </c>
+      <c r="C29" t="n">
+        <v>108.7556838989258</v>
+      </c>
+      <c r="D29" t="n">
+        <v>295.0298461914062</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>47.86475944519043</v>
+      </c>
+      <c r="B30" t="n">
+        <v>311.1217956542969</v>
+      </c>
+      <c r="C30" t="n">
+        <v>38.74184799194336</v>
+      </c>
+      <c r="D30" t="n">
+        <v>259.959228515625</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>49.29454684257507</v>
+      </c>
+      <c r="B31" t="n">
+        <v>311.1162414550781</v>
+      </c>
+      <c r="C31" t="n">
+        <v>38.74827194213867</v>
+      </c>
+      <c r="D31" t="n">
+        <v>271.6913452148438</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>50.73216104507446</v>
+      </c>
+      <c r="B32" t="n">
+        <v>311.1386108398438</v>
+      </c>
+      <c r="C32" t="n">
+        <v>38.76139831542969</v>
+      </c>
+      <c r="D32" t="n">
+        <v>283.3683166503906</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>52.16095757484436</v>
+      </c>
+      <c r="B33" t="n">
+        <v>311.1262512207031</v>
+      </c>
+      <c r="C33" t="n">
+        <v>38.7605094909668</v>
+      </c>
+      <c r="D33" t="n">
+        <v>295.0435485839844</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>54.5615451335907</v>
+      </c>
+      <c r="B34" t="n">
+        <v>311.1118469238281</v>
+      </c>
+      <c r="C34" t="n">
+        <v>50.43826675415039</v>
+      </c>
+      <c r="D34" t="n">
+        <v>259.9354248046875</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>55.99714517593384</v>
+      </c>
+      <c r="B35" t="n">
+        <v>311.1196594238281</v>
+      </c>
+      <c r="C35" t="n">
+        <v>50.43431091308594</v>
+      </c>
+      <c r="D35" t="n">
+        <v>271.6859741210938</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>57.43197154998779</v>
+      </c>
+      <c r="B36" t="n">
+        <v>311.1275939941406</v>
+      </c>
+      <c r="C36" t="n">
+        <v>50.42709732055664</v>
+      </c>
+      <c r="D36" t="n">
+        <v>283.3668212890625</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>58.86250185966492</v>
+      </c>
+      <c r="B37" t="n">
+        <v>311.1205444335938</v>
+      </c>
+      <c r="C37" t="n">
+        <v>50.42465209960938</v>
+      </c>
+      <c r="D37" t="n">
+        <v>295.011962890625</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>61.26757097244263</v>
+      </c>
+      <c r="B38" t="n">
+        <v>311.1110229492188</v>
+      </c>
+      <c r="C38" t="n">
+        <v>62.10557556152344</v>
+      </c>
+      <c r="D38" t="n">
+        <v>259.9345703125</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>62.69612145423889</v>
+      </c>
+      <c r="B39" t="n">
+        <v>311.1170959472656</v>
+      </c>
+      <c r="C39" t="n">
+        <v>62.09619522094727</v>
+      </c>
+      <c r="D39" t="n">
+        <v>271.6877746582031</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>64.12660765647888</v>
+      </c>
+      <c r="B40" t="n">
+        <v>311.1312866210938</v>
+      </c>
+      <c r="C40" t="n">
+        <v>62.09240341186523</v>
+      </c>
+      <c r="D40" t="n">
+        <v>283.3786315917969</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>65.55521011352539</v>
+      </c>
+      <c r="B41" t="n">
+        <v>311.1288146972656</v>
+      </c>
+      <c r="C41" t="n">
+        <v>62.09191513061523</v>
+      </c>
+      <c r="D41" t="n">
+        <v>295.0294799804688</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>67.95532321929932</v>
+      </c>
+      <c r="B42" t="n">
+        <v>311.1015319824219</v>
+      </c>
+      <c r="C42" t="n">
+        <v>73.78115844726562</v>
+      </c>
+      <c r="D42" t="n">
+        <v>259.9446411132812</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>69.38890433311462</v>
+      </c>
+      <c r="B43" t="n">
+        <v>311.1354675292969</v>
+      </c>
+      <c r="C43" t="n">
+        <v>73.76633453369141</v>
+      </c>
+      <c r="D43" t="n">
+        <v>271.7046813964844</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>70.81758141517639</v>
+      </c>
+      <c r="B44" t="n">
+        <v>311.1255187988281</v>
+      </c>
+      <c r="C44" t="n">
+        <v>73.75657653808594</v>
+      </c>
+      <c r="D44" t="n">
+        <v>283.3472595214844</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>72.24990701675415</v>
+      </c>
+      <c r="B45" t="n">
+        <v>311.1075744628906</v>
+      </c>
+      <c r="C45" t="n">
+        <v>73.75299835205078</v>
+      </c>
+      <c r="D45" t="n">
+        <v>295.0196533203125</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>74.6518771648407</v>
+      </c>
+      <c r="B46" t="n">
+        <v>311.1148071289062</v>
+      </c>
+      <c r="C46" t="n">
+        <v>85.43924713134766</v>
+      </c>
+      <c r="D46" t="n">
+        <v>259.9537963867188</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>76.08116149902344</v>
+      </c>
+      <c r="B47" t="n">
+        <v>311.12841796875</v>
+      </c>
+      <c r="C47" t="n">
+        <v>85.43476867675781</v>
+      </c>
+      <c r="D47" t="n">
+        <v>271.7007446289062</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>77.51007270812988</v>
+      </c>
+      <c r="B48" t="n">
+        <v>311.115966796875</v>
+      </c>
+      <c r="C48" t="n">
+        <v>85.42313385009766</v>
+      </c>
+      <c r="D48" t="n">
+        <v>283.3424072265625</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>78.94341635704041</v>
+      </c>
+      <c r="B49" t="n">
+        <v>311.1071166992188</v>
+      </c>
+      <c r="C49" t="n">
+        <v>85.42002105712891</v>
+      </c>
+      <c r="D49" t="n">
+        <v>295.0228881835938</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>81.34459733963013</v>
+      </c>
+      <c r="B50" t="n">
+        <v>311.0987243652344</v>
+      </c>
+      <c r="C50" t="n">
+        <v>97.10687255859375</v>
+      </c>
+      <c r="D50" t="n">
+        <v>259.9342041015625</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>82.78233551979065</v>
+      </c>
+      <c r="B51" t="n">
+        <v>311.1220092773438</v>
+      </c>
+      <c r="C51" t="n">
+        <v>97.10435485839844</v>
+      </c>
+      <c r="D51" t="n">
+        <v>271.6882934570312</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>84.21167135238647</v>
+      </c>
+      <c r="B52" t="n">
+        <v>311.1332702636719</v>
+      </c>
+      <c r="C52" t="n">
+        <v>97.09458923339844</v>
+      </c>
+      <c r="D52" t="n">
+        <v>283.3697509765625</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>85.64093542098999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>311.1270141601562</v>
+      </c>
+      <c r="C53" t="n">
+        <v>97.09194183349609</v>
+      </c>
+      <c r="D53" t="n">
+        <v>295.0475463867188</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>88.03936433792114</v>
+      </c>
+      <c r="B54" t="n">
+        <v>311.1018371582031</v>
+      </c>
+      <c r="C54" t="n">
+        <v>108.7837066650391</v>
+      </c>
+      <c r="D54" t="n">
+        <v>259.9434204101562</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>89.47067785263062</v>
+      </c>
+      <c r="B55" t="n">
+        <v>311.1330261230469</v>
+      </c>
+      <c r="C55" t="n">
+        <v>108.7617340087891</v>
+      </c>
+      <c r="D55" t="n">
+        <v>271.700927734375</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>90.90041041374207</v>
+      </c>
+      <c r="B56" t="n">
+        <v>311.1275024414062</v>
+      </c>
+      <c r="C56" t="n">
+        <v>108.7569580078125</v>
+      </c>
+      <c r="D56" t="n">
+        <v>283.3467407226562</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>92.33007884025574</v>
+      </c>
+      <c r="B57" t="n">
+        <v>311.1289978027344</v>
+      </c>
+      <c r="C57" t="n">
+        <v>108.758903503418</v>
+      </c>
+      <c r="D57" t="n">
+        <v>295.0573425292969</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>95.76224780082703</v>
+      </c>
+      <c r="B58" t="n">
+        <v>322.2247619628906</v>
+      </c>
+      <c r="C58" t="n">
+        <v>38.72833633422852</v>
+      </c>
+      <c r="D58" t="n">
+        <v>259.9492492675781</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>97.19126057624817</v>
+      </c>
+      <c r="B59" t="n">
+        <v>322.2467956542969</v>
+      </c>
+      <c r="C59" t="n">
+        <v>38.75506973266602</v>
+      </c>
+      <c r="D59" t="n">
+        <v>271.6968383789062</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>98.62167692184448</v>
+      </c>
+      <c r="B60" t="n">
+        <v>322.2353820800781</v>
+      </c>
+      <c r="C60" t="n">
+        <v>38.76172256469727</v>
+      </c>
+      <c r="D60" t="n">
+        <v>283.3536071777344</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>100.0494134426117</v>
+      </c>
+      <c r="B61" t="n">
+        <v>322.2354431152344</v>
+      </c>
+      <c r="C61" t="n">
+        <v>38.76106262207031</v>
+      </c>
+      <c r="D61" t="n">
+        <v>295.0462646484375</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>102.4487562179565</v>
+      </c>
+      <c r="B62" t="n">
+        <v>322.2196655273438</v>
+      </c>
+      <c r="C62" t="n">
+        <v>50.44601440429688</v>
+      </c>
+      <c r="D62" t="n">
+        <v>259.9522399902344</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>103.8787388801575</v>
+      </c>
+      <c r="B63" t="n">
+        <v>322.2423706054688</v>
+      </c>
+      <c r="C63" t="n">
+        <v>50.43605804443359</v>
+      </c>
+      <c r="D63" t="n">
+        <v>271.7108764648438</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>105.3085486888885</v>
+      </c>
+      <c r="B64" t="n">
+        <v>322.2288818359375</v>
+      </c>
+      <c r="C64" t="n">
+        <v>50.42246246337891</v>
+      </c>
+      <c r="D64" t="n">
+        <v>283.3479614257812</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>106.7381932735443</v>
+      </c>
+      <c r="B65" t="n">
+        <v>322.2254028320312</v>
+      </c>
+      <c r="C65" t="n">
+        <v>50.42191696166992</v>
+      </c>
+      <c r="D65" t="n">
+        <v>295.0278015136719</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>109.136846780777</v>
+      </c>
+      <c r="B66" t="n">
+        <v>322.2202758789062</v>
+      </c>
+      <c r="C66" t="n">
+        <v>62.10736083984375</v>
+      </c>
+      <c r="D66" t="n">
+        <v>259.942626953125</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>110.5661509037018</v>
+      </c>
+      <c r="B67" t="n">
+        <v>322.245361328125</v>
+      </c>
+      <c r="C67" t="n">
+        <v>62.10193634033203</v>
+      </c>
+      <c r="D67" t="n">
+        <v>271.7019348144531</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>111.9955747127533</v>
+      </c>
+      <c r="B68" t="n">
+        <v>322.2408142089844</v>
+      </c>
+      <c r="C68" t="n">
+        <v>62.09217071533203</v>
+      </c>
+      <c r="D68" t="n">
+        <v>283.3479309082031</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>113.4264326095581</v>
+      </c>
+      <c r="B69" t="n">
+        <v>322.2349243164062</v>
+      </c>
+      <c r="C69" t="n">
+        <v>62.09103393554688</v>
+      </c>
+      <c r="D69" t="n">
+        <v>295.0468139648438</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>115.8297955989838</v>
+      </c>
+      <c r="B70" t="n">
+        <v>322.2188720703125</v>
+      </c>
+      <c r="C70" t="n">
+        <v>73.77946472167969</v>
+      </c>
+      <c r="D70" t="n">
+        <v>259.9534301757812</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>117.2593455314636</v>
+      </c>
+      <c r="B71" t="n">
+        <v>322.2301635742188</v>
+      </c>
+      <c r="C71" t="n">
+        <v>73.76609039306641</v>
+      </c>
+      <c r="D71" t="n">
+        <v>271.697021484375</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>118.6901338100433</v>
+      </c>
+      <c r="B72" t="n">
+        <v>322.2295837402344</v>
+      </c>
+      <c r="C72" t="n">
+        <v>73.75554656982422</v>
+      </c>
+      <c r="D72" t="n">
+        <v>283.3647155761719</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>120.118577003479</v>
+      </c>
+      <c r="B73" t="n">
+        <v>322.2272033691406</v>
+      </c>
+      <c r="C73" t="n">
+        <v>73.75569915771484</v>
+      </c>
+      <c r="D73" t="n">
+        <v>295.0055847167969</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>122.5202195644379</v>
+      </c>
+      <c r="B74" t="n">
+        <v>322.2180480957031</v>
+      </c>
+      <c r="C74" t="n">
+        <v>85.43668365478516</v>
+      </c>
+      <c r="D74" t="n">
+        <v>259.9542541503906</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>123.9495851993561</v>
+      </c>
+      <c r="B75" t="n">
+        <v>322.2220458984375</v>
+      </c>
+      <c r="C75" t="n">
+        <v>85.42997741699219</v>
+      </c>
+      <c r="D75" t="n">
+        <v>271.6892700195312</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>125.3796253204346</v>
+      </c>
+      <c r="B76" t="n">
+        <v>322.2214050292969</v>
+      </c>
+      <c r="C76" t="n">
+        <v>85.42204284667969</v>
+      </c>
+      <c r="D76" t="n">
+        <v>283.3613891601562</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>126.8122553825378</v>
+      </c>
+      <c r="B77" t="n">
+        <v>322.2303466796875</v>
+      </c>
+      <c r="C77" t="n">
+        <v>85.42441558837891</v>
+      </c>
+      <c r="D77" t="n">
+        <v>295.001953125</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>129.2120127677917</v>
+      </c>
+      <c r="B78" t="n">
+        <v>322.2164916992188</v>
+      </c>
+      <c r="C78" t="n">
+        <v>97.12223052978516</v>
+      </c>
+      <c r="D78" t="n">
+        <v>259.9427185058594</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>130.6466369628906</v>
+      </c>
+      <c r="B79" t="n">
+        <v>322.2472839355469</v>
+      </c>
+      <c r="C79" t="n">
+        <v>97.0933837890625</v>
+      </c>
+      <c r="D79" t="n">
+        <v>271.6948852539062</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>132.0762233734131</v>
+      </c>
+      <c r="B80" t="n">
+        <v>322.2462158203125</v>
+      </c>
+      <c r="C80" t="n">
+        <v>97.09234619140625</v>
+      </c>
+      <c r="D80" t="n">
+        <v>283.3643188476562</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>133.5055525302887</v>
+      </c>
+      <c r="B81" t="n">
+        <v>322.2381286621094</v>
+      </c>
+      <c r="C81" t="n">
+        <v>97.09134674072266</v>
+      </c>
+      <c r="D81" t="n">
+        <v>295.0504150390625</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>135.9051558971405</v>
+      </c>
+      <c r="B82" t="n">
+        <v>322.2278137207031</v>
+      </c>
+      <c r="C82" t="n">
+        <v>108.782112121582</v>
+      </c>
+      <c r="D82" t="n">
+        <v>259.9385986328125</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>137.3384158611298</v>
+      </c>
+      <c r="B83" t="n">
+        <v>322.244873046875</v>
+      </c>
+      <c r="C83" t="n">
+        <v>108.7628936767578</v>
+      </c>
+      <c r="D83" t="n">
+        <v>271.7009582519531</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>138.7694234848022</v>
+      </c>
+      <c r="B84" t="n">
+        <v>322.2364196777344</v>
+      </c>
+      <c r="C84" t="n">
+        <v>108.7563705444336</v>
+      </c>
+      <c r="D84" t="n">
+        <v>283.3533325195312</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>140.200532913208</v>
+      </c>
+      <c r="B85" t="n">
+        <v>322.2353210449219</v>
+      </c>
+      <c r="C85" t="n">
+        <v>108.7574691772461</v>
+      </c>
+      <c r="D85" t="n">
+        <v>295.0497131347656</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>143.6300628185272</v>
+      </c>
+      <c r="B86" t="n">
+        <v>333.3338928222656</v>
+      </c>
+      <c r="C86" t="n">
+        <v>38.73141860961914</v>
+      </c>
+      <c r="D86" t="n">
+        <v>259.9443664550781</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>145.0624556541443</v>
+      </c>
+      <c r="B87" t="n">
+        <v>333.3351440429688</v>
+      </c>
+      <c r="C87" t="n">
+        <v>38.74885177612305</v>
+      </c>
+      <c r="D87" t="n">
+        <v>271.6879577636719</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>146.4931621551514</v>
+      </c>
+      <c r="B88" t="n">
+        <v>333.3408203125</v>
+      </c>
+      <c r="C88" t="n">
+        <v>38.76126480102539</v>
+      </c>
+      <c r="D88" t="n">
+        <v>283.371337890625</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>147.9220054149628</v>
+      </c>
+      <c r="B89" t="n">
+        <v>333.3375549316406</v>
+      </c>
+      <c r="C89" t="n">
+        <v>38.76019287109375</v>
+      </c>
+      <c r="D89" t="n">
+        <v>295.0097961425781</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>150.320442199707</v>
+      </c>
+      <c r="B90" t="n">
+        <v>333.3324279785156</v>
+      </c>
+      <c r="C90" t="n">
+        <v>50.44147872924805</v>
+      </c>
+      <c r="D90" t="n">
+        <v>259.94677734375</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>151.7482233047485</v>
+      </c>
+      <c r="B91" t="n">
+        <v>333.3516845703125</v>
+      </c>
+      <c r="C91" t="n">
+        <v>50.43601989746094</v>
+      </c>
+      <c r="D91" t="n">
+        <v>271.6968078613281</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>153.1826419830322</v>
+      </c>
+      <c r="B92" t="n">
+        <v>333.35205078125</v>
+      </c>
+      <c r="C92" t="n">
+        <v>50.42630767822266</v>
+      </c>
+      <c r="D92" t="n">
+        <v>283.3822326660156</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>154.6140322685242</v>
+      </c>
+      <c r="B93" t="n">
+        <v>333.3385314941406</v>
+      </c>
+      <c r="C93" t="n">
+        <v>50.4228630065918</v>
+      </c>
+      <c r="D93" t="n">
+        <v>295.0209350585938</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>157.0146887302399</v>
+      </c>
+      <c r="B94" t="n">
+        <v>333.3232727050781</v>
+      </c>
+      <c r="C94" t="n">
+        <v>62.12617874145508</v>
+      </c>
+      <c r="D94" t="n">
+        <v>259.9483947753906</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>158.4463827610016</v>
+      </c>
+      <c r="B95" t="n">
+        <v>333.3398742675781</v>
+      </c>
+      <c r="C95" t="n">
+        <v>62.08762741088867</v>
+      </c>
+      <c r="D95" t="n">
+        <v>271.6999206542969</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>159.8765442371368</v>
+      </c>
+      <c r="B96" t="n">
+        <v>333.3483276367188</v>
+      </c>
+      <c r="C96" t="n">
+        <v>62.08920288085938</v>
+      </c>
+      <c r="D96" t="n">
+        <v>283.3743896484375</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>161.3067467212677</v>
+      </c>
+      <c r="B97" t="n">
+        <v>333.3403015136719</v>
+      </c>
+      <c r="C97" t="n">
+        <v>62.08841323852539</v>
+      </c>
+      <c r="D97" t="n">
+        <v>295.0015563964844</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>163.7062380313873</v>
+      </c>
+      <c r="B98" t="n">
+        <v>333.3440856933594</v>
+      </c>
+      <c r="C98" t="n">
+        <v>73.7760009765625</v>
+      </c>
+      <c r="D98" t="n">
+        <v>259.9522094726562</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>165.1337957382202</v>
+      </c>
+      <c r="B99" t="n">
+        <v>333.3566284179688</v>
+      </c>
+      <c r="C99" t="n">
+        <v>73.77234649658203</v>
+      </c>
+      <c r="D99" t="n">
+        <v>271.7120666503906</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>166.562292098999</v>
+      </c>
+      <c r="B100" t="n">
+        <v>333.3509521484375</v>
+      </c>
+      <c r="C100" t="n">
+        <v>73.76178741455078</v>
+      </c>
+      <c r="D100" t="n">
+        <v>283.3730163574219</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>167.9902250766754</v>
+      </c>
+      <c r="B101" t="n">
+        <v>333.3363342285156</v>
+      </c>
+      <c r="C101" t="n">
+        <v>73.75640106201172</v>
+      </c>
+      <c r="D101" t="n">
+        <v>295.0230102539062</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>170.3905394077301</v>
+      </c>
+      <c r="B102" t="n">
+        <v>333.3343811035156</v>
+      </c>
+      <c r="C102" t="n">
+        <v>85.45049285888672</v>
+      </c>
+      <c r="D102" t="n">
+        <v>259.9561462402344</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>171.824036359787</v>
+      </c>
+      <c r="B103" t="n">
+        <v>333.3495483398438</v>
+      </c>
+      <c r="C103" t="n">
+        <v>85.42966461181641</v>
+      </c>
+      <c r="D103" t="n">
+        <v>271.7183837890625</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>173.2566521167755</v>
+      </c>
+      <c r="B104" t="n">
+        <v>333.3487854003906</v>
+      </c>
+      <c r="C104" t="n">
+        <v>85.42292785644531</v>
+      </c>
+      <c r="D104" t="n">
+        <v>283.3792114257812</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>174.6928141117096</v>
+      </c>
+      <c r="B105" t="n">
+        <v>333.3376770019531</v>
+      </c>
+      <c r="C105" t="n">
+        <v>85.42080688476562</v>
+      </c>
+      <c r="D105" t="n">
+        <v>295.0101928710938</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>177.096604347229</v>
+      </c>
+      <c r="B106" t="n">
+        <v>333.323486328125</v>
+      </c>
+      <c r="C106" t="n">
+        <v>97.10354614257812</v>
+      </c>
+      <c r="D106" t="n">
+        <v>259.9417114257812</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>178.5275139808655</v>
+      </c>
+      <c r="B107" t="n">
+        <v>333.3418273925781</v>
+      </c>
+      <c r="C107" t="n">
+        <v>97.10222625732422</v>
+      </c>
+      <c r="D107" t="n">
+        <v>271.6864929199219</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>179.9566993713379</v>
+      </c>
+      <c r="B108" t="n">
+        <v>333.3401794433594</v>
+      </c>
+      <c r="C108" t="n">
+        <v>97.09212493896484</v>
+      </c>
+      <c r="D108" t="n">
+        <v>283.3595581054688</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>181.3870506286621</v>
+      </c>
+      <c r="B109" t="n">
+        <v>333.3465881347656</v>
+      </c>
+      <c r="C109" t="n">
+        <v>97.09177398681641</v>
+      </c>
+      <c r="D109" t="n">
+        <v>295.0437622070312</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>183.7866606712341</v>
+      </c>
+      <c r="B110" t="n">
+        <v>333.31591796875</v>
+      </c>
+      <c r="C110" t="n">
+        <v>108.7822189331055</v>
+      </c>
+      <c r="D110" t="n">
+        <v>259.9397583007812</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>185.2197089195251</v>
+      </c>
+      <c r="B111" t="n">
+        <v>333.3399963378906</v>
+      </c>
+      <c r="C111" t="n">
+        <v>108.7553634643555</v>
+      </c>
+      <c r="D111" t="n">
+        <v>271.6905517578125</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>186.6500997543335</v>
+      </c>
+      <c r="B112" t="n">
+        <v>333.3364868164062</v>
+      </c>
+      <c r="C112" t="n">
+        <v>108.7527084350586</v>
+      </c>
+      <c r="D112" t="n">
+        <v>283.3550720214844</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>188.0796778202057</v>
+      </c>
+      <c r="B113" t="n">
+        <v>333.3555603027344</v>
+      </c>
+      <c r="C113" t="n">
+        <v>108.7604446411133</v>
+      </c>
+      <c r="D113" t="n">
+        <v>295.0397644042969</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>191.5291175842285</v>
+      </c>
+      <c r="B114" t="n">
+        <v>344.4438171386719</v>
+      </c>
+      <c r="C114" t="n">
+        <v>38.7391357421875</v>
+      </c>
+      <c r="D114" t="n">
+        <v>259.9360046386719</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>192.9592878818512</v>
+      </c>
+      <c r="B115" t="n">
+        <v>344.45751953125</v>
+      </c>
+      <c r="C115" t="n">
+        <v>38.74710083007812</v>
+      </c>
+      <c r="D115" t="n">
+        <v>271.6732788085938</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>194.3922543525696</v>
+      </c>
+      <c r="B116" t="n">
+        <v>344.4588012695312</v>
+      </c>
+      <c r="C116" t="n">
+        <v>38.7586669921875</v>
+      </c>
+      <c r="D116" t="n">
+        <v>283.3525390625</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>195.8207068443298</v>
+      </c>
+      <c r="B117" t="n">
+        <v>344.4536437988281</v>
+      </c>
+      <c r="C117" t="n">
+        <v>38.75951385498047</v>
+      </c>
+      <c r="D117" t="n">
+        <v>295.0408630371094</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>198.2223780155182</v>
+      </c>
+      <c r="B118" t="n">
+        <v>344.4468383789062</v>
+      </c>
+      <c r="C118" t="n">
+        <v>50.43597793579102</v>
+      </c>
+      <c r="D118" t="n">
+        <v>259.943359375</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>199.6550250053406</v>
+      </c>
+      <c r="B119" t="n">
+        <v>344.4639892578125</v>
+      </c>
+      <c r="C119" t="n">
+        <v>50.43416976928711</v>
+      </c>
+      <c r="D119" t="n">
+        <v>271.6780090332031</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>201.0844843387604</v>
+      </c>
+      <c r="B120" t="n">
+        <v>344.4673767089844</v>
+      </c>
+      <c r="C120" t="n">
+        <v>50.42890167236328</v>
+      </c>
+      <c r="D120" t="n">
+        <v>283.361572265625</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>202.5143303871155</v>
+      </c>
+      <c r="B121" t="n">
+        <v>344.4459838867188</v>
+      </c>
+      <c r="C121" t="n">
+        <v>50.42433166503906</v>
+      </c>
+      <c r="D121" t="n">
+        <v>295.0252685546875</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>204.9140915870667</v>
+      </c>
+      <c r="B122" t="n">
+        <v>344.4341125488281</v>
+      </c>
+      <c r="C122" t="n">
+        <v>62.10979843139648</v>
+      </c>
+      <c r="D122" t="n">
+        <v>259.9433898925781</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>206.3450047969818</v>
+      </c>
+      <c r="B123" t="n">
+        <v>344.4441528320312</v>
+      </c>
+      <c r="C123" t="n">
+        <v>62.10069274902344</v>
+      </c>
+      <c r="D123" t="n">
+        <v>271.6929626464844</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>207.7744433879852</v>
+      </c>
+      <c r="B124" t="n">
+        <v>344.441162109375</v>
+      </c>
+      <c r="C124" t="n">
+        <v>62.08778381347656</v>
+      </c>
+      <c r="D124" t="n">
+        <v>283.3595886230469</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>209.2024531364441</v>
+      </c>
+      <c r="B125" t="n">
+        <v>344.4606628417969</v>
+      </c>
+      <c r="C125" t="n">
+        <v>62.09056854248047</v>
+      </c>
+      <c r="D125" t="n">
+        <v>295.0408935546875</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>211.60169506073</v>
+      </c>
+      <c r="B126" t="n">
+        <v>344.4489440917969</v>
+      </c>
+      <c r="C126" t="n">
+        <v>73.77079010009766</v>
+      </c>
+      <c r="D126" t="n">
+        <v>259.9580078125</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>213.0353074073792</v>
+      </c>
+      <c r="B127" t="n">
+        <v>344.4652404785156</v>
+      </c>
+      <c r="C127" t="n">
+        <v>73.77059936523438</v>
+      </c>
+      <c r="D127" t="n">
+        <v>271.7010803222656</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>214.4642632007599</v>
+      </c>
+      <c r="B128" t="n">
+        <v>344.462158203125</v>
+      </c>
+      <c r="C128" t="n">
+        <v>73.76256561279297</v>
+      </c>
+      <c r="D128" t="n">
+        <v>283.3633422851562</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>215.8943681716919</v>
+      </c>
+      <c r="B129" t="n">
+        <v>344.4403381347656</v>
+      </c>
+      <c r="C129" t="n">
+        <v>73.75568389892578</v>
+      </c>
+      <c r="D129" t="n">
+        <v>295.0316772460938</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>218.2938561439514</v>
+      </c>
+      <c r="B130" t="n">
+        <v>344.447998046875</v>
+      </c>
+      <c r="C130" t="n">
+        <v>85.45581817626953</v>
+      </c>
+      <c r="D130" t="n">
+        <v>259.9428405761719</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>219.7224349975586</v>
+      </c>
+      <c r="B131" t="n">
+        <v>344.4637756347656</v>
+      </c>
+      <c r="C131" t="n">
+        <v>85.43128967285156</v>
+      </c>
+      <c r="D131" t="n">
+        <v>271.710693359375</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>221.1521635055542</v>
+      </c>
+      <c r="B132" t="n">
+        <v>344.45751953125</v>
+      </c>
+      <c r="C132" t="n">
+        <v>85.42225646972656</v>
+      </c>
+      <c r="D132" t="n">
+        <v>283.3672790527344</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>222.5804905891418</v>
+      </c>
+      <c r="B133" t="n">
+        <v>344.464111328125</v>
+      </c>
+      <c r="C133" t="n">
+        <v>85.42463684082031</v>
+      </c>
+      <c r="D133" t="n">
+        <v>295.0321960449219</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>224.9802865982056</v>
+      </c>
+      <c r="B134" t="n">
+        <v>344.4364929199219</v>
+      </c>
+      <c r="C134" t="n">
+        <v>97.10233306884766</v>
+      </c>
+      <c r="D134" t="n">
+        <v>259.9324340820312</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>226.4138073921204</v>
+      </c>
+      <c r="B135" t="n">
+        <v>344.4502563476562</v>
+      </c>
+      <c r="C135" t="n">
+        <v>97.10316467285156</v>
+      </c>
+      <c r="D135" t="n">
+        <v>271.6970825195312</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>227.8448522090912</v>
+      </c>
+      <c r="B136" t="n">
+        <v>344.4532165527344</v>
+      </c>
+      <c r="C136" t="n">
+        <v>97.09487152099609</v>
+      </c>
+      <c r="D136" t="n">
+        <v>283.3743591308594</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>229.274224281311</v>
+      </c>
+      <c r="B137" t="n">
+        <v>344.4483947753906</v>
+      </c>
+      <c r="C137" t="n">
+        <v>97.08971405029297</v>
+      </c>
+      <c r="D137" t="n">
+        <v>295.0201416015625</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>231.6723072528839</v>
+      </c>
+      <c r="B138" t="n">
+        <v>344.4356689453125</v>
+      </c>
+      <c r="C138" t="n">
+        <v>108.7694473266602</v>
+      </c>
+      <c r="D138" t="n">
+        <v>259.9469909667969</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>233.1009166240692</v>
+      </c>
+      <c r="B139" t="n">
+        <v>344.4616394042969</v>
+      </c>
+      <c r="C139" t="n">
+        <v>108.7737655639648</v>
+      </c>
+      <c r="D139" t="n">
+        <v>271.6779479980469</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>234.530045747757</v>
+      </c>
+      <c r="B140" t="n">
+        <v>344.462158203125</v>
+      </c>
+      <c r="C140" t="n">
+        <v>108.7654113769531</v>
+      </c>
+      <c r="D140" t="n">
+        <v>283.3626403808594</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>235.9585974216461</v>
+      </c>
+      <c r="B141" t="n">
+        <v>344.4539489746094</v>
+      </c>
+      <c r="C141" t="n">
+        <v>108.7581634521484</v>
+      </c>
+      <c r="D141" t="n">
+        <v>295.0135498046875</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>239.3865804672241</v>
+      </c>
+      <c r="B142" t="n">
+        <v>355.5700073242188</v>
+      </c>
+      <c r="C142" t="n">
+        <v>38.73761749267578</v>
+      </c>
+      <c r="D142" t="n">
+        <v>259.9547729492188</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>240.8174095153809</v>
+      </c>
+      <c r="B143" t="n">
+        <v>355.5841979980469</v>
+      </c>
+      <c r="C143" t="n">
+        <v>38.74946975708008</v>
+      </c>
+      <c r="D143" t="n">
+        <v>271.7026062011719</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>242.2548038959503</v>
+      </c>
+      <c r="B144" t="n">
+        <v>355.5751647949219</v>
+      </c>
+      <c r="C144" t="n">
+        <v>38.7602653503418</v>
+      </c>
+      <c r="D144" t="n">
+        <v>283.3797607421875</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>243.6841523647308</v>
+      </c>
+      <c r="B145" t="n">
+        <v>355.5684204101562</v>
+      </c>
+      <c r="C145" t="n">
+        <v>38.7602653503418</v>
+      </c>
+      <c r="D145" t="n">
+        <v>295.0086669921875</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>246.0831732749939</v>
+      </c>
+      <c r="B146" t="n">
+        <v>355.5503845214844</v>
+      </c>
+      <c r="C146" t="n">
+        <v>50.45385360717773</v>
+      </c>
+      <c r="D146" t="n">
+        <v>259.9381713867188</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>247.5134301185608</v>
+      </c>
+      <c r="B147" t="n">
+        <v>355.5826110839844</v>
+      </c>
+      <c r="C147" t="n">
+        <v>50.42502212524414</v>
+      </c>
+      <c r="D147" t="n">
+        <v>271.7016906738281</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>248.9425957202911</v>
+      </c>
+      <c r="B148" t="n">
+        <v>355.5746765136719</v>
+      </c>
+      <c r="C148" t="n">
+        <v>50.42389678955078</v>
+      </c>
+      <c r="D148" t="n">
+        <v>283.372802734375</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>250.3725161552429</v>
+      </c>
+      <c r="B149" t="n">
+        <v>355.5670471191406</v>
+      </c>
+      <c r="C149" t="n">
+        <v>50.42430114746094</v>
+      </c>
+      <c r="D149" t="n">
+        <v>295.0008544921875</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>252.7742502689362</v>
+      </c>
+      <c r="B150" t="n">
+        <v>355.5577697753906</v>
+      </c>
+      <c r="C150" t="n">
+        <v>62.11174774169922</v>
+      </c>
+      <c r="D150" t="n">
+        <v>259.9551696777344</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>254.204582452774</v>
+      </c>
+      <c r="B151" t="n">
+        <v>355.57470703125</v>
+      </c>
+      <c r="C151" t="n">
+        <v>62.10570526123047</v>
+      </c>
+      <c r="D151" t="n">
+        <v>271.7037048339844</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>255.6338109970093</v>
+      </c>
+      <c r="B152" t="n">
+        <v>355.5676574707031</v>
+      </c>
+      <c r="C152" t="n">
+        <v>62.09172439575195</v>
+      </c>
+      <c r="D152" t="n">
+        <v>283.3590393066406</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>257.0644145011902</v>
+      </c>
+      <c r="B153" t="n">
+        <v>355.5724182128906</v>
+      </c>
+      <c r="C153" t="n">
+        <v>62.0918083190918</v>
+      </c>
+      <c r="D153" t="n">
+        <v>295.0538024902344</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>259.4659852981567</v>
+      </c>
+      <c r="B154" t="n">
+        <v>355.5457458496094</v>
+      </c>
+      <c r="C154" t="n">
+        <v>73.78934478759766</v>
+      </c>
+      <c r="D154" t="n">
+        <v>259.9415893554688</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>260.8946249485016</v>
+      </c>
+      <c r="B155" t="n">
+        <v>355.5740356445312</v>
+      </c>
+      <c r="C155" t="n">
+        <v>73.75650024414062</v>
+      </c>
+      <c r="D155" t="n">
+        <v>271.71533203125</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>262.3199851512909</v>
+      </c>
+      <c r="B156" t="n">
+        <v>355.5787353515625</v>
+      </c>
+      <c r="C156" t="n">
+        <v>73.75747680664062</v>
+      </c>
+      <c r="D156" t="n">
+        <v>283.3799438476562</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>263.7479667663574</v>
+      </c>
+      <c r="B157" t="n">
+        <v>355.5582275390625</v>
+      </c>
+      <c r="C157" t="n">
+        <v>73.75474548339844</v>
+      </c>
+      <c r="D157" t="n">
+        <v>295.0370178222656</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>266.1473624706268</v>
+      </c>
+      <c r="B158" t="n">
+        <v>355.5425720214844</v>
+      </c>
+      <c r="C158" t="n">
+        <v>85.45825958251953</v>
+      </c>
+      <c r="D158" t="n">
+        <v>259.9441528320312</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>267.5767765045166</v>
+      </c>
+      <c r="B159" t="n">
+        <v>355.5842895507812</v>
+      </c>
+      <c r="C159" t="n">
+        <v>85.42518615722656</v>
+      </c>
+      <c r="D159" t="n">
+        <v>271.6961669921875</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>269.0077240467072</v>
+      </c>
+      <c r="B160" t="n">
+        <v>355.5786437988281</v>
+      </c>
+      <c r="C160" t="n">
+        <v>85.423828125</v>
+      </c>
+      <c r="D160" t="n">
+        <v>283.3770751953125</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>270.4422154426575</v>
+      </c>
+      <c r="B161" t="n">
+        <v>355.5714111328125</v>
+      </c>
+      <c r="C161" t="n">
+        <v>85.42362976074219</v>
+      </c>
+      <c r="D161" t="n">
+        <v>295.0215148925781</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>272.8413138389587</v>
+      </c>
+      <c r="B162" t="n">
+        <v>355.547119140625</v>
+      </c>
+      <c r="C162" t="n">
+        <v>97.11185455322266</v>
+      </c>
+      <c r="D162" t="n">
+        <v>259.9530639648438</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>274.271075963974</v>
+      </c>
+      <c r="B163" t="n">
+        <v>355.5641479492188</v>
+      </c>
+      <c r="C163" t="n">
+        <v>97.09539794921875</v>
+      </c>
+      <c r="D163" t="n">
+        <v>271.6732482910156</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>275.7022967338562</v>
+      </c>
+      <c r="B164" t="n">
+        <v>355.5683898925781</v>
+      </c>
+      <c r="C164" t="n">
+        <v>97.08951568603516</v>
+      </c>
+      <c r="D164" t="n">
+        <v>283.3547973632812</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>277.131938457489</v>
+      </c>
+      <c r="B165" t="n">
+        <v>355.5599670410156</v>
+      </c>
+      <c r="C165" t="n">
+        <v>97.08721923828125</v>
+      </c>
+      <c r="D165" t="n">
+        <v>295.0077514648438</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>279.5322592258453</v>
+      </c>
+      <c r="B166" t="n">
+        <v>355.5457763671875</v>
+      </c>
+      <c r="C166" t="n">
+        <v>108.7847061157227</v>
+      </c>
+      <c r="D166" t="n">
+        <v>259.9375610351562</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>280.9610605239868</v>
+      </c>
+      <c r="B167" t="n">
+        <v>355.5567321777344</v>
+      </c>
+      <c r="C167" t="n">
+        <v>108.7618026733398</v>
+      </c>
+      <c r="D167" t="n">
+        <v>271.6916198730469</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>282.3934347629547</v>
+      </c>
+      <c r="B168" t="n">
+        <v>355.5691223144531</v>
+      </c>
+      <c r="C168" t="n">
+        <v>108.7560424804688</v>
+      </c>
+      <c r="D168" t="n">
+        <v>283.3811340332031</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>283.8244276046753</v>
+      </c>
+      <c r="B169" t="n">
+        <v>355.5545043945312</v>
+      </c>
+      <c r="C169" t="n">
+        <v>108.7523574829102</v>
+      </c>
+      <c r="D169" t="n">
+        <v>295.0191040039062</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>287.2522566318512</v>
+      </c>
+      <c r="B170" t="n">
+        <v>366.6806335449219</v>
+      </c>
+      <c r="C170" t="n">
+        <v>38.73366165161133</v>
+      </c>
+      <c r="D170" t="n">
+        <v>259.9569091796875</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>288.6803517341614</v>
+      </c>
+      <c r="B171" t="n">
+        <v>366.6800231933594</v>
+      </c>
+      <c r="C171" t="n">
+        <v>38.7487678527832</v>
+      </c>
+      <c r="D171" t="n">
+        <v>271.6790161132812</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>290.1087212562561</v>
+      </c>
+      <c r="B172" t="n">
+        <v>366.6671752929688</v>
+      </c>
+      <c r="C172" t="n">
+        <v>38.75955200195312</v>
+      </c>
+      <c r="D172" t="n">
+        <v>283.3601379394531</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>291.5406060218811</v>
+      </c>
+      <c r="B173" t="n">
+        <v>366.6752319335938</v>
+      </c>
+      <c r="C173" t="n">
+        <v>38.76040267944336</v>
+      </c>
+      <c r="D173" t="n">
+        <v>295.0274353027344</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>293.9407510757446</v>
+      </c>
+      <c r="B174" t="n">
+        <v>366.6625061035156</v>
+      </c>
+      <c r="C174" t="n">
+        <v>50.44642639160156</v>
+      </c>
+      <c r="D174" t="n">
+        <v>259.9573364257812</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>295.3701298236847</v>
+      </c>
+      <c r="B175" t="n">
+        <v>366.6802368164062</v>
+      </c>
+      <c r="C175" t="n">
+        <v>50.42898941040039</v>
+      </c>
+      <c r="D175" t="n">
+        <v>271.679931640625</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>296.8006391525269</v>
+      </c>
+      <c r="B176" t="n">
+        <v>366.6674194335938</v>
+      </c>
+      <c r="C176" t="n">
+        <v>50.42187118530273</v>
+      </c>
+      <c r="D176" t="n">
+        <v>283.354248046875</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>298.2330756187439</v>
+      </c>
+      <c r="B177" t="n">
+        <v>366.6827392578125</v>
+      </c>
+      <c r="C177" t="n">
+        <v>50.42474365234375</v>
+      </c>
+      <c r="D177" t="n">
+        <v>295.0301513671875</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>300.6354615688324</v>
+      </c>
+      <c r="B178" t="n">
+        <v>366.6692199707031</v>
+      </c>
+      <c r="C178" t="n">
+        <v>62.11367416381836</v>
+      </c>
+      <c r="D178" t="n">
+        <v>259.9408874511719</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>302.0654091835022</v>
+      </c>
+      <c r="B179" t="n">
+        <v>366.6634521484375</v>
+      </c>
+      <c r="C179" t="n">
+        <v>62.10112380981445</v>
+      </c>
+      <c r="D179" t="n">
+        <v>271.6951599121094</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>303.4968860149384</v>
+      </c>
+      <c r="B180" t="n">
+        <v>366.6733093261719</v>
+      </c>
+      <c r="C180" t="n">
+        <v>62.08966827392578</v>
+      </c>
+      <c r="D180" t="n">
+        <v>283.3688659667969</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>304.9271652698517</v>
+      </c>
+      <c r="B181" t="n">
+        <v>366.6646728515625</v>
+      </c>
+      <c r="C181" t="n">
+        <v>62.08743286132812</v>
+      </c>
+      <c r="D181" t="n">
+        <v>295.017578125</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>307.3279292583466</v>
+      </c>
+      <c r="B182" t="n">
+        <v>366.6657104492188</v>
+      </c>
+      <c r="C182" t="n">
+        <v>73.78260040283203</v>
+      </c>
+      <c r="D182" t="n">
+        <v>259.9410095214844</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>308.7571518421173</v>
+      </c>
+      <c r="B183" t="n">
+        <v>366.6808776855469</v>
+      </c>
+      <c r="C183" t="n">
+        <v>73.7598876953125</v>
+      </c>
+      <c r="D183" t="n">
+        <v>271.6853637695312</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>310.1864330768585</v>
+      </c>
+      <c r="B184" t="n">
+        <v>366.6607971191406</v>
+      </c>
+      <c r="C184" t="n">
+        <v>73.75116729736328</v>
+      </c>
+      <c r="D184" t="n">
+        <v>283.3540649414062</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>311.6194698810577</v>
+      </c>
+      <c r="B185" t="n">
+        <v>366.6703491210938</v>
+      </c>
+      <c r="C185" t="n">
+        <v>73.75464630126953</v>
+      </c>
+      <c r="D185" t="n">
+        <v>295.0420532226562</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>314.0193107128143</v>
+      </c>
+      <c r="B186" t="n">
+        <v>366.6701965332031</v>
+      </c>
+      <c r="C186" t="n">
+        <v>85.45699310302734</v>
+      </c>
+      <c r="D186" t="n">
+        <v>259.9496154785156</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>315.4532182216644</v>
+      </c>
+      <c r="B187" t="n">
+        <v>366.6694030761719</v>
+      </c>
+      <c r="C187" t="n">
+        <v>85.42279815673828</v>
+      </c>
+      <c r="D187" t="n">
+        <v>271.6959838867188</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>316.8831429481506</v>
+      </c>
+      <c r="B188" t="n">
+        <v>366.6731872558594</v>
+      </c>
+      <c r="C188" t="n">
+        <v>85.41971588134766</v>
+      </c>
+      <c r="D188" t="n">
+        <v>283.349365234375</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>318.3167297840118</v>
+      </c>
+      <c r="B189" t="n">
+        <v>366.6764831542969</v>
+      </c>
+      <c r="C189" t="n">
+        <v>85.42207336425781</v>
+      </c>
+      <c r="D189" t="n">
+        <v>295.0067443847656</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>320.7166800498962</v>
+      </c>
+      <c r="B190" t="n">
+        <v>366.6594848632812</v>
+      </c>
+      <c r="C190" t="n">
+        <v>97.11521148681641</v>
+      </c>
+      <c r="D190" t="n">
+        <v>259.9336547851562</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>322.146107673645</v>
+      </c>
+      <c r="B191" t="n">
+        <v>366.6857604980469</v>
+      </c>
+      <c r="C191" t="n">
+        <v>97.09567260742188</v>
+      </c>
+      <c r="D191" t="n">
+        <v>271.7164916992188</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>323.5766565799713</v>
+      </c>
+      <c r="B192" t="n">
+        <v>366.6750183105469</v>
+      </c>
+      <c r="C192" t="n">
+        <v>97.08881378173828</v>
+      </c>
+      <c r="D192" t="n">
+        <v>283.3548583984375</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>325.0074701309204</v>
+      </c>
+      <c r="B193" t="n">
+        <v>366.6867370605469</v>
+      </c>
+      <c r="C193" t="n">
+        <v>97.09271240234375</v>
+      </c>
+      <c r="D193" t="n">
+        <v>295.0409545898438</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>327.4065396785736</v>
+      </c>
+      <c r="B194" t="n">
+        <v>366.6608581542969</v>
+      </c>
+      <c r="C194" t="n">
+        <v>108.7766799926758</v>
+      </c>
+      <c r="D194" t="n">
+        <v>259.9326477050781</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>328.8353748321533</v>
+      </c>
+      <c r="B195" t="n">
+        <v>366.6777038574219</v>
+      </c>
+      <c r="C195" t="n">
+        <v>108.7702484130859</v>
+      </c>
+      <c r="D195" t="n">
+        <v>271.7166748046875</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>330.2635850906372</v>
+      </c>
+      <c r="B196" t="n">
+        <v>366.6731567382812</v>
+      </c>
+      <c r="C196" t="n">
+        <v>108.7558364868164</v>
+      </c>
+      <c r="D196" t="n">
+        <v>283.34130859375</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>331.6950149536133</v>
+      </c>
+      <c r="B197" t="n">
+        <v>366.6766357421875</v>
+      </c>
+      <c r="C197" t="n">
+        <v>108.7568664550781</v>
+      </c>
+      <c r="D197" t="n">
+        <v>295.0111389160156</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>335.1256592273712</v>
+      </c>
+      <c r="B198" t="n">
+        <v>377.7886352539062</v>
+      </c>
+      <c r="C198" t="n">
+        <v>38.7293586730957</v>
+      </c>
+      <c r="D198" t="n">
+        <v>259.9633178710938</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>336.5559923648834</v>
+      </c>
+      <c r="B199" t="n">
+        <v>377.7891845703125</v>
+      </c>
+      <c r="C199" t="n">
+        <v>38.75206756591797</v>
+      </c>
+      <c r="D199" t="n">
+        <v>271.6848449707031</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>337.9856715202332</v>
+      </c>
+      <c r="B200" t="n">
+        <v>377.7791748046875</v>
+      </c>
+      <c r="C200" t="n">
+        <v>38.76041793823242</v>
+      </c>
+      <c r="D200" t="n">
+        <v>283.3598022460938</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>339.4205586910248</v>
+      </c>
+      <c r="B201" t="n">
+        <v>377.77880859375</v>
+      </c>
+      <c r="C201" t="n">
+        <v>38.75959777832031</v>
+      </c>
+      <c r="D201" t="n">
+        <v>295.0234680175781</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>341.8206834793091</v>
+      </c>
+      <c r="B202" t="n">
+        <v>377.7723388671875</v>
+      </c>
+      <c r="C202" t="n">
+        <v>50.4547233581543</v>
+      </c>
+      <c r="D202" t="n">
+        <v>259.9356689453125</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>343.2498188018799</v>
+      </c>
+      <c r="B203" t="n">
+        <v>377.79638671875</v>
+      </c>
+      <c r="C203" t="n">
+        <v>50.4256706237793</v>
+      </c>
+      <c r="D203" t="n">
+        <v>271.702392578125</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>344.6802010536194</v>
+      </c>
+      <c r="B204" t="n">
+        <v>377.7848815917969</v>
+      </c>
+      <c r="C204" t="n">
+        <v>50.42177581787109</v>
+      </c>
+      <c r="D204" t="n">
+        <v>283.3536071777344</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>346.110976934433</v>
+      </c>
+      <c r="B205" t="n">
+        <v>377.7909851074219</v>
+      </c>
+      <c r="C205" t="n">
+        <v>50.42337799072266</v>
+      </c>
+      <c r="D205" t="n">
+        <v>295.0288391113281</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>348.5135617256165</v>
+      </c>
+      <c r="B206" t="n">
+        <v>377.780517578125</v>
+      </c>
+      <c r="C206" t="n">
+        <v>62.11744689941406</v>
+      </c>
+      <c r="D206" t="n">
+        <v>259.9607543945312</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>349.9469773769379</v>
+      </c>
+      <c r="B207" t="n">
+        <v>377.7856750488281</v>
+      </c>
+      <c r="C207" t="n">
+        <v>62.09923934936523</v>
+      </c>
+      <c r="D207" t="n">
+        <v>271.6830139160156</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>351.3763647079468</v>
+      </c>
+      <c r="B208" t="n">
+        <v>377.7955932617188</v>
+      </c>
+      <c r="C208" t="n">
+        <v>62.08975601196289</v>
+      </c>
+      <c r="D208" t="n">
+        <v>283.3870239257812</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>352.8077292442322</v>
+      </c>
+      <c r="B209" t="n">
+        <v>377.785400390625</v>
+      </c>
+      <c r="C209" t="n">
+        <v>62.08807754516602</v>
+      </c>
+      <c r="D209" t="n">
+        <v>295.0548706054688</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>355.2064332962036</v>
+      </c>
+      <c r="B210" t="n">
+        <v>377.76953125</v>
+      </c>
+      <c r="C210" t="n">
+        <v>73.78659820556641</v>
+      </c>
+      <c r="D210" t="n">
+        <v>259.9430236816406</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>356.6366016864777</v>
+      </c>
+      <c r="B211" t="n">
+        <v>377.7937927246094</v>
+      </c>
+      <c r="C211" t="n">
+        <v>73.75762939453125</v>
+      </c>
+      <c r="D211" t="n">
+        <v>271.684326171875</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>358.0646500587463</v>
+      </c>
+      <c r="B212" t="n">
+        <v>377.7861328125</v>
+      </c>
+      <c r="C212" t="n">
+        <v>73.75453186035156</v>
+      </c>
+      <c r="D212" t="n">
+        <v>283.36962890625</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>359.4964115619659</v>
+      </c>
+      <c r="B213" t="n">
+        <v>377.7821350097656</v>
+      </c>
+      <c r="C213" t="n">
+        <v>73.75535583496094</v>
+      </c>
+      <c r="D213" t="n">
+        <v>295.027099609375</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>361.8998486995697</v>
+      </c>
+      <c r="B214" t="n">
+        <v>377.7739562988281</v>
+      </c>
+      <c r="C214" t="n">
+        <v>85.45523834228516</v>
+      </c>
+      <c r="D214" t="n">
+        <v>259.9515075683594</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>363.3177161216736</v>
+      </c>
+      <c r="B215" t="n">
+        <v>377.7814025878906</v>
+      </c>
+      <c r="C215" t="n">
+        <v>85.42442321777344</v>
+      </c>
+      <c r="D215" t="n">
+        <v>271.6747436523438</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>364.7491874694824</v>
+      </c>
+      <c r="B216" t="n">
+        <v>377.7931213378906</v>
+      </c>
+      <c r="C216" t="n">
+        <v>85.42219543457031</v>
+      </c>
+      <c r="D216" t="n">
+        <v>283.3858337402344</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>366.1807067394257</v>
+      </c>
+      <c r="B217" t="n">
+        <v>377.7913208007812</v>
+      </c>
+      <c r="C217" t="n">
+        <v>85.42259979248047</v>
+      </c>
+      <c r="D217" t="n">
+        <v>295.0490112304688</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>368.5858914852142</v>
+      </c>
+      <c r="B218" t="n">
+        <v>377.7627868652344</v>
+      </c>
+      <c r="C218" t="n">
+        <v>97.12979125976562</v>
+      </c>
+      <c r="D218" t="n">
+        <v>259.9331359863281</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>370.0163769721985</v>
+      </c>
+      <c r="B219" t="n">
+        <v>377.793212890625</v>
+      </c>
+      <c r="C219" t="n">
+        <v>97.08816528320312</v>
+      </c>
+      <c r="D219" t="n">
+        <v>271.7030029296875</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>371.4455008506775</v>
+      </c>
+      <c r="B220" t="n">
+        <v>377.7846069335938</v>
+      </c>
+      <c r="C220" t="n">
+        <v>97.08677673339844</v>
+      </c>
+      <c r="D220" t="n">
+        <v>283.3557739257812</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>372.8766927719116</v>
+      </c>
+      <c r="B221" t="n">
+        <v>377.7800903320312</v>
+      </c>
+      <c r="C221" t="n">
+        <v>97.08726501464844</v>
+      </c>
+      <c r="D221" t="n">
+        <v>295.0238342285156</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>375.2766714096069</v>
+      </c>
+      <c r="B222" t="n">
+        <v>377.7767944335938</v>
+      </c>
+      <c r="C222" t="n">
+        <v>108.7749786376953</v>
+      </c>
+      <c r="D222" t="n">
+        <v>259.9251403808594</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>376.7047588825226</v>
+      </c>
+      <c r="B223" t="n">
+        <v>377.7763977050781</v>
+      </c>
+      <c r="C223" t="n">
+        <v>108.7690048217773</v>
+      </c>
+      <c r="D223" t="n">
+        <v>271.6856689453125</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>378.1340305805206</v>
+      </c>
+      <c r="B224" t="n">
+        <v>377.7922668457031</v>
+      </c>
+      <c r="C224" t="n">
+        <v>108.7618560791016</v>
+      </c>
+      <c r="D224" t="n">
+        <v>283.3712463378906</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>379.5648150444031</v>
+      </c>
+      <c r="B225" t="n">
+        <v>377.7881774902344</v>
+      </c>
+      <c r="C225" t="n">
+        <v>108.7581634521484</v>
+      </c>
+      <c r="D225" t="n">
+        <v>295.0421447753906</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>382.9966015815735</v>
+      </c>
+      <c r="B226" t="n">
+        <v>388.8929748535156</v>
+      </c>
+      <c r="C226" t="n">
+        <v>38.71326446533203</v>
+      </c>
+      <c r="D226" t="n">
+        <v>259.9320678710938</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>384.4293291568756</v>
+      </c>
+      <c r="B227" t="n">
+        <v>388.915771484375</v>
+      </c>
+      <c r="C227" t="n">
+        <v>38.76375579833984</v>
+      </c>
+      <c r="D227" t="n">
+        <v>271.7037048339844</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>385.8622415065765</v>
+      </c>
+      <c r="B228" t="n">
+        <v>388.8946533203125</v>
+      </c>
+      <c r="C228" t="n">
+        <v>38.76165390014648</v>
+      </c>
+      <c r="D228" t="n">
+        <v>283.3600463867188</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>387.2934038639069</v>
+      </c>
+      <c r="B229" t="n">
+        <v>388.89404296875</v>
+      </c>
+      <c r="C229" t="n">
+        <v>38.76079177856445</v>
+      </c>
+      <c r="D229" t="n">
+        <v>295.0287475585938</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>389.6955580711365</v>
+      </c>
+      <c r="B230" t="n">
+        <v>388.8854370117188</v>
+      </c>
+      <c r="C230" t="n">
+        <v>50.45983505249023</v>
+      </c>
+      <c r="D230" t="n">
+        <v>259.9369201660156</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>391.1270895004272</v>
+      </c>
+      <c r="B231" t="n">
+        <v>388.9106140136719</v>
+      </c>
+      <c r="C231" t="n">
+        <v>50.42263793945312</v>
+      </c>
+      <c r="D231" t="n">
+        <v>271.7234802246094</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>392.556095123291</v>
+      </c>
+      <c r="B232" t="n">
+        <v>388.8991088867188</v>
+      </c>
+      <c r="C232" t="n">
+        <v>50.42114639282227</v>
+      </c>
+      <c r="D232" t="n">
+        <v>283.3446350097656</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>393.9867238998413</v>
+      </c>
+      <c r="B233" t="n">
+        <v>388.8988952636719</v>
+      </c>
+      <c r="C233" t="n">
+        <v>50.42273712158203</v>
+      </c>
+      <c r="D233" t="n">
+        <v>295.0189819335938</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>396.3874490261078</v>
+      </c>
+      <c r="B234" t="n">
+        <v>388.8885498046875</v>
+      </c>
+      <c r="C234" t="n">
+        <v>62.13323593139648</v>
+      </c>
+      <c r="D234" t="n">
+        <v>259.9178161621094</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>397.8170590400696</v>
+      </c>
+      <c r="B235" t="n">
+        <v>388.9022521972656</v>
+      </c>
+      <c r="C235" t="n">
+        <v>62.08808898925781</v>
+      </c>
+      <c r="D235" t="n">
+        <v>271.6974487304688</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>399.2467920780182</v>
+      </c>
+      <c r="B236" t="n">
+        <v>388.8984680175781</v>
+      </c>
+      <c r="C236" t="n">
+        <v>62.08748245239258</v>
+      </c>
+      <c r="D236" t="n">
+        <v>283.3609008789062</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>400.6764476299286</v>
+      </c>
+      <c r="B237" t="n">
+        <v>388.8967895507812</v>
+      </c>
+      <c r="C237" t="n">
+        <v>62.08803558349609</v>
+      </c>
+      <c r="D237" t="n">
+        <v>295.0339050292969</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>403.0797498226166</v>
+      </c>
+      <c r="B238" t="n">
+        <v>388.87744140625</v>
+      </c>
+      <c r="C238" t="n">
+        <v>73.78983306884766</v>
+      </c>
+      <c r="D238" t="n">
+        <v>259.947998046875</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>404.5112016201019</v>
+      </c>
+      <c r="B239" t="n">
+        <v>388.9080810546875</v>
+      </c>
+      <c r="C239" t="n">
+        <v>73.75853729248047</v>
+      </c>
+      <c r="D239" t="n">
+        <v>271.7142333984375</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>405.9449236392975</v>
+      </c>
+      <c r="B240" t="n">
+        <v>388.89501953125</v>
+      </c>
+      <c r="C240" t="n">
+        <v>73.75359344482422</v>
+      </c>
+      <c r="D240" t="n">
+        <v>283.3402099609375</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>407.3750257492065</v>
+      </c>
+      <c r="B241" t="n">
+        <v>388.892822265625</v>
+      </c>
+      <c r="C241" t="n">
+        <v>73.75482177734375</v>
+      </c>
+      <c r="D241" t="n">
+        <v>295.0073852539062</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>409.7758808135986</v>
+      </c>
+      <c r="B242" t="n">
+        <v>388.8860473632812</v>
+      </c>
+      <c r="C242" t="n">
+        <v>85.44438934326172</v>
+      </c>
+      <c r="D242" t="n">
+        <v>259.9476928710938</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>411.2054064273834</v>
+      </c>
+      <c r="B243" t="n">
+        <v>388.8947143554688</v>
+      </c>
+      <c r="C243" t="n">
+        <v>85.43795776367188</v>
+      </c>
+      <c r="D243" t="n">
+        <v>271.7029724121094</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>412.6383759975433</v>
+      </c>
+      <c r="B244" t="n">
+        <v>388.9056701660156</v>
+      </c>
+      <c r="C244" t="n">
+        <v>85.42784118652344</v>
+      </c>
+      <c r="D244" t="n">
+        <v>283.3630981445312</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>414.0691764354706</v>
+      </c>
+      <c r="B245" t="n">
+        <v>388.9085083007812</v>
+      </c>
+      <c r="C245" t="n">
+        <v>85.42596435546875</v>
+      </c>
+      <c r="D245" t="n">
+        <v>295.0487365722656</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>416.4698348045349</v>
+      </c>
+      <c r="B246" t="n">
+        <v>388.8792419433594</v>
+      </c>
+      <c r="C246" t="n">
+        <v>97.12802124023438</v>
+      </c>
+      <c r="D246" t="n">
+        <v>259.9356384277344</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>417.9034245014191</v>
+      </c>
+      <c r="B247" t="n">
+        <v>388.9106750488281</v>
+      </c>
+      <c r="C247" t="n">
+        <v>97.09529113769531</v>
+      </c>
+      <c r="D247" t="n">
+        <v>271.6922607421875</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>419.3335855007172</v>
+      </c>
+      <c r="B248" t="n">
+        <v>388.8870239257812</v>
+      </c>
+      <c r="C248" t="n">
+        <v>97.08515930175781</v>
+      </c>
+      <c r="D248" t="n">
+        <v>283.3648376464844</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>420.7667634487152</v>
+      </c>
+      <c r="B249" t="n">
+        <v>388.8941345214844</v>
+      </c>
+      <c r="C249" t="n">
+        <v>97.08777618408203</v>
+      </c>
+      <c r="D249" t="n">
+        <v>295.0128479003906</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>423.1681332588196</v>
+      </c>
+      <c r="B250" t="n">
+        <v>388.8801879882812</v>
+      </c>
+      <c r="C250" t="n">
+        <v>108.7809143066406</v>
+      </c>
+      <c r="D250" t="n">
+        <v>259.9287719726562</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>424.5987732410431</v>
+      </c>
+      <c r="B251" t="n">
+        <v>388.9075622558594</v>
+      </c>
+      <c r="C251" t="n">
+        <v>108.7714080810547</v>
+      </c>
+      <c r="D251" t="n">
+        <v>271.6932067871094</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>426.0280554294586</v>
+      </c>
+      <c r="B252" t="n">
+        <v>388.9026794433594</v>
+      </c>
+      <c r="C252" t="n">
+        <v>108.7571716308594</v>
+      </c>
+      <c r="D252" t="n">
+        <v>283.3767395019531</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>427.456983089447</v>
+      </c>
+      <c r="B253" t="n">
+        <v>388.9117126464844</v>
+      </c>
+      <c r="C253" t="n">
+        <v>108.7597045898438</v>
+      </c>
+      <c r="D253" t="n">
+        <v>295.0381164550781</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>430.893693447113</v>
+      </c>
+      <c r="B254" t="n">
+        <v>400.0037841796875</v>
+      </c>
+      <c r="C254" t="n">
+        <v>38.7432746887207</v>
+      </c>
+      <c r="D254" t="n">
+        <v>259.9651489257812</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>432.3254776000977</v>
+      </c>
+      <c r="B255" t="n">
+        <v>400.0114440917969</v>
+      </c>
+      <c r="C255" t="n">
+        <v>38.74897384643555</v>
+      </c>
+      <c r="D255" t="n">
+        <v>271.7026977539062</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>433.7583811283112</v>
+      </c>
+      <c r="B256" t="n">
+        <v>400.0227661132812</v>
+      </c>
+      <c r="C256" t="n">
+        <v>38.75833511352539</v>
+      </c>
+      <c r="D256" t="n">
+        <v>283.3657836914062</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>435.188952922821</v>
+      </c>
+      <c r="B257" t="n">
+        <v>400.0260009765625</v>
+      </c>
+      <c r="C257" t="n">
+        <v>38.76112747192383</v>
+      </c>
+      <c r="D257" t="n">
+        <v>295.0568237304688</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>437.5876841545105</v>
+      </c>
+      <c r="B258" t="n">
+        <v>399.9919128417969</v>
+      </c>
+      <c r="C258" t="n">
+        <v>50.4633674621582</v>
+      </c>
+      <c r="D258" t="n">
+        <v>259.9322204589844</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>439.0170712471008</v>
+      </c>
+      <c r="B259" t="n">
+        <v>400.0167846679688</v>
+      </c>
+      <c r="C259" t="n">
+        <v>50.42160034179688</v>
+      </c>
+      <c r="D259" t="n">
+        <v>271.6818237304688</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>440.4469673633575</v>
+      </c>
+      <c r="B260" t="n">
+        <v>400.0116577148438</v>
+      </c>
+      <c r="C260" t="n">
+        <v>50.42095565795898</v>
+      </c>
+      <c r="D260" t="n">
+        <v>283.36962890625</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>441.8759517669678</v>
+      </c>
+      <c r="B261" t="n">
+        <v>400.0258178710938</v>
+      </c>
+      <c r="C261" t="n">
+        <v>50.42440414428711</v>
+      </c>
+      <c r="D261" t="n">
+        <v>295.0260009765625</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>444.2770912647247</v>
+      </c>
+      <c r="B262" t="n">
+        <v>400.0024108886719</v>
+      </c>
+      <c r="C262" t="n">
+        <v>62.11205673217773</v>
+      </c>
+      <c r="D262" t="n">
+        <v>259.95068359375</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>445.706693649292</v>
+      </c>
+      <c r="B263" t="n">
+        <v>400.0051574707031</v>
+      </c>
+      <c r="C263" t="n">
+        <v>62.10409927368164</v>
+      </c>
+      <c r="D263" t="n">
+        <v>271.6864929199219</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>447.136058807373</v>
+      </c>
+      <c r="B264" t="n">
+        <v>400.0133666992188</v>
+      </c>
+      <c r="C264" t="n">
+        <v>62.0936393737793</v>
+      </c>
+      <c r="D264" t="n">
+        <v>283.3592529296875</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>448.5657362937927</v>
+      </c>
+      <c r="B265" t="n">
+        <v>400.0081176757812</v>
+      </c>
+      <c r="C265" t="n">
+        <v>62.09030914306641</v>
+      </c>
+      <c r="D265" t="n">
+        <v>295.0166931152344</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>450.9669938087463</v>
+      </c>
+      <c r="B266" t="n">
+        <v>399.9981994628906</v>
+      </c>
+      <c r="C266" t="n">
+        <v>73.79892730712891</v>
+      </c>
+      <c r="D266" t="n">
+        <v>259.9361877441406</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>452.3970432281494</v>
+      </c>
+      <c r="B267" t="n">
+        <v>400.0020446777344</v>
+      </c>
+      <c r="C267" t="n">
+        <v>73.75392913818359</v>
+      </c>
+      <c r="D267" t="n">
+        <v>271.6848754882812</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>453.8280124664307</v>
+      </c>
+      <c r="B268" t="n">
+        <v>400.0162048339844</v>
+      </c>
+      <c r="C268" t="n">
+        <v>73.75484466552734</v>
+      </c>
+      <c r="D268" t="n">
+        <v>283.3814086914062</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>455.2560968399048</v>
+      </c>
+      <c r="B269" t="n">
+        <v>400.0175476074219</v>
+      </c>
+      <c r="C269" t="n">
+        <v>73.75678253173828</v>
+      </c>
+      <c r="D269" t="n">
+        <v>295.0334777832031</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>457.6588079929352</v>
+      </c>
+      <c r="B270" t="n">
+        <v>400.0099182128906</v>
+      </c>
+      <c r="C270" t="n">
+        <v>85.45716857910156</v>
+      </c>
+      <c r="D270" t="n">
+        <v>259.93994140625</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>459.0887718200684</v>
+      </c>
+      <c r="B271" t="n">
+        <v>400.0188598632812</v>
+      </c>
+      <c r="C271" t="n">
+        <v>85.43254089355469</v>
+      </c>
+      <c r="D271" t="n">
+        <v>271.6969299316406</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>460.5178060531616</v>
+      </c>
+      <c r="B272" t="n">
+        <v>400.0025024414062</v>
+      </c>
+      <c r="C272" t="n">
+        <v>85.41963195800781</v>
+      </c>
+      <c r="D272" t="n">
+        <v>283.3762512207031</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>461.9499957561493</v>
+      </c>
+      <c r="B273" t="n">
+        <v>400.0073852539062</v>
+      </c>
+      <c r="C273" t="n">
+        <v>85.42153167724609</v>
+      </c>
+      <c r="D273" t="n">
+        <v>295.0081176757812</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>464.3485577106476</v>
+      </c>
+      <c r="B274" t="n">
+        <v>399.9960632324219</v>
+      </c>
+      <c r="C274" t="n">
+        <v>97.11770629882812</v>
+      </c>
+      <c r="D274" t="n">
+        <v>259.9352416992188</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>465.7787477970123</v>
+      </c>
+      <c r="B275" t="n">
+        <v>399.9971618652344</v>
+      </c>
+      <c r="C275" t="n">
+        <v>97.10063934326172</v>
+      </c>
+      <c r="D275" t="n">
+        <v>271.67919921875</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>467.2078592777252</v>
+      </c>
+      <c r="B276" t="n">
+        <v>400.0263671875</v>
+      </c>
+      <c r="C276" t="n">
+        <v>97.09299468994141</v>
+      </c>
+      <c r="D276" t="n">
+        <v>283.3650817871094</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>468.6403620243073</v>
+      </c>
+      <c r="B277" t="n">
+        <v>400.0113525390625</v>
+      </c>
+      <c r="C277" t="n">
+        <v>97.08934783935547</v>
+      </c>
+      <c r="D277" t="n">
+        <v>295.0419616699219</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>471.0413200855255</v>
+      </c>
+      <c r="B278" t="n">
+        <v>400.0019836425781</v>
+      </c>
+      <c r="C278" t="n">
+        <v>108.7967071533203</v>
+      </c>
+      <c r="D278" t="n">
+        <v>259.9403076171875</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>472.4699909687042</v>
+      </c>
+      <c r="B279" t="n">
+        <v>400.020263671875</v>
+      </c>
+      <c r="C279" t="n">
+        <v>108.7568435668945</v>
+      </c>
+      <c r="D279" t="n">
+        <v>271.6944274902344</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>473.8996348381042</v>
+      </c>
+      <c r="B280" t="n">
+        <v>400.0095825195312</v>
+      </c>
+      <c r="C280" t="n">
+        <v>108.7539367675781</v>
+      </c>
+      <c r="D280" t="n">
+        <v>283.3435668945312</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>475.3275535106659</v>
+      </c>
+      <c r="B281" t="n">
+        <v>400.0016174316406</v>
+      </c>
+      <c r="C281" t="n">
+        <v>108.753532409668</v>
+      </c>
+      <c r="D281" t="n">
+        <v>295.0163879394531</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Robot_XYZ.xlsx
+++ b/Results/Robot_XYZ.xlsx
@@ -441,12 +441,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>z</t>
+          <t>x</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>z</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -460,346 +460,346 @@
         <v>1.668930053710938e-06</v>
       </c>
       <c r="B2" t="n">
-        <v>299.9862365722656</v>
+        <v>299.9864196777344</v>
       </c>
       <c r="C2" t="n">
-        <v>38.73059844970703</v>
+        <v>38.73311996459961</v>
       </c>
       <c r="D2" t="n">
-        <v>259.9827270507812</v>
+        <v>259.9827575683594</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.428916931152344</v>
+        <v>1.429084539413452</v>
       </c>
       <c r="B3" t="n">
-        <v>300.0135192871094</v>
+        <v>300.0115051269531</v>
       </c>
       <c r="C3" t="n">
-        <v>38.75971221923828</v>
+        <v>38.75667190551758</v>
       </c>
       <c r="D3" t="n">
-        <v>271.703857421875</v>
+        <v>271.7012023925781</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.857269048690796</v>
+        <v>2.85673451423645</v>
       </c>
       <c r="B4" t="n">
-        <v>300.0259399414062</v>
+        <v>300.0257873535156</v>
       </c>
       <c r="C4" t="n">
-        <v>38.76319122314453</v>
+        <v>38.76288223266602</v>
       </c>
       <c r="D4" t="n">
-        <v>283.3597106933594</v>
+        <v>283.3583679199219</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4.285760641098022</v>
+        <v>4.286635637283325</v>
       </c>
       <c r="B5" t="n">
-        <v>300.0090637207031</v>
+        <v>300.0054321289062</v>
       </c>
       <c r="C5" t="n">
-        <v>38.76038360595703</v>
+        <v>38.75962448120117</v>
       </c>
       <c r="D5" t="n">
-        <v>295.0316162109375</v>
+        <v>295.0307312011719</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6.684832096099854</v>
+        <v>6.685853242874146</v>
       </c>
       <c r="B6" t="n">
-        <v>300.0025329589844</v>
+        <v>300.00244140625</v>
       </c>
       <c r="C6" t="n">
-        <v>50.44277572631836</v>
+        <v>50.43960571289062</v>
       </c>
       <c r="D6" t="n">
-        <v>259.9562377929688</v>
+        <v>259.9537048339844</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8.115867376327515</v>
+        <v>8.116610288619995</v>
       </c>
       <c r="B7" t="n">
-        <v>300.0106811523438</v>
+        <v>300.0120239257812</v>
       </c>
       <c r="C7" t="n">
-        <v>50.43278503417969</v>
+        <v>50.43426895141602</v>
       </c>
       <c r="D7" t="n">
-        <v>271.6791076660156</v>
+        <v>271.6817321777344</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>9.543721914291382</v>
+        <v>9.54737663269043</v>
       </c>
       <c r="B8" t="n">
-        <v>300.0068054199219</v>
+        <v>300.0035705566406</v>
       </c>
       <c r="C8" t="n">
-        <v>50.42266082763672</v>
+        <v>50.42401123046875</v>
       </c>
       <c r="D8" t="n">
-        <v>283.3583068847656</v>
+        <v>283.3587036132812</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>10.97275257110596</v>
+        <v>10.97630405426025</v>
       </c>
       <c r="B9" t="n">
-        <v>300.0028991699219</v>
+        <v>300.0029907226562</v>
       </c>
       <c r="C9" t="n">
-        <v>50.42200469970703</v>
+        <v>50.42264938354492</v>
       </c>
       <c r="D9" t="n">
-        <v>295.0065612792969</v>
+        <v>295.0066528320312</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>13.37311673164368</v>
+        <v>13.37459087371826</v>
       </c>
       <c r="B10" t="n">
-        <v>300.0028991699219</v>
+        <v>300.0024719238281</v>
       </c>
       <c r="C10" t="n">
-        <v>62.10904312133789</v>
+        <v>62.10639190673828</v>
       </c>
       <c r="D10" t="n">
-        <v>259.9593811035156</v>
+        <v>259.9612426757812</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>14.8038113117218</v>
+        <v>14.80444598197937</v>
       </c>
       <c r="B11" t="n">
-        <v>300.0048217773438</v>
+        <v>300.005126953125</v>
       </c>
       <c r="C11" t="n">
-        <v>62.09535980224609</v>
+        <v>62.09669876098633</v>
       </c>
       <c r="D11" t="n">
-        <v>271.6768798828125</v>
+        <v>271.6762390136719</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>16.24448871612549</v>
+        <v>16.23293375968933</v>
       </c>
       <c r="B12" t="n">
-        <v>300.0155334472656</v>
+        <v>300.0109558105469</v>
       </c>
       <c r="C12" t="n">
-        <v>62.09181213378906</v>
+        <v>62.09150695800781</v>
       </c>
       <c r="D12" t="n">
-        <v>283.3680114746094</v>
+        <v>283.364501953125</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>17.67296004295349</v>
+        <v>17.66349935531616</v>
       </c>
       <c r="B13" t="n">
-        <v>300.0028991699219</v>
+        <v>300.0018005371094</v>
       </c>
       <c r="C13" t="n">
-        <v>62.08919906616211</v>
+        <v>62.08896636962891</v>
       </c>
       <c r="D13" t="n">
-        <v>295.0114135742188</v>
+        <v>295.0068359375</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>20.07643485069275</v>
+        <v>20.06367897987366</v>
       </c>
       <c r="B14" t="n">
-        <v>299.9857788085938</v>
+        <v>299.9860534667969</v>
       </c>
       <c r="C14" t="n">
-        <v>73.78208160400391</v>
+        <v>73.78475952148438</v>
       </c>
       <c r="D14" t="n">
-        <v>259.9368286132812</v>
+        <v>259.9400329589844</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>21.50688886642456</v>
+        <v>21.4916615486145</v>
       </c>
       <c r="B15" t="n">
-        <v>300.0257263183594</v>
+        <v>300.0234375</v>
       </c>
       <c r="C15" t="n">
-        <v>73.761962890625</v>
+        <v>73.7607421875</v>
       </c>
       <c r="D15" t="n">
-        <v>271.7055358886719</v>
+        <v>271.700927734375</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>22.93645167350769</v>
+        <v>22.91962146759033</v>
       </c>
       <c r="B16" t="n">
-        <v>300.0166931152344</v>
+        <v>300.0128784179688</v>
       </c>
       <c r="C16" t="n">
-        <v>73.75713348388672</v>
+        <v>73.75619506835938</v>
       </c>
       <c r="D16" t="n">
-        <v>283.3704223632812</v>
+        <v>283.3721923828125</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>24.3672730922699</v>
+        <v>24.35006856918335</v>
       </c>
       <c r="B17" t="n">
-        <v>300.0173034667969</v>
+        <v>300.0139770507812</v>
       </c>
       <c r="C17" t="n">
-        <v>73.7579345703125</v>
+        <v>73.75711822509766</v>
       </c>
       <c r="D17" t="n">
-        <v>295.0317993164062</v>
+        <v>295.0322570800781</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>26.76645827293396</v>
+        <v>26.75004816055298</v>
       </c>
       <c r="B18" t="n">
-        <v>299.991943359375</v>
+        <v>299.9959716796875</v>
       </c>
       <c r="C18" t="n">
-        <v>85.4560546875</v>
+        <v>85.45521545410156</v>
       </c>
       <c r="D18" t="n">
-        <v>259.9533386230469</v>
+        <v>259.9559631347656</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>28.19614410400391</v>
+        <v>28.17879438400269</v>
       </c>
       <c r="B19" t="n">
-        <v>300.0162963867188</v>
+        <v>300.0160217285156</v>
       </c>
       <c r="C19" t="n">
-        <v>85.42449951171875</v>
+        <v>85.423095703125</v>
       </c>
       <c r="D19" t="n">
-        <v>271.6958312988281</v>
+        <v>271.69384765625</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>29.62460517883301</v>
+        <v>29.60937452316284</v>
       </c>
       <c r="B20" t="n">
-        <v>300.019775390625</v>
+        <v>300.0190734863281</v>
       </c>
       <c r="C20" t="n">
-        <v>85.42481994628906</v>
+        <v>85.42396545410156</v>
       </c>
       <c r="D20" t="n">
-        <v>283.3697204589844</v>
+        <v>283.3690185546875</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>31.05373501777649</v>
+        <v>31.04093432426453</v>
       </c>
       <c r="B21" t="n">
-        <v>300.0210571289062</v>
+        <v>300.021728515625</v>
       </c>
       <c r="C21" t="n">
-        <v>85.42584991455078</v>
+        <v>85.42538452148438</v>
       </c>
       <c r="D21" t="n">
-        <v>295.0318908691406</v>
+        <v>295.0345458984375</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>33.45375490188599</v>
+        <v>33.44033050537109</v>
       </c>
       <c r="B22" t="n">
-        <v>299.9877624511719</v>
+        <v>299.9895324707031</v>
       </c>
       <c r="C22" t="n">
-        <v>97.11030578613281</v>
+        <v>97.11020660400391</v>
       </c>
       <c r="D22" t="n">
-        <v>259.9336547851562</v>
+        <v>259.936279296875</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>34.88500285148621</v>
+        <v>34.86855459213257</v>
       </c>
       <c r="B23" t="n">
-        <v>300.0214538574219</v>
+        <v>300.020263671875</v>
       </c>
       <c r="C23" t="n">
-        <v>97.10222625732422</v>
+        <v>97.10116577148438</v>
       </c>
       <c r="D23" t="n">
-        <v>271.6960754394531</v>
+        <v>271.6934204101562</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>36.31599879264832</v>
+        <v>36.29619288444519</v>
       </c>
       <c r="B24" t="n">
-        <v>300.01220703125</v>
+        <v>300.0076904296875</v>
       </c>
       <c r="C24" t="n">
-        <v>97.09042358398438</v>
+        <v>97.08827972412109</v>
       </c>
       <c r="D24" t="n">
-        <v>283.3561401367188</v>
+        <v>283.3500671386719</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>37.74695229530334</v>
+        <v>37.72523164749146</v>
       </c>
       <c r="B25" t="n">
-        <v>300.0015869140625</v>
+        <v>300.0021057128906</v>
       </c>
       <c r="C25" t="n">
-        <v>97.08765411376953</v>
+        <v>97.08715057373047</v>
       </c>
       <c r="D25" t="n">
-        <v>295.0034790039062</v>
+        <v>294.99951171875</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>40.14601898193359</v>
+        <v>40.13090229034424</v>
       </c>
       <c r="B26" t="n">
-        <v>299.9960327148438</v>
+        <v>299.9964294433594</v>
       </c>
       <c r="C26" t="n">
-        <v>108.7721252441406</v>
+        <v>108.7694931030273</v>
       </c>
       <c r="D26" t="n">
         <v>259.9510192871094</v>
@@ -807,1883 +807,1883 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>41.57465887069702</v>
+        <v>41.56339359283447</v>
       </c>
       <c r="B27" t="n">
-        <v>300.0154113769531</v>
+        <v>300.0138854980469</v>
       </c>
       <c r="C27" t="n">
-        <v>108.7708206176758</v>
+        <v>108.7695770263672</v>
       </c>
       <c r="D27" t="n">
-        <v>271.7012634277344</v>
+        <v>271.7025146484375</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>43.00401329994202</v>
+        <v>42.99388813972473</v>
       </c>
       <c r="B28" t="n">
-        <v>300.0108337402344</v>
+        <v>300.0109558105469</v>
       </c>
       <c r="C28" t="n">
-        <v>108.7594375610352</v>
+        <v>108.7601776123047</v>
       </c>
       <c r="D28" t="n">
-        <v>283.3529052734375</v>
+        <v>283.3575439453125</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>44.43446230888367</v>
+        <v>44.4229907989502</v>
       </c>
       <c r="B29" t="n">
-        <v>300.0043334960938</v>
+        <v>300.0030212402344</v>
       </c>
       <c r="C29" t="n">
-        <v>108.7556838989258</v>
+        <v>108.7559127807617</v>
       </c>
       <c r="D29" t="n">
-        <v>295.0298461914062</v>
+        <v>295.0350952148438</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>47.86475944519043</v>
+        <v>47.85272526741028</v>
       </c>
       <c r="B30" t="n">
-        <v>311.1217956542969</v>
+        <v>311.1222534179688</v>
       </c>
       <c r="C30" t="n">
-        <v>38.74184799194336</v>
+        <v>38.73996734619141</v>
       </c>
       <c r="D30" t="n">
-        <v>259.959228515625</v>
+        <v>259.9559936523438</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>49.29454684257507</v>
+        <v>49.28286457061768</v>
       </c>
       <c r="B31" t="n">
-        <v>311.1162414550781</v>
+        <v>311.1155700683594</v>
       </c>
       <c r="C31" t="n">
-        <v>38.74827194213867</v>
+        <v>38.75012588500977</v>
       </c>
       <c r="D31" t="n">
-        <v>271.6913452148438</v>
+        <v>271.6919555664062</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>50.73216104507446</v>
+        <v>50.71564674377441</v>
       </c>
       <c r="B32" t="n">
-        <v>311.1386108398438</v>
+        <v>311.1361083984375</v>
       </c>
       <c r="C32" t="n">
-        <v>38.76139831542969</v>
+        <v>38.76238250732422</v>
       </c>
       <c r="D32" t="n">
-        <v>283.3683166503906</v>
+        <v>283.3662719726562</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>52.16095757484436</v>
+        <v>52.14651775360107</v>
       </c>
       <c r="B33" t="n">
-        <v>311.1262512207031</v>
+        <v>311.1245727539062</v>
       </c>
       <c r="C33" t="n">
-        <v>38.7605094909668</v>
+        <v>38.76029586791992</v>
       </c>
       <c r="D33" t="n">
-        <v>295.0435485839844</v>
+        <v>295.0500183105469</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>54.5615451335907</v>
+        <v>54.553790807724</v>
       </c>
       <c r="B34" t="n">
-        <v>311.1118469238281</v>
+        <v>311.1114196777344</v>
       </c>
       <c r="C34" t="n">
-        <v>50.43826675415039</v>
+        <v>50.44146728515625</v>
       </c>
       <c r="D34" t="n">
-        <v>259.9354248046875</v>
+        <v>259.9360961914062</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>55.99714517593384</v>
+        <v>55.98426413536072</v>
       </c>
       <c r="B35" t="n">
         <v>311.1196594238281</v>
       </c>
       <c r="C35" t="n">
-        <v>50.43431091308594</v>
+        <v>50.43365097045898</v>
       </c>
       <c r="D35" t="n">
-        <v>271.6859741210938</v>
+        <v>271.6840209960938</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>57.43197154998779</v>
+        <v>57.41414618492126</v>
       </c>
       <c r="B36" t="n">
-        <v>311.1275939941406</v>
+        <v>311.1225280761719</v>
       </c>
       <c r="C36" t="n">
-        <v>50.42709732055664</v>
+        <v>50.42497253417969</v>
       </c>
       <c r="D36" t="n">
-        <v>283.3668212890625</v>
+        <v>283.3679504394531</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>58.86250185966492</v>
+        <v>58.84408211708069</v>
       </c>
       <c r="B37" t="n">
-        <v>311.1205444335938</v>
+        <v>311.1190185546875</v>
       </c>
       <c r="C37" t="n">
-        <v>50.42465209960938</v>
+        <v>50.42375183105469</v>
       </c>
       <c r="D37" t="n">
-        <v>295.011962890625</v>
+        <v>295.0125122070312</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>61.26757097244263</v>
+        <v>61.24496412277222</v>
       </c>
       <c r="B38" t="n">
-        <v>311.1110229492188</v>
+        <v>311.1097412109375</v>
       </c>
       <c r="C38" t="n">
-        <v>62.10557556152344</v>
+        <v>62.10664367675781</v>
       </c>
       <c r="D38" t="n">
-        <v>259.9345703125</v>
+        <v>259.9352111816406</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>62.69612145423889</v>
+        <v>62.67505645751953</v>
       </c>
       <c r="B39" t="n">
-        <v>311.1170959472656</v>
+        <v>311.1185913085938</v>
       </c>
       <c r="C39" t="n">
-        <v>62.09619522094727</v>
+        <v>62.09582901000977</v>
       </c>
       <c r="D39" t="n">
-        <v>271.6877746582031</v>
+        <v>271.6871337890625</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>64.12660765647888</v>
+        <v>64.1088604927063</v>
       </c>
       <c r="B40" t="n">
-        <v>311.1312866210938</v>
+        <v>311.1316833496094</v>
       </c>
       <c r="C40" t="n">
-        <v>62.09240341186523</v>
+        <v>62.09248733520508</v>
       </c>
       <c r="D40" t="n">
-        <v>283.3786315917969</v>
+        <v>283.3839111328125</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>65.55521011352539</v>
+        <v>65.53784918785095</v>
       </c>
       <c r="B41" t="n">
-        <v>311.1288146972656</v>
+        <v>311.1299133300781</v>
       </c>
       <c r="C41" t="n">
-        <v>62.09191513061523</v>
+        <v>62.09212875366211</v>
       </c>
       <c r="D41" t="n">
-        <v>295.0294799804688</v>
+        <v>295.0308532714844</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>67.95532321929932</v>
+        <v>67.94217586517334</v>
       </c>
       <c r="B42" t="n">
-        <v>311.1015319824219</v>
+        <v>311.1001281738281</v>
       </c>
       <c r="C42" t="n">
-        <v>73.78115844726562</v>
+        <v>73.7828369140625</v>
       </c>
       <c r="D42" t="n">
-        <v>259.9446411132812</v>
+        <v>259.94921875</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>69.38890433311462</v>
+        <v>69.37227869033813</v>
       </c>
       <c r="B43" t="n">
-        <v>311.1354675292969</v>
+        <v>311.1311950683594</v>
       </c>
       <c r="C43" t="n">
-        <v>73.76633453369141</v>
+        <v>73.7606201171875</v>
       </c>
       <c r="D43" t="n">
-        <v>271.7046813964844</v>
+        <v>271.7072448730469</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>70.81758141517639</v>
+        <v>70.80497741699219</v>
       </c>
       <c r="B44" t="n">
-        <v>311.1255187988281</v>
+        <v>311.1240234375</v>
       </c>
       <c r="C44" t="n">
-        <v>73.75657653808594</v>
+        <v>73.7562255859375</v>
       </c>
       <c r="D44" t="n">
-        <v>283.3472595214844</v>
+        <v>283.3452453613281</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>72.24990701675415</v>
+        <v>72.23466920852661</v>
       </c>
       <c r="B45" t="n">
-        <v>311.1075744628906</v>
+        <v>311.1059875488281</v>
       </c>
       <c r="C45" t="n">
-        <v>73.75299835205078</v>
+        <v>73.75262451171875</v>
       </c>
       <c r="D45" t="n">
-        <v>295.0196533203125</v>
+        <v>295.020263671875</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>74.6518771648407</v>
+        <v>74.64109635353088</v>
       </c>
       <c r="B46" t="n">
-        <v>311.1148071289062</v>
+        <v>311.1170043945312</v>
       </c>
       <c r="C46" t="n">
-        <v>85.43924713134766</v>
+        <v>85.43984985351562</v>
       </c>
       <c r="D46" t="n">
-        <v>259.9537963867188</v>
+        <v>259.9570617675781</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>76.08116149902344</v>
+        <v>76.0715765953064</v>
       </c>
       <c r="B47" t="n">
-        <v>311.12841796875</v>
+        <v>311.1273193359375</v>
       </c>
       <c r="C47" t="n">
-        <v>85.43476867675781</v>
+        <v>85.43446350097656</v>
       </c>
       <c r="D47" t="n">
-        <v>271.7007446289062</v>
+        <v>271.7053527832031</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>77.51007270812988</v>
+        <v>77.50070190429688</v>
       </c>
       <c r="B48" t="n">
-        <v>311.115966796875</v>
+        <v>311.1156311035156</v>
       </c>
       <c r="C48" t="n">
-        <v>85.42313385009766</v>
+        <v>85.42303466796875</v>
       </c>
       <c r="D48" t="n">
-        <v>283.3424072265625</v>
+        <v>283.3417358398438</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>78.94341635704041</v>
+        <v>78.93274879455566</v>
       </c>
       <c r="B49" t="n">
-        <v>311.1071166992188</v>
+        <v>311.1057739257812</v>
       </c>
       <c r="C49" t="n">
-        <v>85.42002105712891</v>
+        <v>85.41964721679688</v>
       </c>
       <c r="D49" t="n">
-        <v>295.0228881835938</v>
+        <v>295.0268249511719</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>81.34459733963013</v>
+        <v>81.33320331573486</v>
       </c>
       <c r="B50" t="n">
-        <v>311.0987243652344</v>
+        <v>311.1023254394531</v>
       </c>
       <c r="C50" t="n">
-        <v>97.10687255859375</v>
+        <v>97.10869598388672</v>
       </c>
       <c r="D50" t="n">
-        <v>259.9342041015625</v>
+        <v>259.9347839355469</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>82.78233551979065</v>
+        <v>82.7627866268158</v>
       </c>
       <c r="B51" t="n">
-        <v>311.1220092773438</v>
+        <v>311.1233825683594</v>
       </c>
       <c r="C51" t="n">
-        <v>97.10435485839844</v>
+        <v>97.10338592529297</v>
       </c>
       <c r="D51" t="n">
-        <v>271.6882934570312</v>
+        <v>271.6909484863281</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>84.21167135238647</v>
+        <v>84.19815468788147</v>
       </c>
       <c r="B52" t="n">
-        <v>311.1332702636719</v>
+        <v>311.1325073242188</v>
       </c>
       <c r="C52" t="n">
-        <v>97.09458923339844</v>
+        <v>97.09365844726562</v>
       </c>
       <c r="D52" t="n">
-        <v>283.3697509765625</v>
+        <v>283.3663940429688</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>85.64093542098999</v>
+        <v>85.62984204292297</v>
       </c>
       <c r="B53" t="n">
-        <v>311.1270141601562</v>
+        <v>311.1246948242188</v>
       </c>
       <c r="C53" t="n">
-        <v>97.09194183349609</v>
+        <v>97.09121704101562</v>
       </c>
       <c r="D53" t="n">
-        <v>295.0475463867188</v>
+        <v>295.0487976074219</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>88.03936433792114</v>
+        <v>88.02773642539978</v>
       </c>
       <c r="B54" t="n">
-        <v>311.1018371582031</v>
+        <v>311.1040954589844</v>
       </c>
       <c r="C54" t="n">
-        <v>108.7837066650391</v>
+        <v>108.7816390991211</v>
       </c>
       <c r="D54" t="n">
-        <v>259.9434204101562</v>
+        <v>259.9447021484375</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>89.47067785263062</v>
+        <v>89.45613527297974</v>
       </c>
       <c r="B55" t="n">
-        <v>311.1330261230469</v>
+        <v>311.1329956054688</v>
       </c>
       <c r="C55" t="n">
-        <v>108.7617340087891</v>
+        <v>108.7638778686523</v>
       </c>
       <c r="D55" t="n">
-        <v>271.700927734375</v>
+        <v>271.7042846679688</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>90.90041041374207</v>
+        <v>90.8872435092926</v>
       </c>
       <c r="B56" t="n">
-        <v>311.1275024414062</v>
+        <v>311.1261901855469</v>
       </c>
       <c r="C56" t="n">
-        <v>108.7569580078125</v>
+        <v>108.7564926147461</v>
       </c>
       <c r="D56" t="n">
-        <v>283.3467407226562</v>
+        <v>283.347412109375</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>92.33007884025574</v>
+        <v>92.31718897819519</v>
       </c>
       <c r="B57" t="n">
-        <v>311.1289978027344</v>
+        <v>311.1231689453125</v>
       </c>
       <c r="C57" t="n">
-        <v>108.758903503418</v>
+        <v>108.7568588256836</v>
       </c>
       <c r="D57" t="n">
-        <v>295.0573425292969</v>
+        <v>295.0592956542969</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>95.76224780082703</v>
+        <v>95.74775099754333</v>
       </c>
       <c r="B58" t="n">
-        <v>322.2247619628906</v>
+        <v>322.2290649414062</v>
       </c>
       <c r="C58" t="n">
-        <v>38.72833633422852</v>
+        <v>38.73019409179688</v>
       </c>
       <c r="D58" t="n">
-        <v>259.9492492675781</v>
+        <v>259.9512023925781</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>97.19126057624817</v>
+        <v>97.17637634277344</v>
       </c>
       <c r="B59" t="n">
-        <v>322.2467956542969</v>
+        <v>322.245849609375</v>
       </c>
       <c r="C59" t="n">
-        <v>38.75506973266602</v>
+        <v>38.75495529174805</v>
       </c>
       <c r="D59" t="n">
-        <v>271.6968383789062</v>
+        <v>271.6994934082031</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>98.62167692184448</v>
+        <v>98.60692954063416</v>
       </c>
       <c r="B60" t="n">
-        <v>322.2353820800781</v>
+        <v>322.2338256835938</v>
       </c>
       <c r="C60" t="n">
-        <v>38.76172256469727</v>
+        <v>38.76153564453125</v>
       </c>
       <c r="D60" t="n">
-        <v>283.3536071777344</v>
+        <v>283.3482360839844</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>100.0494134426117</v>
+        <v>100.0382268428802</v>
       </c>
       <c r="B61" t="n">
-        <v>322.2354431152344</v>
+        <v>322.2349243164062</v>
       </c>
       <c r="C61" t="n">
-        <v>38.76106262207031</v>
+        <v>38.76100158691406</v>
       </c>
       <c r="D61" t="n">
-        <v>295.0462646484375</v>
+        <v>295.0462341308594</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>102.4487562179565</v>
+        <v>102.4437375068665</v>
       </c>
       <c r="B62" t="n">
-        <v>322.2196655273438</v>
+        <v>322.2207641601562</v>
       </c>
       <c r="C62" t="n">
-        <v>50.44601440429688</v>
+        <v>50.45024108886719</v>
       </c>
       <c r="D62" t="n">
-        <v>259.9522399902344</v>
+        <v>259.9568481445312</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>103.8787388801575</v>
+        <v>103.8728940486908</v>
       </c>
       <c r="B63" t="n">
-        <v>322.2423706054688</v>
+        <v>322.2404479980469</v>
       </c>
       <c r="C63" t="n">
-        <v>50.43605804443359</v>
+        <v>50.42967987060547</v>
       </c>
       <c r="D63" t="n">
-        <v>271.7108764648438</v>
+        <v>271.7142333984375</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>105.3085486888885</v>
+        <v>105.3041462898254</v>
       </c>
       <c r="B64" t="n">
-        <v>322.2288818359375</v>
+        <v>322.2260437011719</v>
       </c>
       <c r="C64" t="n">
-        <v>50.42246246337891</v>
+        <v>50.4206657409668</v>
       </c>
       <c r="D64" t="n">
-        <v>283.3479614257812</v>
+        <v>283.3485717773438</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>106.7381932735443</v>
+        <v>106.7355473041534</v>
       </c>
       <c r="B65" t="n">
-        <v>322.2254028320312</v>
+        <v>322.2214050292969</v>
       </c>
       <c r="C65" t="n">
-        <v>50.42191696166992</v>
+        <v>50.42061996459961</v>
       </c>
       <c r="D65" t="n">
-        <v>295.0278015136719</v>
+        <v>295.0263366699219</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>109.136846780777</v>
+        <v>109.1375212669373</v>
       </c>
       <c r="B66" t="n">
-        <v>322.2202758789062</v>
+        <v>322.2234497070312</v>
       </c>
       <c r="C66" t="n">
-        <v>62.10736083984375</v>
+        <v>62.10660934448242</v>
       </c>
       <c r="D66" t="n">
-        <v>259.942626953125</v>
+        <v>259.9458923339844</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>110.5661509037018</v>
+        <v>110.5708043575287</v>
       </c>
       <c r="B67" t="n">
-        <v>322.245361328125</v>
+        <v>322.24462890625</v>
       </c>
       <c r="C67" t="n">
-        <v>62.10193634033203</v>
+        <v>62.1017951965332</v>
       </c>
       <c r="D67" t="n">
-        <v>271.7019348144531</v>
+        <v>271.7073059082031</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>111.9955747127533</v>
+        <v>112.0017871856689</v>
       </c>
       <c r="B68" t="n">
-        <v>322.2408142089844</v>
+        <v>322.2391662597656</v>
       </c>
       <c r="C68" t="n">
-        <v>62.09217071533203</v>
+        <v>62.09322357177734</v>
       </c>
       <c r="D68" t="n">
-        <v>283.3479309082031</v>
+        <v>283.3472290039062</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>113.4264326095581</v>
+        <v>113.4313876628876</v>
       </c>
       <c r="B69" t="n">
-        <v>322.2349243164062</v>
+        <v>322.2317504882812</v>
       </c>
       <c r="C69" t="n">
-        <v>62.09103393554688</v>
+        <v>62.09110641479492</v>
       </c>
       <c r="D69" t="n">
-        <v>295.0468139648438</v>
+        <v>295.0474243164062</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>115.8297955989838</v>
+        <v>115.8322668075562</v>
       </c>
       <c r="B70" t="n">
-        <v>322.2188720703125</v>
+        <v>322.223388671875</v>
       </c>
       <c r="C70" t="n">
-        <v>73.77946472167969</v>
+        <v>73.77980041503906</v>
       </c>
       <c r="D70" t="n">
-        <v>259.9534301757812</v>
+        <v>259.9559936523438</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>117.2593455314636</v>
+        <v>117.2599151134491</v>
       </c>
       <c r="B71" t="n">
-        <v>322.2301635742188</v>
+        <v>322.2308044433594</v>
       </c>
       <c r="C71" t="n">
-        <v>73.76609039306641</v>
+        <v>73.76554107666016</v>
       </c>
       <c r="D71" t="n">
-        <v>271.697021484375</v>
+        <v>271.7003784179688</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>118.6901338100433</v>
+        <v>118.6894500255585</v>
       </c>
       <c r="B72" t="n">
-        <v>322.2295837402344</v>
+        <v>322.2300415039062</v>
       </c>
       <c r="C72" t="n">
-        <v>73.75554656982422</v>
+        <v>73.75565338134766</v>
       </c>
       <c r="D72" t="n">
-        <v>283.3647155761719</v>
+        <v>283.3694763183594</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>120.118577003479</v>
+        <v>120.1191787719727</v>
       </c>
       <c r="B73" t="n">
-        <v>322.2272033691406</v>
+        <v>322.2271118164062</v>
       </c>
       <c r="C73" t="n">
-        <v>73.75569915771484</v>
+        <v>73.75497436523438</v>
       </c>
       <c r="D73" t="n">
-        <v>295.0055847167969</v>
+        <v>295.0014953613281</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>122.5202195644379</v>
+        <v>122.5201995372772</v>
       </c>
       <c r="B74" t="n">
-        <v>322.2180480957031</v>
+        <v>322.2192687988281</v>
       </c>
       <c r="C74" t="n">
-        <v>85.43668365478516</v>
+        <v>85.44052886962891</v>
       </c>
       <c r="D74" t="n">
-        <v>259.9542541503906</v>
+        <v>259.9589233398438</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>123.9495851993561</v>
+        <v>123.9499967098236</v>
       </c>
       <c r="B75" t="n">
-        <v>322.2220458984375</v>
+        <v>322.219970703125</v>
       </c>
       <c r="C75" t="n">
-        <v>85.42997741699219</v>
+        <v>85.42872619628906</v>
       </c>
       <c r="D75" t="n">
-        <v>271.6892700195312</v>
+        <v>271.6872863769531</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>125.3796253204346</v>
+        <v>125.3825693130493</v>
       </c>
       <c r="B76" t="n">
-        <v>322.2214050292969</v>
+        <v>322.2227478027344</v>
       </c>
       <c r="C76" t="n">
-        <v>85.42204284667969</v>
+        <v>85.42169189453125</v>
       </c>
       <c r="D76" t="n">
-        <v>283.3613891601562</v>
+        <v>283.3648071289062</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>126.8122553825378</v>
+        <v>126.8126564025879</v>
       </c>
       <c r="B77" t="n">
-        <v>322.2303466796875</v>
+        <v>322.2313232421875</v>
       </c>
       <c r="C77" t="n">
-        <v>85.42441558837891</v>
+        <v>85.42397308349609</v>
       </c>
       <c r="D77" t="n">
-        <v>295.001953125</v>
+        <v>295.0019836425781</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>129.2120127677917</v>
+        <v>129.2122440338135</v>
       </c>
       <c r="B78" t="n">
-        <v>322.2164916992188</v>
+        <v>322.2212829589844</v>
       </c>
       <c r="C78" t="n">
-        <v>97.12223052978516</v>
+        <v>97.12079620361328</v>
       </c>
       <c r="D78" t="n">
-        <v>259.9427185058594</v>
+        <v>259.9425354003906</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>130.6466369628906</v>
+        <v>130.6429777145386</v>
       </c>
       <c r="B79" t="n">
-        <v>322.2472839355469</v>
+        <v>322.2454223632812</v>
       </c>
       <c r="C79" t="n">
-        <v>97.0933837890625</v>
+        <v>97.09786224365234</v>
       </c>
       <c r="D79" t="n">
-        <v>271.6948852539062</v>
+        <v>271.6914978027344</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>132.0762233734131</v>
+        <v>132.0725612640381</v>
       </c>
       <c r="B80" t="n">
-        <v>322.2462158203125</v>
+        <v>322.2434387207031</v>
       </c>
       <c r="C80" t="n">
-        <v>97.09234619140625</v>
+        <v>97.09151458740234</v>
       </c>
       <c r="D80" t="n">
-        <v>283.3643188476562</v>
+        <v>283.3623046875</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>133.5055525302887</v>
+        <v>133.5048480033875</v>
       </c>
       <c r="B81" t="n">
-        <v>322.2381286621094</v>
+        <v>322.237548828125</v>
       </c>
       <c r="C81" t="n">
-        <v>97.09134674072266</v>
+        <v>97.09117126464844</v>
       </c>
       <c r="D81" t="n">
-        <v>295.0504150390625</v>
+        <v>295.0531921386719</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>135.9051558971405</v>
+        <v>135.9096677303314</v>
       </c>
       <c r="B82" t="n">
-        <v>322.2278137207031</v>
+        <v>322.2307434082031</v>
       </c>
       <c r="C82" t="n">
-        <v>108.782112121582</v>
+        <v>108.777961730957</v>
       </c>
       <c r="D82" t="n">
-        <v>259.9385986328125</v>
+        <v>259.939208984375</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>137.3384158611298</v>
+        <v>137.3387115001678</v>
       </c>
       <c r="B83" t="n">
-        <v>322.244873046875</v>
+        <v>322.2428894042969</v>
       </c>
       <c r="C83" t="n">
-        <v>108.7628936767578</v>
+        <v>108.7688446044922</v>
       </c>
       <c r="D83" t="n">
-        <v>271.7009582519531</v>
+        <v>271.6974792480469</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>138.7694234848022</v>
+        <v>138.7674813270569</v>
       </c>
       <c r="B84" t="n">
-        <v>322.2364196777344</v>
+        <v>322.2337951660156</v>
       </c>
       <c r="C84" t="n">
-        <v>108.7563705444336</v>
+        <v>108.7569580078125</v>
       </c>
       <c r="D84" t="n">
-        <v>283.3533325195312</v>
+        <v>283.3506164550781</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>140.200532913208</v>
+        <v>140.1978161334991</v>
       </c>
       <c r="B85" t="n">
-        <v>322.2353210449219</v>
+        <v>322.2342834472656</v>
       </c>
       <c r="C85" t="n">
-        <v>108.7574691772461</v>
+        <v>108.7571182250977</v>
       </c>
       <c r="D85" t="n">
-        <v>295.0497131347656</v>
+        <v>295.0511169433594</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>143.6300628185272</v>
+        <v>143.6270203590393</v>
       </c>
       <c r="B86" t="n">
-        <v>333.3338928222656</v>
+        <v>333.3344421386719</v>
       </c>
       <c r="C86" t="n">
-        <v>38.73141860961914</v>
+        <v>38.732177734375</v>
       </c>
       <c r="D86" t="n">
-        <v>259.9443664550781</v>
+        <v>259.9423217773438</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>145.0624556541443</v>
+        <v>145.0575370788574</v>
       </c>
       <c r="B87" t="n">
-        <v>333.3351440429688</v>
+        <v>333.3341979980469</v>
       </c>
       <c r="C87" t="n">
-        <v>38.74885177612305</v>
+        <v>38.74943161010742</v>
       </c>
       <c r="D87" t="n">
-        <v>271.6879577636719</v>
+        <v>271.6866149902344</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>146.4931621551514</v>
+        <v>146.4874575138092</v>
       </c>
       <c r="B88" t="n">
-        <v>333.3408203125</v>
+        <v>333.3428955078125</v>
       </c>
       <c r="C88" t="n">
-        <v>38.76126480102539</v>
+        <v>38.76150512695312</v>
       </c>
       <c r="D88" t="n">
-        <v>283.371337890625</v>
+        <v>283.3768005371094</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>147.9220054149628</v>
+        <v>147.918529510498</v>
       </c>
       <c r="B89" t="n">
-        <v>333.3375549316406</v>
+        <v>333.3363647460938</v>
       </c>
       <c r="C89" t="n">
-        <v>38.76019287109375</v>
+        <v>38.7607421875</v>
       </c>
       <c r="D89" t="n">
-        <v>295.0097961425781</v>
+        <v>295.0077209472656</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>150.320442199707</v>
+        <v>150.3236925601959</v>
       </c>
       <c r="B90" t="n">
-        <v>333.3324279785156</v>
+        <v>333.333984375</v>
       </c>
       <c r="C90" t="n">
-        <v>50.44147872924805</v>
+        <v>50.44589996337891</v>
       </c>
       <c r="D90" t="n">
-        <v>259.94677734375</v>
+        <v>259.9460144042969</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>151.7482233047485</v>
+        <v>151.7545657157898</v>
       </c>
       <c r="B91" t="n">
-        <v>333.3516845703125</v>
+        <v>333.3525390625</v>
       </c>
       <c r="C91" t="n">
-        <v>50.43601989746094</v>
+        <v>50.43614959716797</v>
       </c>
       <c r="D91" t="n">
-        <v>271.6968078613281</v>
+        <v>271.693359375</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>153.1826419830322</v>
+        <v>153.183774471283</v>
       </c>
       <c r="B92" t="n">
-        <v>333.35205078125</v>
+        <v>333.3504028320312</v>
       </c>
       <c r="C92" t="n">
-        <v>50.42630767822266</v>
+        <v>50.42396545410156</v>
       </c>
       <c r="D92" t="n">
-        <v>283.3822326660156</v>
+        <v>283.3795166015625</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>154.6140322685242</v>
+        <v>154.6173758506775</v>
       </c>
       <c r="B93" t="n">
-        <v>333.3385314941406</v>
+        <v>333.3363342285156</v>
       </c>
       <c r="C93" t="n">
-        <v>50.4228630065918</v>
+        <v>50.42183303833008</v>
       </c>
       <c r="D93" t="n">
-        <v>295.0209350585938</v>
+        <v>295.0230102539062</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>157.0146887302399</v>
+        <v>157.0188570022583</v>
       </c>
       <c r="B94" t="n">
-        <v>333.3232727050781</v>
+        <v>333.3247375488281</v>
       </c>
       <c r="C94" t="n">
-        <v>62.12617874145508</v>
+        <v>62.1257438659668</v>
       </c>
       <c r="D94" t="n">
-        <v>259.9483947753906</v>
+        <v>259.9504089355469</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>158.4463827610016</v>
+        <v>158.4491145610809</v>
       </c>
       <c r="B95" t="n">
-        <v>333.3398742675781</v>
+        <v>333.3400268554688</v>
       </c>
       <c r="C95" t="n">
-        <v>62.08762741088867</v>
+        <v>62.0876579284668</v>
       </c>
       <c r="D95" t="n">
-        <v>271.6999206542969</v>
+        <v>271.6985473632812</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>159.8765442371368</v>
+        <v>159.8784871101379</v>
       </c>
       <c r="B96" t="n">
-        <v>333.3483276367188</v>
+        <v>333.3468627929688</v>
       </c>
       <c r="C96" t="n">
-        <v>62.08920288085938</v>
+        <v>62.08822631835938</v>
       </c>
       <c r="D96" t="n">
-        <v>283.3743896484375</v>
+        <v>283.3751220703125</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>161.3067467212677</v>
+        <v>161.3106751441956</v>
       </c>
       <c r="B97" t="n">
-        <v>333.3403015136719</v>
+        <v>333.3363952636719</v>
       </c>
       <c r="C97" t="n">
-        <v>62.08841323852539</v>
+        <v>62.08768463134766</v>
       </c>
       <c r="D97" t="n">
-        <v>295.0015563964844</v>
+        <v>295.0043640136719</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>163.7062380313873</v>
+        <v>163.714409828186</v>
       </c>
       <c r="B98" t="n">
-        <v>333.3440856933594</v>
+        <v>333.3460083007812</v>
       </c>
       <c r="C98" t="n">
-        <v>73.7760009765625</v>
+        <v>73.77786254882812</v>
       </c>
       <c r="D98" t="n">
-        <v>259.9522094726562</v>
+        <v>259.9521179199219</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>165.1337957382202</v>
+        <v>165.1442971229553</v>
       </c>
       <c r="B99" t="n">
-        <v>333.3566284179688</v>
+        <v>333.3563842773438</v>
       </c>
       <c r="C99" t="n">
-        <v>73.77234649658203</v>
+        <v>73.77371215820312</v>
       </c>
       <c r="D99" t="n">
-        <v>271.7120666503906</v>
+        <v>271.7086181640625</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>166.562292098999</v>
+        <v>166.5786650180817</v>
       </c>
       <c r="B100" t="n">
-        <v>333.3509521484375</v>
+        <v>333.3498840332031</v>
       </c>
       <c r="C100" t="n">
-        <v>73.76178741455078</v>
+        <v>73.76011657714844</v>
       </c>
       <c r="D100" t="n">
-        <v>283.3730163574219</v>
+        <v>283.3709716796875</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>167.9902250766754</v>
+        <v>168.0099563598633</v>
       </c>
       <c r="B101" t="n">
-        <v>333.3363342285156</v>
+        <v>333.3377990722656</v>
       </c>
       <c r="C101" t="n">
-        <v>73.75640106201172</v>
+        <v>73.75601196289062</v>
       </c>
       <c r="D101" t="n">
-        <v>295.0230102539062</v>
+        <v>295.0278625488281</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>170.3905394077301</v>
+        <v>170.410115480423</v>
       </c>
       <c r="B102" t="n">
-        <v>333.3343811035156</v>
+        <v>333.3347473144531</v>
       </c>
       <c r="C102" t="n">
-        <v>85.45049285888672</v>
+        <v>85.44985961914062</v>
       </c>
       <c r="D102" t="n">
-        <v>259.9561462402344</v>
+        <v>259.9581909179688</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>171.824036359787</v>
+        <v>171.8393156528473</v>
       </c>
       <c r="B103" t="n">
-        <v>333.3495483398438</v>
+        <v>333.3492126464844</v>
       </c>
       <c r="C103" t="n">
-        <v>85.42966461181641</v>
+        <v>85.43247985839844</v>
       </c>
       <c r="D103" t="n">
-        <v>271.7183837890625</v>
+        <v>271.7149047851562</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>173.2566521167755</v>
+        <v>173.2680349349976</v>
       </c>
       <c r="B104" t="n">
-        <v>333.3487854003906</v>
+        <v>333.3470153808594</v>
       </c>
       <c r="C104" t="n">
-        <v>85.42292785644531</v>
+        <v>85.42247772216797</v>
       </c>
       <c r="D104" t="n">
-        <v>283.3792114257812</v>
+        <v>283.3827514648438</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>174.6928141117096</v>
+        <v>174.7008590698242</v>
       </c>
       <c r="B105" t="n">
-        <v>333.3376770019531</v>
+        <v>333.3393249511719</v>
       </c>
       <c r="C105" t="n">
-        <v>85.42080688476562</v>
+        <v>85.42123413085938</v>
       </c>
       <c r="D105" t="n">
-        <v>295.0101928710938</v>
+        <v>295.013671875</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>177.096604347229</v>
+        <v>177.1016337871552</v>
       </c>
       <c r="B106" t="n">
-        <v>333.323486328125</v>
+        <v>333.3238220214844</v>
       </c>
       <c r="C106" t="n">
-        <v>97.10354614257812</v>
+        <v>97.10733795166016</v>
       </c>
       <c r="D106" t="n">
-        <v>259.9417114257812</v>
+        <v>259.9388122558594</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>178.5275139808655</v>
+        <v>178.5315551757812</v>
       </c>
       <c r="B107" t="n">
-        <v>333.3418273925781</v>
+        <v>333.3407897949219</v>
       </c>
       <c r="C107" t="n">
-        <v>97.10222625732422</v>
+        <v>97.1026611328125</v>
       </c>
       <c r="D107" t="n">
-        <v>271.6864929199219</v>
+        <v>271.6823120117188</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>179.9566993713379</v>
+        <v>179.9609129428864</v>
       </c>
       <c r="B108" t="n">
-        <v>333.3401794433594</v>
+        <v>333.3421936035156</v>
       </c>
       <c r="C108" t="n">
-        <v>97.09212493896484</v>
+        <v>97.09123229980469</v>
       </c>
       <c r="D108" t="n">
-        <v>283.3595581054688</v>
+        <v>283.3567199707031</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>181.3870506286621</v>
+        <v>181.3941836357117</v>
       </c>
       <c r="B109" t="n">
-        <v>333.3465881347656</v>
+        <v>333.3455200195312</v>
       </c>
       <c r="C109" t="n">
-        <v>97.09177398681641</v>
+        <v>97.09146881103516</v>
       </c>
       <c r="D109" t="n">
-        <v>295.0437622070312</v>
+        <v>295.0451965332031</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>183.7866606712341</v>
+        <v>183.7978975772858</v>
       </c>
       <c r="B110" t="n">
-        <v>333.31591796875</v>
+        <v>333.3159484863281</v>
       </c>
       <c r="C110" t="n">
-        <v>108.7822189331055</v>
+        <v>108.7799682617188</v>
       </c>
       <c r="D110" t="n">
-        <v>259.9397583007812</v>
+        <v>259.9447326660156</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>185.2197089195251</v>
+        <v>185.2257249355316</v>
       </c>
       <c r="B111" t="n">
-        <v>333.3399963378906</v>
+        <v>333.3400573730469</v>
       </c>
       <c r="C111" t="n">
-        <v>108.7553634643555</v>
+        <v>108.7561340332031</v>
       </c>
       <c r="D111" t="n">
-        <v>271.6905517578125</v>
+        <v>271.6912231445312</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>186.6500997543335</v>
+        <v>186.6557409763336</v>
       </c>
       <c r="B112" t="n">
-        <v>333.3364868164062</v>
+        <v>333.3341979980469</v>
       </c>
       <c r="C112" t="n">
-        <v>108.7527084350586</v>
+        <v>108.7519607543945</v>
       </c>
       <c r="D112" t="n">
-        <v>283.3550720214844</v>
+        <v>283.3594360351562</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>188.0796778202057</v>
+        <v>188.0858728885651</v>
       </c>
       <c r="B113" t="n">
-        <v>333.3555603027344</v>
+        <v>333.3554992675781</v>
       </c>
       <c r="C113" t="n">
-        <v>108.7604446411133</v>
+        <v>108.7596664428711</v>
       </c>
       <c r="D113" t="n">
-        <v>295.0397644042969</v>
+        <v>295.0426025390625</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>191.5291175842285</v>
+        <v>191.5169863700867</v>
       </c>
       <c r="B114" t="n">
-        <v>344.4438171386719</v>
+        <v>344.4472045898438</v>
       </c>
       <c r="C114" t="n">
-        <v>38.7391357421875</v>
+        <v>38.73808670043945</v>
       </c>
       <c r="D114" t="n">
-        <v>259.9360046386719</v>
+        <v>259.9371948242188</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>192.9592878818512</v>
+        <v>192.9468131065369</v>
       </c>
       <c r="B115" t="n">
-        <v>344.45751953125</v>
+        <v>344.4588928222656</v>
       </c>
       <c r="C115" t="n">
-        <v>38.74710083007812</v>
+        <v>38.74654006958008</v>
       </c>
       <c r="D115" t="n">
-        <v>271.6732788085938</v>
+        <v>271.6718139648438</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>194.3922543525696</v>
+        <v>194.3809452056885</v>
       </c>
       <c r="B116" t="n">
-        <v>344.4588012695312</v>
+        <v>344.4556579589844</v>
       </c>
       <c r="C116" t="n">
-        <v>38.7586669921875</v>
+        <v>38.75902557373047</v>
       </c>
       <c r="D116" t="n">
-        <v>283.3525390625</v>
+        <v>283.3505554199219</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>195.8207068443298</v>
+        <v>195.8132107257843</v>
       </c>
       <c r="B117" t="n">
-        <v>344.4536437988281</v>
+        <v>344.4530944824219</v>
       </c>
       <c r="C117" t="n">
-        <v>38.75951385498047</v>
+        <v>38.75944900512695</v>
       </c>
       <c r="D117" t="n">
-        <v>295.0408630371094</v>
+        <v>295.0401611328125</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>198.2223780155182</v>
+        <v>198.212550163269</v>
       </c>
       <c r="B118" t="n">
-        <v>344.4468383789062</v>
+        <v>344.4490356445312</v>
       </c>
       <c r="C118" t="n">
-        <v>50.43597793579102</v>
+        <v>50.43774032592773</v>
       </c>
       <c r="D118" t="n">
-        <v>259.943359375</v>
+        <v>259.9418334960938</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>199.6550250053406</v>
+        <v>199.6422646045685</v>
       </c>
       <c r="B119" t="n">
-        <v>344.4639892578125</v>
+        <v>344.4656677246094</v>
       </c>
       <c r="C119" t="n">
-        <v>50.43416976928711</v>
+        <v>50.43513488769531</v>
       </c>
       <c r="D119" t="n">
-        <v>271.6780090332031</v>
+        <v>271.6751098632812</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>201.0844843387604</v>
+        <v>201.0722043514252</v>
       </c>
       <c r="B120" t="n">
-        <v>344.4673767089844</v>
+        <v>344.4671936035156</v>
       </c>
       <c r="C120" t="n">
-        <v>50.42890167236328</v>
+        <v>50.42815780639648</v>
       </c>
       <c r="D120" t="n">
-        <v>283.361572265625</v>
+        <v>283.3623046875</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>202.5143303871155</v>
+        <v>202.5016262531281</v>
       </c>
       <c r="B121" t="n">
-        <v>344.4459838867188</v>
+        <v>344.4449462890625</v>
       </c>
       <c r="C121" t="n">
-        <v>50.42433166503906</v>
+        <v>50.4234619140625</v>
       </c>
       <c r="D121" t="n">
-        <v>295.0252685546875</v>
+        <v>295.023193359375</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>204.9140915870667</v>
+        <v>204.9054751396179</v>
       </c>
       <c r="B122" t="n">
-        <v>344.4341125488281</v>
+        <v>344.4359436035156</v>
       </c>
       <c r="C122" t="n">
-        <v>62.10979843139648</v>
+        <v>62.10721969604492</v>
       </c>
       <c r="D122" t="n">
-        <v>259.9433898925781</v>
+        <v>259.9454040527344</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>206.3450047969818</v>
+        <v>206.336742401123</v>
       </c>
       <c r="B123" t="n">
-        <v>344.4441528320312</v>
+        <v>344.4447631835938</v>
       </c>
       <c r="C123" t="n">
-        <v>62.10069274902344</v>
+        <v>62.10153198242188</v>
       </c>
       <c r="D123" t="n">
-        <v>271.6929626464844</v>
+        <v>271.6921997070312</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>207.7744433879852</v>
+        <v>207.7668797969818</v>
       </c>
       <c r="B124" t="n">
-        <v>344.441162109375</v>
+        <v>344.4425048828125</v>
       </c>
       <c r="C124" t="n">
-        <v>62.08778381347656</v>
+        <v>62.08948135375977</v>
       </c>
       <c r="D124" t="n">
-        <v>283.3595886230469</v>
+        <v>283.3587951660156</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>209.2024531364441</v>
+        <v>209.1967666149139</v>
       </c>
       <c r="B125" t="n">
-        <v>344.4606628417969</v>
+        <v>344.458740234375</v>
       </c>
       <c r="C125" t="n">
-        <v>62.09056854248047</v>
+        <v>62.0909538269043</v>
       </c>
       <c r="D125" t="n">
-        <v>295.0408935546875</v>
+        <v>295.0430603027344</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>211.60169506073</v>
+        <v>211.5981667041779</v>
       </c>
       <c r="B126" t="n">
-        <v>344.4489440917969</v>
+        <v>344.4478454589844</v>
       </c>
       <c r="C126" t="n">
-        <v>73.77079010009766</v>
+        <v>73.76982116699219</v>
       </c>
       <c r="D126" t="n">
-        <v>259.9580078125</v>
+        <v>259.9595031738281</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>213.0353074073792</v>
+        <v>213.0289351940155</v>
       </c>
       <c r="B127" t="n">
-        <v>344.4652404785156</v>
+        <v>344.4673461914062</v>
       </c>
       <c r="C127" t="n">
-        <v>73.77059936523438</v>
+        <v>73.77104949951172</v>
       </c>
       <c r="D127" t="n">
-        <v>271.7010803222656</v>
+        <v>271.6995239257812</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>214.4642632007599</v>
+        <v>214.4593577384949</v>
       </c>
       <c r="B128" t="n">
-        <v>344.462158203125</v>
+        <v>344.4630737304688</v>
       </c>
       <c r="C128" t="n">
-        <v>73.76256561279297</v>
+        <v>73.76276397705078</v>
       </c>
       <c r="D128" t="n">
-        <v>283.3633422851562</v>
+        <v>283.36474609375</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>215.8943681716919</v>
+        <v>215.892737865448</v>
       </c>
       <c r="B129" t="n">
-        <v>344.4403381347656</v>
+        <v>344.4430236816406</v>
       </c>
       <c r="C129" t="n">
-        <v>73.75568389892578</v>
+        <v>73.75625610351562</v>
       </c>
       <c r="D129" t="n">
-        <v>295.0316772460938</v>
+        <v>295.0351257324219</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>218.2938561439514</v>
+        <v>218.2999632358551</v>
       </c>
       <c r="B130" t="n">
-        <v>344.447998046875</v>
+        <v>344.4483642578125</v>
       </c>
       <c r="C130" t="n">
-        <v>85.45581817626953</v>
+        <v>85.45815277099609</v>
       </c>
       <c r="D130" t="n">
-        <v>259.9428405761719</v>
+        <v>259.9463195800781</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>219.7224349975586</v>
+        <v>219.7293031215668</v>
       </c>
       <c r="B131" t="n">
-        <v>344.4637756347656</v>
+        <v>344.4640502929688</v>
       </c>
       <c r="C131" t="n">
-        <v>85.43128967285156</v>
+        <v>85.42836761474609</v>
       </c>
       <c r="D131" t="n">
-        <v>271.710693359375</v>
+        <v>271.7135314941406</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>221.1521635055542</v>
+        <v>221.1615490913391</v>
       </c>
       <c r="B132" t="n">
-        <v>344.45751953125</v>
+        <v>344.4573364257812</v>
       </c>
       <c r="C132" t="n">
-        <v>85.42225646972656</v>
+        <v>85.42146301269531</v>
       </c>
       <c r="D132" t="n">
-        <v>283.3672790527344</v>
+        <v>283.3737182617188</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>222.5804905891418</v>
+        <v>222.5958106517792</v>
       </c>
       <c r="B133" t="n">
-        <v>344.464111328125</v>
+        <v>344.4613952636719</v>
       </c>
       <c r="C133" t="n">
-        <v>85.42463684082031</v>
+        <v>85.42397308349609</v>
       </c>
       <c r="D133" t="n">
-        <v>295.0321960449219</v>
+        <v>295.0308837890625</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>224.9802865982056</v>
+        <v>225.00079870224</v>
       </c>
       <c r="B134" t="n">
-        <v>344.4364929199219</v>
+        <v>344.4350891113281</v>
       </c>
       <c r="C134" t="n">
-        <v>97.10233306884766</v>
+        <v>97.10650634765625</v>
       </c>
       <c r="D134" t="n">
-        <v>259.9324340820312</v>
+        <v>259.9331665039062</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>226.4138073921204</v>
+        <v>226.4280483722687</v>
       </c>
       <c r="B135" t="n">
-        <v>344.4502563476562</v>
+        <v>344.448486328125</v>
       </c>
       <c r="C135" t="n">
-        <v>97.10316467285156</v>
+        <v>97.10190582275391</v>
       </c>
       <c r="D135" t="n">
-        <v>271.6970825195312</v>
+        <v>271.7014770507812</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>227.8448522090912</v>
+        <v>227.8599152565002</v>
       </c>
       <c r="B136" t="n">
-        <v>344.4532165527344</v>
+        <v>344.4537963867188</v>
       </c>
       <c r="C136" t="n">
-        <v>97.09487152099609</v>
+        <v>97.09199523925781</v>
       </c>
       <c r="D136" t="n">
-        <v>283.3743591308594</v>
+        <v>283.3758239746094</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>229.274224281311</v>
+        <v>229.2921137809753</v>
       </c>
       <c r="B137" t="n">
-        <v>344.4483947753906</v>
+        <v>344.4474792480469</v>
       </c>
       <c r="C137" t="n">
-        <v>97.08971405029297</v>
+        <v>97.08868408203125</v>
       </c>
       <c r="D137" t="n">
-        <v>295.0201416015625</v>
+        <v>295.0223388671875</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>231.6723072528839</v>
+        <v>231.6915967464447</v>
       </c>
       <c r="B138" t="n">
-        <v>344.4356689453125</v>
+        <v>344.4346923828125</v>
       </c>
       <c r="C138" t="n">
-        <v>108.7694473266602</v>
+        <v>108.7722396850586</v>
       </c>
       <c r="D138" t="n">
-        <v>259.9469909667969</v>
+        <v>259.9455871582031</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>233.1009166240692</v>
+        <v>233.1213459968567</v>
       </c>
       <c r="B139" t="n">
-        <v>344.4616394042969</v>
+        <v>344.4606323242188</v>
       </c>
       <c r="C139" t="n">
-        <v>108.7737655639648</v>
+        <v>108.7734603881836</v>
       </c>
       <c r="D139" t="n">
-        <v>271.6779479980469</v>
+        <v>271.68017578125</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>234.530045747757</v>
+        <v>234.5556528568268</v>
       </c>
       <c r="B140" t="n">
-        <v>344.462158203125</v>
+        <v>344.4637756347656</v>
       </c>
       <c r="C140" t="n">
-        <v>108.7654113769531</v>
+        <v>108.7635955810547</v>
       </c>
       <c r="D140" t="n">
-        <v>283.3626403808594</v>
+        <v>283.3662109375</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>235.9585974216461</v>
+        <v>235.9860024452209</v>
       </c>
       <c r="B141" t="n">
-        <v>344.4539489746094</v>
+        <v>344.4591674804688</v>
       </c>
       <c r="C141" t="n">
-        <v>108.7581634521484</v>
+        <v>108.7590408325195</v>
       </c>
       <c r="D141" t="n">
-        <v>295.0135498046875</v>
+        <v>295.0139465332031</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>239.3865804672241</v>
+        <v>239.4154081344604</v>
       </c>
       <c r="B142" t="n">
-        <v>355.5700073242188</v>
+        <v>355.568115234375</v>
       </c>
       <c r="C142" t="n">
-        <v>38.73761749267578</v>
+        <v>38.73519897460938</v>
       </c>
       <c r="D142" t="n">
-        <v>259.9547729492188</v>
+        <v>259.949951171875</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>240.8174095153809</v>
+        <v>240.844496011734</v>
       </c>
       <c r="B143" t="n">
-        <v>355.5841979980469</v>
+        <v>355.5838623046875</v>
       </c>
       <c r="C143" t="n">
-        <v>38.74946975708008</v>
+        <v>38.74943161010742</v>
       </c>
       <c r="D143" t="n">
-        <v>271.7026062011719</v>
+        <v>271.7032775878906</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>242.2548038959503</v>
+        <v>242.2785375118256</v>
       </c>
       <c r="B144" t="n">
-        <v>355.5751647949219</v>
+        <v>355.5769958496094</v>
       </c>
       <c r="C144" t="n">
-        <v>38.7602653503418</v>
+        <v>38.76267242431641</v>
       </c>
       <c r="D144" t="n">
-        <v>283.3797607421875</v>
+        <v>283.3853454589844</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>243.6841523647308</v>
+        <v>243.7144043445587</v>
       </c>
       <c r="B145" t="n">
-        <v>355.5684204101562</v>
+        <v>355.5669555664062</v>
       </c>
       <c r="C145" t="n">
-        <v>38.7602653503418</v>
+        <v>38.76084518432617</v>
       </c>
       <c r="D145" t="n">
-        <v>295.0086669921875</v>
+        <v>295.0080261230469</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>246.0831732749939</v>
+        <v>246.1134865283966</v>
       </c>
       <c r="B146" t="n">
-        <v>355.5503845214844</v>
+        <v>355.5513000488281</v>
       </c>
       <c r="C146" t="n">
-        <v>50.45385360717773</v>
+        <v>50.45324325561523</v>
       </c>
       <c r="D146" t="n">
-        <v>259.9381713867188</v>
+        <v>259.9381103515625</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>247.5134301185608</v>
+        <v>247.5455343723297</v>
       </c>
       <c r="B147" t="n">
-        <v>355.5826110839844</v>
+        <v>355.5812377929688</v>
       </c>
       <c r="C147" t="n">
-        <v>50.42502212524414</v>
+        <v>50.42557144165039</v>
       </c>
       <c r="D147" t="n">
-        <v>271.7016906738281</v>
+        <v>271.6996154785156</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>248.9425957202911</v>
+        <v>248.9744517803192</v>
       </c>
       <c r="B148" t="n">
-        <v>355.5746765136719</v>
+        <v>355.5759582519531</v>
       </c>
       <c r="C148" t="n">
-        <v>50.42389678955078</v>
+        <v>50.42407989501953</v>
       </c>
       <c r="D148" t="n">
-        <v>283.372802734375</v>
+        <v>283.3792114257812</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>250.3725161552429</v>
+        <v>250.4035091400146</v>
       </c>
       <c r="B149" t="n">
-        <v>355.5670471191406</v>
+        <v>355.5702209472656</v>
       </c>
       <c r="C149" t="n">
-        <v>50.42430114746094</v>
+        <v>50.42400741577148</v>
       </c>
       <c r="D149" t="n">
-        <v>295.0008544921875</v>
+        <v>295.0021667480469</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>252.7742502689362</v>
+        <v>252.8069469928741</v>
       </c>
       <c r="B150" t="n">
-        <v>355.5577697753906</v>
+        <v>355.555908203125</v>
       </c>
       <c r="C150" t="n">
-        <v>62.11174774169922</v>
+        <v>62.11217498779297</v>
       </c>
       <c r="D150" t="n">
-        <v>259.9551696777344</v>
+        <v>259.9539489746094</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>254.204582452774</v>
+        <v>254.2379460334778</v>
       </c>
       <c r="B151" t="n">
-        <v>355.57470703125</v>
+        <v>355.5740966796875</v>
       </c>
       <c r="C151" t="n">
-        <v>62.10570526123047</v>
+        <v>62.10559844970703</v>
       </c>
       <c r="D151" t="n">
-        <v>271.7037048339844</v>
+        <v>271.708740234375</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>255.6338109970093</v>
+        <v>255.6685516834259</v>
       </c>
       <c r="B152" t="n">
-        <v>355.5676574707031</v>
+        <v>355.5695190429688</v>
       </c>
       <c r="C152" t="n">
-        <v>62.09172439575195</v>
+        <v>62.09130096435547</v>
       </c>
       <c r="D152" t="n">
-        <v>283.3590393066406</v>
+        <v>283.3632507324219</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>257.0644145011902</v>
+        <v>257.0971035957336</v>
       </c>
       <c r="B153" t="n">
-        <v>355.5724182128906</v>
+        <v>355.5700073242188</v>
       </c>
       <c r="C153" t="n">
-        <v>62.0918083190918</v>
+        <v>62.09138870239258</v>
       </c>
       <c r="D153" t="n">
-        <v>295.0538024902344</v>
+        <v>295.0503540039062</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>259.4659852981567</v>
+        <v>259.498114824295</v>
       </c>
       <c r="B154" t="n">
-        <v>355.5457458496094</v>
+        <v>355.5463562011719</v>
       </c>
       <c r="C154" t="n">
-        <v>73.78934478759766</v>
+        <v>73.78339385986328</v>
       </c>
       <c r="D154" t="n">
-        <v>259.9415893554688</v>
+        <v>259.9409484863281</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>260.8946249485016</v>
+        <v>260.9286677837372</v>
       </c>
       <c r="B155" t="n">
-        <v>355.5740356445312</v>
+        <v>355.5722961425781</v>
       </c>
       <c r="C155" t="n">
-        <v>73.75650024414062</v>
+        <v>73.75917816162109</v>
       </c>
       <c r="D155" t="n">
-        <v>271.71533203125</v>
+        <v>271.7103271484375</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>262.3199851512909</v>
+        <v>262.359388589859</v>
       </c>
       <c r="B156" t="n">
-        <v>355.5787353515625</v>
+        <v>355.5775451660156</v>
       </c>
       <c r="C156" t="n">
-        <v>73.75747680664062</v>
+        <v>73.75723266601562</v>
       </c>
       <c r="D156" t="n">
-        <v>283.3799438476562</v>
+        <v>283.375</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>263.7479667663574</v>
+        <v>263.7878687381744</v>
       </c>
       <c r="B157" t="n">
-        <v>355.5582275390625</v>
+        <v>355.5592346191406</v>
       </c>
       <c r="C157" t="n">
-        <v>73.75474548339844</v>
+        <v>73.75495147705078</v>
       </c>
       <c r="D157" t="n">
-        <v>295.0370178222656</v>
+        <v>295.0390930175781</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>266.1473624706268</v>
+        <v>266.1870200634003</v>
       </c>
       <c r="B158" t="n">
-        <v>355.5425720214844</v>
+        <v>355.5430297851562</v>
       </c>
       <c r="C158" t="n">
-        <v>85.45825958251953</v>
+        <v>85.45683288574219</v>
       </c>
       <c r="D158" t="n">
-        <v>259.9441528320312</v>
+        <v>259.9419860839844</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>267.5767765045166</v>
+        <v>267.6163957118988</v>
       </c>
       <c r="B159" t="n">
-        <v>355.5842895507812</v>
+        <v>355.585205078125</v>
       </c>
       <c r="C159" t="n">
-        <v>85.42518615722656</v>
+        <v>85.42617034912109</v>
       </c>
       <c r="D159" t="n">
-        <v>271.6961669921875</v>
+        <v>271.6967468261719</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>269.0077240467072</v>
+        <v>269.0460729598999</v>
       </c>
       <c r="B160" t="n">
-        <v>355.5786437988281</v>
+        <v>355.5768127441406</v>
       </c>
       <c r="C160" t="n">
-        <v>85.423828125</v>
+        <v>85.42339324951172</v>
       </c>
       <c r="D160" t="n">
-        <v>283.3770751953125</v>
+        <v>283.380126953125</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>270.4422154426575</v>
+        <v>270.477029800415</v>
       </c>
       <c r="B161" t="n">
         <v>355.5714111328125</v>
@@ -2692,544 +2692,544 @@
         <v>85.42362976074219</v>
       </c>
       <c r="D161" t="n">
-        <v>295.0215148925781</v>
+        <v>295.0237121582031</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>272.8413138389587</v>
+        <v>272.8782994747162</v>
       </c>
       <c r="B162" t="n">
-        <v>355.547119140625</v>
+        <v>355.5497131347656</v>
       </c>
       <c r="C162" t="n">
-        <v>97.11185455322266</v>
+        <v>97.11100006103516</v>
       </c>
       <c r="D162" t="n">
-        <v>259.9530639648438</v>
+        <v>259.9557800292969</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>274.271075963974</v>
+        <v>274.3085148334503</v>
       </c>
       <c r="B163" t="n">
-        <v>355.5641479492188</v>
+        <v>355.5644226074219</v>
       </c>
       <c r="C163" t="n">
-        <v>97.09539794921875</v>
+        <v>97.09782409667969</v>
       </c>
       <c r="D163" t="n">
-        <v>271.6732482910156</v>
+        <v>271.6708984375</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>275.7022967338562</v>
+        <v>275.7374141216278</v>
       </c>
       <c r="B164" t="n">
-        <v>355.5683898925781</v>
+        <v>355.5679931640625</v>
       </c>
       <c r="C164" t="n">
-        <v>97.08951568603516</v>
+        <v>97.08940887451172</v>
       </c>
       <c r="D164" t="n">
-        <v>283.3547973632812</v>
+        <v>283.3592529296875</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>277.131938457489</v>
+        <v>277.1678624153137</v>
       </c>
       <c r="B165" t="n">
-        <v>355.5599670410156</v>
+        <v>355.5603332519531</v>
       </c>
       <c r="C165" t="n">
-        <v>97.08721923828125</v>
+        <v>97.08810424804688</v>
       </c>
       <c r="D165" t="n">
-        <v>295.0077514648438</v>
+        <v>295.0091857910156</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>279.5322592258453</v>
+        <v>279.5715987682343</v>
       </c>
       <c r="B166" t="n">
-        <v>355.5457763671875</v>
+        <v>355.5464477539062</v>
       </c>
       <c r="C166" t="n">
-        <v>108.7847061157227</v>
+        <v>108.7864990234375</v>
       </c>
       <c r="D166" t="n">
-        <v>259.9375610351562</v>
+        <v>259.9374389648438</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>280.9610605239868</v>
+        <v>280.9919645786285</v>
       </c>
       <c r="B167" t="n">
-        <v>355.5567321777344</v>
+        <v>355.5567932128906</v>
       </c>
       <c r="C167" t="n">
-        <v>108.7618026733398</v>
+        <v>108.7578430175781</v>
       </c>
       <c r="D167" t="n">
-        <v>271.6916198730469</v>
+        <v>271.6961975097656</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>282.3934347629547</v>
+        <v>282.4239027500153</v>
       </c>
       <c r="B168" t="n">
-        <v>355.5691223144531</v>
+        <v>355.5692138671875</v>
       </c>
       <c r="C168" t="n">
-        <v>108.7560424804688</v>
+        <v>108.7552642822266</v>
       </c>
       <c r="D168" t="n">
-        <v>283.3811340332031</v>
+        <v>283.3848571777344</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>283.8244276046753</v>
+        <v>283.8515532016754</v>
       </c>
       <c r="B169" t="n">
-        <v>355.5545043945312</v>
+        <v>355.5520935058594</v>
       </c>
       <c r="C169" t="n">
-        <v>108.7523574829102</v>
+        <v>108.7516250610352</v>
       </c>
       <c r="D169" t="n">
-        <v>295.0191040039062</v>
+        <v>295.0245056152344</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>287.2522566318512</v>
+        <v>287.2869868278503</v>
       </c>
       <c r="B170" t="n">
-        <v>366.6806335449219</v>
+        <v>366.6814575195312</v>
       </c>
       <c r="C170" t="n">
-        <v>38.73366165161133</v>
+        <v>38.73298645019531</v>
       </c>
       <c r="D170" t="n">
-        <v>259.9569091796875</v>
+        <v>259.9553833007812</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>288.6803517341614</v>
+        <v>288.7170360088348</v>
       </c>
       <c r="B171" t="n">
-        <v>366.6800231933594</v>
+        <v>366.680419921875</v>
       </c>
       <c r="C171" t="n">
-        <v>38.7487678527832</v>
+        <v>38.74880981445312</v>
       </c>
       <c r="D171" t="n">
-        <v>271.6790161132812</v>
+        <v>271.6818542480469</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>290.1087212562561</v>
+        <v>290.1465067863464</v>
       </c>
       <c r="B172" t="n">
-        <v>366.6671752929688</v>
+        <v>366.66357421875</v>
       </c>
       <c r="C172" t="n">
-        <v>38.75955200195312</v>
+        <v>38.75992965698242</v>
       </c>
       <c r="D172" t="n">
-        <v>283.3601379394531</v>
+        <v>283.3634033203125</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>291.5406060218811</v>
+        <v>291.577347278595</v>
       </c>
       <c r="B173" t="n">
-        <v>366.6752319335938</v>
+        <v>366.6766357421875</v>
       </c>
       <c r="C173" t="n">
-        <v>38.76040267944336</v>
+        <v>38.76055145263672</v>
       </c>
       <c r="D173" t="n">
-        <v>295.0274353027344</v>
+        <v>295.0317687988281</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>293.9407510757446</v>
+        <v>293.9772577285767</v>
       </c>
       <c r="B174" t="n">
-        <v>366.6625061035156</v>
+        <v>366.6627807617188</v>
       </c>
       <c r="C174" t="n">
-        <v>50.44642639160156</v>
+        <v>50.44493103027344</v>
       </c>
       <c r="D174" t="n">
-        <v>259.9573364257812</v>
+        <v>259.9514770507812</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>295.3701298236847</v>
+        <v>295.409975528717</v>
       </c>
       <c r="B175" t="n">
-        <v>366.6802368164062</v>
+        <v>366.6826477050781</v>
       </c>
       <c r="C175" t="n">
-        <v>50.42898941040039</v>
+        <v>50.43084335327148</v>
       </c>
       <c r="D175" t="n">
-        <v>271.679931640625</v>
+        <v>271.6869812011719</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>296.8006391525269</v>
+        <v>296.841251373291</v>
       </c>
       <c r="B176" t="n">
-        <v>366.6674194335938</v>
+        <v>366.667236328125</v>
       </c>
       <c r="C176" t="n">
-        <v>50.42187118530273</v>
+        <v>50.42184829711914</v>
       </c>
       <c r="D176" t="n">
-        <v>283.354248046875</v>
+        <v>283.359375</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>298.2330756187439</v>
+        <v>298.2719895839691</v>
       </c>
       <c r="B177" t="n">
-        <v>366.6827392578125</v>
+        <v>366.6845397949219</v>
       </c>
       <c r="C177" t="n">
-        <v>50.42474365234375</v>
+        <v>50.42422485351562</v>
       </c>
       <c r="D177" t="n">
-        <v>295.0301513671875</v>
+        <v>295.0337524414062</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>300.6354615688324</v>
+        <v>300.669891834259</v>
       </c>
       <c r="B178" t="n">
-        <v>366.6692199707031</v>
+        <v>366.6714782714844</v>
       </c>
       <c r="C178" t="n">
-        <v>62.11367416381836</v>
+        <v>62.11328887939453</v>
       </c>
       <c r="D178" t="n">
-        <v>259.9408874511719</v>
+        <v>259.9405822753906</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>302.0654091835022</v>
+        <v>302.1003754138947</v>
       </c>
       <c r="B179" t="n">
-        <v>366.6634521484375</v>
+        <v>366.6652526855469</v>
       </c>
       <c r="C179" t="n">
-        <v>62.10112380981445</v>
+        <v>62.10065841674805</v>
       </c>
       <c r="D179" t="n">
-        <v>271.6951599121094</v>
+        <v>271.6943054199219</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>303.4968860149384</v>
+        <v>303.5372958183289</v>
       </c>
       <c r="B180" t="n">
-        <v>366.6733093261719</v>
+        <v>366.6730041503906</v>
       </c>
       <c r="C180" t="n">
-        <v>62.08966827392578</v>
+        <v>62.08961486816406</v>
       </c>
       <c r="D180" t="n">
-        <v>283.3688659667969</v>
+        <v>283.365966796875</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>304.9271652698517</v>
+        <v>304.9668943881989</v>
       </c>
       <c r="B181" t="n">
-        <v>366.6646728515625</v>
+        <v>366.6653747558594</v>
       </c>
       <c r="C181" t="n">
-        <v>62.08743286132812</v>
+        <v>62.08832550048828</v>
       </c>
       <c r="D181" t="n">
-        <v>295.017578125</v>
+        <v>295.0204772949219</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>307.3279292583466</v>
+        <v>307.3680644035339</v>
       </c>
       <c r="B182" t="n">
-        <v>366.6657104492188</v>
+        <v>366.663330078125</v>
       </c>
       <c r="C182" t="n">
-        <v>73.78260040283203</v>
+        <v>73.78602600097656</v>
       </c>
       <c r="D182" t="n">
-        <v>259.9410095214844</v>
+        <v>259.9412536621094</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>308.7571518421173</v>
+        <v>308.7984981536865</v>
       </c>
       <c r="B183" t="n">
-        <v>366.6808776855469</v>
+        <v>366.6826477050781</v>
       </c>
       <c r="C183" t="n">
-        <v>73.7598876953125</v>
+        <v>73.75712585449219</v>
       </c>
       <c r="D183" t="n">
-        <v>271.6853637695312</v>
+        <v>271.6918640136719</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>310.1864330768585</v>
+        <v>310.2291975021362</v>
       </c>
       <c r="B184" t="n">
-        <v>366.6607971191406</v>
+        <v>366.662353515625</v>
       </c>
       <c r="C184" t="n">
-        <v>73.75116729736328</v>
+        <v>73.75226593017578</v>
       </c>
       <c r="D184" t="n">
-        <v>283.3540649414062</v>
+        <v>283.3583068847656</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>311.6194698810577</v>
+        <v>311.6592273712158</v>
       </c>
       <c r="B185" t="n">
-        <v>366.6703491210938</v>
+        <v>366.6721801757812</v>
       </c>
       <c r="C185" t="n">
-        <v>73.75464630126953</v>
+        <v>73.75502014160156</v>
       </c>
       <c r="D185" t="n">
-        <v>295.0420532226562</v>
+        <v>295.0477905273438</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>314.0193107128143</v>
+        <v>314.0581803321838</v>
       </c>
       <c r="B186" t="n">
-        <v>366.6701965332031</v>
+        <v>366.668212890625</v>
       </c>
       <c r="C186" t="n">
-        <v>85.45699310302734</v>
+        <v>85.45178985595703</v>
       </c>
       <c r="D186" t="n">
-        <v>259.9496154785156</v>
+        <v>259.9492797851562</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>315.4532182216644</v>
+        <v>315.4874095916748</v>
       </c>
       <c r="B187" t="n">
-        <v>366.6694030761719</v>
+        <v>366.667724609375</v>
       </c>
       <c r="C187" t="n">
-        <v>85.42279815673828</v>
+        <v>85.42951965332031</v>
       </c>
       <c r="D187" t="n">
-        <v>271.6959838867188</v>
+        <v>271.6958923339844</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>316.8831429481506</v>
+        <v>316.9173221588135</v>
       </c>
       <c r="B188" t="n">
-        <v>366.6731872558594</v>
+        <v>366.6759033203125</v>
       </c>
       <c r="C188" t="n">
-        <v>85.41971588134766</v>
+        <v>85.421142578125</v>
       </c>
       <c r="D188" t="n">
-        <v>283.349365234375</v>
+        <v>283.3453369140625</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>318.3167297840118</v>
+        <v>318.3503615856171</v>
       </c>
       <c r="B189" t="n">
-        <v>366.6764831542969</v>
+        <v>366.6770629882812</v>
       </c>
       <c r="C189" t="n">
-        <v>85.42207336425781</v>
+        <v>85.42220306396484</v>
       </c>
       <c r="D189" t="n">
-        <v>295.0067443847656</v>
+        <v>295.0029907226562</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>320.7166800498962</v>
+        <v>320.7501902580261</v>
       </c>
       <c r="B190" t="n">
-        <v>366.6594848632812</v>
+        <v>366.6573486328125</v>
       </c>
       <c r="C190" t="n">
-        <v>97.11521148681641</v>
+        <v>97.11705780029297</v>
       </c>
       <c r="D190" t="n">
-        <v>259.9336547851562</v>
+        <v>259.92724609375</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>322.146107673645</v>
+        <v>322.1831254959106</v>
       </c>
       <c r="B191" t="n">
-        <v>366.6857604980469</v>
+        <v>366.6880187988281</v>
       </c>
       <c r="C191" t="n">
-        <v>97.09567260742188</v>
+        <v>97.09305572509766</v>
       </c>
       <c r="D191" t="n">
-        <v>271.7164916992188</v>
+        <v>271.7178344726562</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>323.5766565799713</v>
+        <v>323.6129121780396</v>
       </c>
       <c r="B192" t="n">
-        <v>366.6750183105469</v>
+        <v>366.6771240234375</v>
       </c>
       <c r="C192" t="n">
-        <v>97.08881378173828</v>
+        <v>97.08776092529297</v>
       </c>
       <c r="D192" t="n">
-        <v>283.3548583984375</v>
+        <v>283.357666015625</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>325.0074701309204</v>
+        <v>325.0444741249084</v>
       </c>
       <c r="B193" t="n">
-        <v>366.6867370605469</v>
+        <v>366.6864318847656</v>
       </c>
       <c r="C193" t="n">
-        <v>97.09271240234375</v>
+        <v>97.09183502197266</v>
       </c>
       <c r="D193" t="n">
-        <v>295.0409545898438</v>
+        <v>295.0440673828125</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>327.4065396785736</v>
+        <v>327.4444046020508</v>
       </c>
       <c r="B194" t="n">
-        <v>366.6608581542969</v>
+        <v>366.6567077636719</v>
       </c>
       <c r="C194" t="n">
-        <v>108.7766799926758</v>
+        <v>108.7803421020508</v>
       </c>
       <c r="D194" t="n">
-        <v>259.9326477050781</v>
+        <v>259.9247741699219</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>328.8353748321533</v>
+        <v>328.8741233348846</v>
       </c>
       <c r="B195" t="n">
-        <v>366.6777038574219</v>
+        <v>366.6797180175781</v>
       </c>
       <c r="C195" t="n">
-        <v>108.7702484130859</v>
+        <v>108.7675857543945</v>
       </c>
       <c r="D195" t="n">
-        <v>271.7166748046875</v>
+        <v>271.718017578125</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>330.2635850906372</v>
+        <v>330.3062710762024</v>
       </c>
       <c r="B196" t="n">
-        <v>366.6731567382812</v>
+        <v>366.6748962402344</v>
       </c>
       <c r="C196" t="n">
-        <v>108.7558364868164</v>
+        <v>108.7547225952148</v>
       </c>
       <c r="D196" t="n">
-        <v>283.34130859375</v>
+        <v>283.3396301269531</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>331.6950149536133</v>
+        <v>331.7402973175049</v>
       </c>
       <c r="B197" t="n">
-        <v>366.6766357421875</v>
+        <v>366.6782531738281</v>
       </c>
       <c r="C197" t="n">
-        <v>108.7568664550781</v>
+        <v>108.7565383911133</v>
       </c>
       <c r="D197" t="n">
-        <v>295.0111389160156</v>
+        <v>295.0110473632812</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>335.1256592273712</v>
+        <v>335.1700460910797</v>
       </c>
       <c r="B198" t="n">
-        <v>377.7886352539062</v>
+        <v>377.7896423339844</v>
       </c>
       <c r="C198" t="n">
-        <v>38.7293586730957</v>
+        <v>38.73180389404297</v>
       </c>
       <c r="D198" t="n">
-        <v>259.9633178710938</v>
+        <v>259.9639892578125</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>336.5559923648834</v>
+        <v>336.6012048721313</v>
       </c>
       <c r="B199" t="n">
-        <v>377.7891845703125</v>
+        <v>377.7913208007812</v>
       </c>
       <c r="C199" t="n">
-        <v>38.75206756591797</v>
+        <v>38.74994277954102</v>
       </c>
       <c r="D199" t="n">
-        <v>271.6848449707031</v>
+        <v>271.6838684082031</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>337.9856715202332</v>
+        <v>338.0313222408295</v>
       </c>
       <c r="B200" t="n">
         <v>377.7791748046875</v>
@@ -3243,125 +3243,125 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>339.4205586910248</v>
+        <v>339.4598610401154</v>
       </c>
       <c r="B201" t="n">
-        <v>377.77880859375</v>
+        <v>377.7771911621094</v>
       </c>
       <c r="C201" t="n">
-        <v>38.75959777832031</v>
+        <v>38.75942993164062</v>
       </c>
       <c r="D201" t="n">
-        <v>295.0234680175781</v>
+        <v>295.0244140625</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>341.8206834793091</v>
+        <v>341.8587322235107</v>
       </c>
       <c r="B202" t="n">
-        <v>377.7723388671875</v>
+        <v>377.7710266113281</v>
       </c>
       <c r="C202" t="n">
-        <v>50.4547233581543</v>
+        <v>50.45769500732422</v>
       </c>
       <c r="D202" t="n">
-        <v>259.9356689453125</v>
+        <v>259.9350280761719</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>343.2498188018799</v>
+        <v>343.2890796661377</v>
       </c>
       <c r="B203" t="n">
-        <v>377.79638671875</v>
+        <v>377.7991027832031</v>
       </c>
       <c r="C203" t="n">
-        <v>50.4256706237793</v>
+        <v>50.42367553710938</v>
       </c>
       <c r="D203" t="n">
-        <v>271.702392578125</v>
+        <v>271.7006225585938</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>344.6802010536194</v>
+        <v>344.7177939414978</v>
       </c>
       <c r="B204" t="n">
-        <v>377.7848815917969</v>
+        <v>377.7843627929688</v>
       </c>
       <c r="C204" t="n">
-        <v>50.42177581787109</v>
+        <v>50.42170715332031</v>
       </c>
       <c r="D204" t="n">
-        <v>283.3536071777344</v>
+        <v>283.3551940917969</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>346.110976934433</v>
+        <v>346.1485438346863</v>
       </c>
       <c r="B205" t="n">
-        <v>377.7909851074219</v>
+        <v>377.7859497070312</v>
       </c>
       <c r="C205" t="n">
-        <v>50.42337799072266</v>
+        <v>50.42349243164062</v>
       </c>
       <c r="D205" t="n">
-        <v>295.0288391113281</v>
+        <v>295.0324096679688</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>348.5135617256165</v>
+        <v>348.5501117706299</v>
       </c>
       <c r="B206" t="n">
-        <v>377.780517578125</v>
+        <v>377.7796020507812</v>
       </c>
       <c r="C206" t="n">
-        <v>62.11744689941406</v>
+        <v>62.11650466918945</v>
       </c>
       <c r="D206" t="n">
-        <v>259.9607543945312</v>
+        <v>259.961669921875</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>349.9469773769379</v>
+        <v>349.9812638759613</v>
       </c>
       <c r="B207" t="n">
-        <v>377.7856750488281</v>
+        <v>377.7850036621094</v>
       </c>
       <c r="C207" t="n">
-        <v>62.09923934936523</v>
+        <v>62.09912872314453</v>
       </c>
       <c r="D207" t="n">
-        <v>271.6830139160156</v>
+        <v>271.6846923828125</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>351.3763647079468</v>
+        <v>351.4107437133789</v>
       </c>
       <c r="B208" t="n">
-        <v>377.7955932617188</v>
+        <v>377.7955017089844</v>
       </c>
       <c r="C208" t="n">
-        <v>62.08975601196289</v>
+        <v>62.09053421020508</v>
       </c>
       <c r="D208" t="n">
-        <v>283.3870239257812</v>
+        <v>283.3907165527344</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>352.8077292442322</v>
+        <v>352.8418505191803</v>
       </c>
       <c r="B209" t="n">
-        <v>377.785400390625</v>
+        <v>377.785888671875</v>
       </c>
       <c r="C209" t="n">
-        <v>62.08807754516602</v>
+        <v>62.08895492553711</v>
       </c>
       <c r="D209" t="n">
         <v>295.0548706054688</v>
@@ -3369,287 +3369,287 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>355.2064332962036</v>
+        <v>355.2420728206635</v>
       </c>
       <c r="B210" t="n">
-        <v>377.76953125</v>
+        <v>377.7672119140625</v>
       </c>
       <c r="C210" t="n">
-        <v>73.78659820556641</v>
+        <v>73.78614807128906</v>
       </c>
       <c r="D210" t="n">
-        <v>259.9430236816406</v>
+        <v>259.9441833496094</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>356.6366016864777</v>
+        <v>356.6714909076691</v>
       </c>
       <c r="B211" t="n">
-        <v>377.7937927246094</v>
+        <v>377.7934265136719</v>
       </c>
       <c r="C211" t="n">
-        <v>73.75762939453125</v>
+        <v>73.75756072998047</v>
       </c>
       <c r="D211" t="n">
-        <v>271.684326171875</v>
+        <v>271.681396484375</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>358.0646500587463</v>
+        <v>358.1024358272552</v>
       </c>
       <c r="B212" t="n">
-        <v>377.7861328125</v>
+        <v>377.7860412597656</v>
       </c>
       <c r="C212" t="n">
-        <v>73.75453186035156</v>
+        <v>73.75531768798828</v>
       </c>
       <c r="D212" t="n">
-        <v>283.36962890625</v>
+        <v>283.3718872070312</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>359.4964115619659</v>
+        <v>359.534930229187</v>
       </c>
       <c r="B213" t="n">
-        <v>377.7821350097656</v>
+        <v>377.78271484375</v>
       </c>
       <c r="C213" t="n">
-        <v>73.75535583496094</v>
+        <v>73.75546264648438</v>
       </c>
       <c r="D213" t="n">
-        <v>295.027099609375</v>
+        <v>295.0316467285156</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>361.8998486995697</v>
+        <v>361.933737039566</v>
       </c>
       <c r="B214" t="n">
-        <v>377.7739562988281</v>
+        <v>377.7714538574219</v>
       </c>
       <c r="C214" t="n">
-        <v>85.45523834228516</v>
+        <v>85.456298828125</v>
       </c>
       <c r="D214" t="n">
-        <v>259.9515075683594</v>
+        <v>259.9555969238281</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>363.3177161216736</v>
+        <v>363.3641357421875</v>
       </c>
       <c r="B215" t="n">
-        <v>377.7814025878906</v>
+        <v>377.7850341796875</v>
       </c>
       <c r="C215" t="n">
-        <v>85.42442321777344</v>
+        <v>85.42280578613281</v>
       </c>
       <c r="D215" t="n">
-        <v>271.6747436523438</v>
+        <v>271.6666870117188</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>364.7491874694824</v>
+        <v>364.7943050861359</v>
       </c>
       <c r="B216" t="n">
-        <v>377.7931213378906</v>
+        <v>377.792724609375</v>
       </c>
       <c r="C216" t="n">
-        <v>85.42219543457031</v>
+        <v>85.42129516601562</v>
       </c>
       <c r="D216" t="n">
-        <v>283.3858337402344</v>
+        <v>283.3866271972656</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>366.1807067394257</v>
+        <v>366.2291512489319</v>
       </c>
       <c r="B217" t="n">
-        <v>377.7913208007812</v>
+        <v>377.7904663085938</v>
       </c>
       <c r="C217" t="n">
-        <v>85.42259979248047</v>
+        <v>85.42240905761719</v>
       </c>
       <c r="D217" t="n">
-        <v>295.0490112304688</v>
+        <v>295.0513610839844</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>368.5858914852142</v>
+        <v>368.6328899860382</v>
       </c>
       <c r="B218" t="n">
-        <v>377.7627868652344</v>
+        <v>377.7657165527344</v>
       </c>
       <c r="C218" t="n">
-        <v>97.12979125976562</v>
+        <v>97.13137054443359</v>
       </c>
       <c r="D218" t="n">
-        <v>259.9331359863281</v>
+        <v>259.9311218261719</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>370.0163769721985</v>
+        <v>370.061363697052</v>
       </c>
       <c r="B219" t="n">
-        <v>377.793212890625</v>
+        <v>377.7954711914062</v>
       </c>
       <c r="C219" t="n">
-        <v>97.08816528320312</v>
+        <v>97.08956909179688</v>
       </c>
       <c r="D219" t="n">
-        <v>271.7030029296875</v>
+        <v>271.7019653320312</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>371.4455008506775</v>
+        <v>371.4903373718262</v>
       </c>
       <c r="B220" t="n">
-        <v>377.7846069335938</v>
+        <v>377.7837219238281</v>
       </c>
       <c r="C220" t="n">
-        <v>97.08677673339844</v>
+        <v>97.08737182617188</v>
       </c>
       <c r="D220" t="n">
-        <v>283.3557739257812</v>
+        <v>283.3612670898438</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>372.8766927719116</v>
+        <v>372.9187190532684</v>
       </c>
       <c r="B221" t="n">
-        <v>377.7800903320312</v>
+        <v>377.7789916992188</v>
       </c>
       <c r="C221" t="n">
-        <v>97.08726501464844</v>
+        <v>97.08698272705078</v>
       </c>
       <c r="D221" t="n">
-        <v>295.0238342285156</v>
+        <v>295.0278015136719</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>375.2766714096069</v>
+        <v>375.3195202350616</v>
       </c>
       <c r="B222" t="n">
-        <v>377.7767944335938</v>
+        <v>377.7774963378906</v>
       </c>
       <c r="C222" t="n">
-        <v>108.7749786376953</v>
+        <v>108.7743453979492</v>
       </c>
       <c r="D222" t="n">
-        <v>259.9251403808594</v>
+        <v>259.9249877929688</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>376.7047588825226</v>
+        <v>376.7485203742981</v>
       </c>
       <c r="B223" t="n">
-        <v>377.7763977050781</v>
+        <v>377.7787170410156</v>
       </c>
       <c r="C223" t="n">
-        <v>108.7690048217773</v>
+        <v>108.7688369750977</v>
       </c>
       <c r="D223" t="n">
-        <v>271.6856689453125</v>
+        <v>271.6846008300781</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>378.1340305805206</v>
+        <v>378.1808023452759</v>
       </c>
       <c r="B224" t="n">
-        <v>377.7922668457031</v>
+        <v>377.7914733886719</v>
       </c>
       <c r="C224" t="n">
-        <v>108.7618560791016</v>
+        <v>108.7616195678711</v>
       </c>
       <c r="D224" t="n">
-        <v>283.3712463378906</v>
+        <v>283.3728637695312</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>379.5648150444031</v>
+        <v>379.6101045608521</v>
       </c>
       <c r="B225" t="n">
-        <v>377.7881774902344</v>
+        <v>377.7862548828125</v>
       </c>
       <c r="C225" t="n">
-        <v>108.7581634521484</v>
+        <v>108.7576141357422</v>
       </c>
       <c r="D225" t="n">
-        <v>295.0421447753906</v>
+        <v>295.044677734375</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>382.9966015815735</v>
+        <v>383.0454986095428</v>
       </c>
       <c r="B226" t="n">
-        <v>388.8929748535156</v>
+        <v>388.8925170898438</v>
       </c>
       <c r="C226" t="n">
-        <v>38.71326446533203</v>
+        <v>38.71321868896484</v>
       </c>
       <c r="D226" t="n">
-        <v>259.9320678710938</v>
+        <v>259.9367065429688</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>384.4293291568756</v>
+        <v>384.475878238678</v>
       </c>
       <c r="B227" t="n">
-        <v>388.915771484375</v>
+        <v>388.9170532226562</v>
       </c>
       <c r="C227" t="n">
-        <v>38.76375579833984</v>
+        <v>38.76469039916992</v>
       </c>
       <c r="D227" t="n">
-        <v>271.7037048339844</v>
+        <v>271.7027893066406</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>385.8622415065765</v>
+        <v>385.905214548111</v>
       </c>
       <c r="B228" t="n">
-        <v>388.8946533203125</v>
+        <v>388.8943786621094</v>
       </c>
       <c r="C228" t="n">
-        <v>38.76165390014648</v>
+        <v>38.76162719726562</v>
       </c>
       <c r="D228" t="n">
-        <v>283.3600463867188</v>
+        <v>283.3623046875</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>387.2934038639069</v>
+        <v>387.3339896202087</v>
       </c>
       <c r="B229" t="n">
-        <v>388.89404296875</v>
+        <v>388.8934326171875</v>
       </c>
       <c r="C229" t="n">
-        <v>38.76079177856445</v>
+        <v>38.76072692871094</v>
       </c>
       <c r="D229" t="n">
-        <v>295.0287475585938</v>
+        <v>295.034912109375</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>389.6955580711365</v>
+        <v>389.7331664562225</v>
       </c>
       <c r="B230" t="n">
         <v>388.8854370117188</v>
@@ -3663,716 +3663,716 @@
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>391.1270895004272</v>
+        <v>391.1687927246094</v>
       </c>
       <c r="B231" t="n">
-        <v>388.9106140136719</v>
+        <v>388.9116516113281</v>
       </c>
       <c r="C231" t="n">
-        <v>50.42263793945312</v>
+        <v>50.42358016967773</v>
       </c>
       <c r="D231" t="n">
-        <v>271.7234802246094</v>
+        <v>271.7233581542969</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>392.556095123291</v>
+        <v>392.5984046459198</v>
       </c>
       <c r="B232" t="n">
-        <v>388.8991088867188</v>
+        <v>388.9020385742188</v>
       </c>
       <c r="C232" t="n">
-        <v>50.42114639282227</v>
+        <v>50.42233276367188</v>
       </c>
       <c r="D232" t="n">
-        <v>283.3446350097656</v>
+        <v>283.3449401855469</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>393.9867238998413</v>
+        <v>394.0291035175323</v>
       </c>
       <c r="B233" t="n">
-        <v>388.8988952636719</v>
+        <v>388.9019470214844</v>
       </c>
       <c r="C233" t="n">
-        <v>50.42273712158203</v>
+        <v>50.42313385009766</v>
       </c>
       <c r="D233" t="n">
-        <v>295.0189819335938</v>
+        <v>295.0232238769531</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>396.3874490261078</v>
+        <v>396.4301562309265</v>
       </c>
       <c r="B234" t="n">
-        <v>388.8885498046875</v>
+        <v>388.885498046875</v>
       </c>
       <c r="C234" t="n">
-        <v>62.13323593139648</v>
+        <v>62.13111877441406</v>
       </c>
       <c r="D234" t="n">
-        <v>259.9178161621094</v>
+        <v>259.9214477539062</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>397.8170590400696</v>
+        <v>397.8594284057617</v>
       </c>
       <c r="B235" t="n">
-        <v>388.9022521972656</v>
+        <v>388.9024963378906</v>
       </c>
       <c r="C235" t="n">
-        <v>62.08808898925781</v>
+        <v>62.08812713623047</v>
       </c>
       <c r="D235" t="n">
-        <v>271.6974487304688</v>
+        <v>271.6966552734375</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>399.2467920780182</v>
+        <v>399.2913813591003</v>
       </c>
       <c r="B236" t="n">
-        <v>388.8984680175781</v>
+        <v>388.8956909179688</v>
       </c>
       <c r="C236" t="n">
-        <v>62.08748245239258</v>
+        <v>62.08703994750977</v>
       </c>
       <c r="D236" t="n">
-        <v>283.3609008789062</v>
+        <v>283.3627624511719</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>400.6764476299286</v>
+        <v>400.7218091487885</v>
       </c>
       <c r="B237" t="n">
-        <v>388.8967895507812</v>
+        <v>388.8932495117188</v>
       </c>
       <c r="C237" t="n">
-        <v>62.08803558349609</v>
+        <v>62.08828735351562</v>
       </c>
       <c r="D237" t="n">
-        <v>295.0339050292969</v>
+        <v>295.0427856445312</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>403.0797498226166</v>
+        <v>403.1207039356232</v>
       </c>
       <c r="B238" t="n">
-        <v>388.87744140625</v>
+        <v>388.8775939941406</v>
       </c>
       <c r="C238" t="n">
-        <v>73.78983306884766</v>
+        <v>73.78408813476562</v>
       </c>
       <c r="D238" t="n">
-        <v>259.947998046875</v>
+        <v>259.9497680664062</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>404.5112016201019</v>
+        <v>404.5504603385925</v>
       </c>
       <c r="B239" t="n">
-        <v>388.9080810546875</v>
+        <v>388.9073181152344</v>
       </c>
       <c r="C239" t="n">
-        <v>73.75853729248047</v>
+        <v>73.76747131347656</v>
       </c>
       <c r="D239" t="n">
-        <v>271.7142333984375</v>
+        <v>271.7163696289062</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>405.9449236392975</v>
+        <v>405.9797308444977</v>
       </c>
       <c r="B240" t="n">
-        <v>388.89501953125</v>
+        <v>388.8976135253906</v>
       </c>
       <c r="C240" t="n">
-        <v>73.75359344482422</v>
+        <v>73.75490570068359</v>
       </c>
       <c r="D240" t="n">
-        <v>283.3402099609375</v>
+        <v>283.34130859375</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>407.3750257492065</v>
+        <v>407.4102365970612</v>
       </c>
       <c r="B241" t="n">
-        <v>388.892822265625</v>
+        <v>388.8934631347656</v>
       </c>
       <c r="C241" t="n">
-        <v>73.75482177734375</v>
+        <v>73.75411987304688</v>
       </c>
       <c r="D241" t="n">
-        <v>295.0073852539062</v>
+        <v>295.0126953125</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>409.7758808135986</v>
+        <v>409.8106269836426</v>
       </c>
       <c r="B242" t="n">
-        <v>388.8860473632812</v>
+        <v>388.8828735351562</v>
       </c>
       <c r="C242" t="n">
-        <v>85.44438934326172</v>
+        <v>85.44119262695312</v>
       </c>
       <c r="D242" t="n">
-        <v>259.9476928710938</v>
+        <v>259.9453430175781</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>411.2054064273834</v>
+        <v>411.2408399581909</v>
       </c>
       <c r="B243" t="n">
-        <v>388.8947143554688</v>
+        <v>388.8942565917969</v>
       </c>
       <c r="C243" t="n">
-        <v>85.43795776367188</v>
+        <v>85.43785095214844</v>
       </c>
       <c r="D243" t="n">
-        <v>271.7029724121094</v>
+        <v>271.7100219726562</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>412.6383759975433</v>
+        <v>412.6768779754639</v>
       </c>
       <c r="B244" t="n">
-        <v>388.9056701660156</v>
+        <v>388.9082641601562</v>
       </c>
       <c r="C244" t="n">
-        <v>85.42784118652344</v>
+        <v>85.42925262451172</v>
       </c>
       <c r="D244" t="n">
-        <v>283.3630981445312</v>
+        <v>283.363525390625</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>414.0691764354706</v>
+        <v>414.1077058315277</v>
       </c>
       <c r="B245" t="n">
-        <v>388.9085083007812</v>
+        <v>388.9071960449219</v>
       </c>
       <c r="C245" t="n">
-        <v>85.42596435546875</v>
+        <v>85.426513671875</v>
       </c>
       <c r="D245" t="n">
-        <v>295.0487365722656</v>
+        <v>295.0488586425781</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>416.4698348045349</v>
+        <v>416.5091643333435</v>
       </c>
       <c r="B246" t="n">
-        <v>388.8792419433594</v>
+        <v>388.8784790039062</v>
       </c>
       <c r="C246" t="n">
-        <v>97.12802124023438</v>
+        <v>97.12529754638672</v>
       </c>
       <c r="D246" t="n">
-        <v>259.9356384277344</v>
+        <v>259.9295654296875</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>417.9034245014191</v>
+        <v>417.9409284591675</v>
       </c>
       <c r="B247" t="n">
-        <v>388.9106750488281</v>
+        <v>388.9111938476562</v>
       </c>
       <c r="C247" t="n">
-        <v>97.09529113769531</v>
+        <v>97.09795379638672</v>
       </c>
       <c r="D247" t="n">
-        <v>271.6922607421875</v>
+        <v>271.692138671875</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>419.3335855007172</v>
+        <v>419.3719582557678</v>
       </c>
       <c r="B248" t="n">
-        <v>388.8870239257812</v>
+        <v>388.8868103027344</v>
       </c>
       <c r="C248" t="n">
-        <v>97.08515930175781</v>
+        <v>97.08510589599609</v>
       </c>
       <c r="D248" t="n">
-        <v>283.3648376464844</v>
+        <v>283.3679809570312</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>420.7667634487152</v>
+        <v>420.8014762401581</v>
       </c>
       <c r="B249" t="n">
-        <v>388.8941345214844</v>
+        <v>388.8965759277344</v>
       </c>
       <c r="C249" t="n">
-        <v>97.08777618408203</v>
+        <v>97.08838653564453</v>
       </c>
       <c r="D249" t="n">
-        <v>295.0128479003906</v>
+        <v>295.0078125</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>423.1681332588196</v>
+        <v>423.200902223587</v>
       </c>
       <c r="B250" t="n">
-        <v>388.8801879882812</v>
+        <v>388.8775634765625</v>
       </c>
       <c r="C250" t="n">
-        <v>108.7809143066406</v>
+        <v>108.7861938476562</v>
       </c>
       <c r="D250" t="n">
-        <v>259.9287719726562</v>
+        <v>259.92578125</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>424.5987732410431</v>
+        <v>424.630640745163</v>
       </c>
       <c r="B251" t="n">
-        <v>388.9075622558594</v>
+        <v>388.9092407226562</v>
       </c>
       <c r="C251" t="n">
-        <v>108.7714080810547</v>
+        <v>108.763298034668</v>
       </c>
       <c r="D251" t="n">
-        <v>271.6932067871094</v>
+        <v>271.6870422363281</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>426.0280554294586</v>
+        <v>426.0593154430389</v>
       </c>
       <c r="B252" t="n">
-        <v>388.9026794433594</v>
+        <v>388.90283203125</v>
       </c>
       <c r="C252" t="n">
-        <v>108.7571716308594</v>
+        <v>108.755500793457</v>
       </c>
       <c r="D252" t="n">
-        <v>283.3767395019531</v>
+        <v>283.3805847167969</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>427.456983089447</v>
+        <v>427.4888319969177</v>
       </c>
       <c r="B253" t="n">
-        <v>388.9117126464844</v>
+        <v>388.9107055664062</v>
       </c>
       <c r="C253" t="n">
-        <v>108.7597045898438</v>
+        <v>108.7594223022461</v>
       </c>
       <c r="D253" t="n">
-        <v>295.0381164550781</v>
+        <v>295.0311889648438</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>430.893693447113</v>
+        <v>430.919037103653</v>
       </c>
       <c r="B254" t="n">
-        <v>400.0037841796875</v>
+        <v>400.0019226074219</v>
       </c>
       <c r="C254" t="n">
-        <v>38.7432746887207</v>
+        <v>38.73896408081055</v>
       </c>
       <c r="D254" t="n">
-        <v>259.9651489257812</v>
+        <v>259.96728515625</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>432.3254776000977</v>
+        <v>432.3545575141907</v>
       </c>
       <c r="B255" t="n">
-        <v>400.0114440917969</v>
+        <v>400.0133972167969</v>
       </c>
       <c r="C255" t="n">
-        <v>38.74897384643555</v>
+        <v>38.74833679199219</v>
       </c>
       <c r="D255" t="n">
-        <v>271.7026977539062</v>
+        <v>271.7070617675781</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>433.7583811283112</v>
+        <v>433.7867968082428</v>
       </c>
       <c r="B256" t="n">
-        <v>400.0227661132812</v>
+        <v>400.0211486816406</v>
       </c>
       <c r="C256" t="n">
-        <v>38.75833511352539</v>
+        <v>38.75983047485352</v>
       </c>
       <c r="D256" t="n">
-        <v>283.3657836914062</v>
+        <v>283.3644104003906</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>435.188952922821</v>
+        <v>435.2195143699646</v>
       </c>
       <c r="B257" t="n">
-        <v>400.0260009765625</v>
+        <v>400.0200500488281</v>
       </c>
       <c r="C257" t="n">
-        <v>38.76112747192383</v>
+        <v>38.76055145263672</v>
       </c>
       <c r="D257" t="n">
-        <v>295.0568237304688</v>
+        <v>295.051513671875</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>437.5876841545105</v>
+        <v>437.6212873458862</v>
       </c>
       <c r="B258" t="n">
-        <v>399.9919128417969</v>
+        <v>399.9905700683594</v>
       </c>
       <c r="C258" t="n">
-        <v>50.4633674621582</v>
+        <v>50.46236801147461</v>
       </c>
       <c r="D258" t="n">
-        <v>259.9322204589844</v>
+        <v>259.9342041015625</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>439.0170712471008</v>
+        <v>439.0495998859406</v>
       </c>
       <c r="B259" t="n">
-        <v>400.0167846679688</v>
+        <v>400.019775390625</v>
       </c>
       <c r="C259" t="n">
-        <v>50.42160034179688</v>
+        <v>50.42197799682617</v>
       </c>
       <c r="D259" t="n">
-        <v>271.6818237304688</v>
+        <v>271.6827392578125</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>440.4469673633575</v>
+        <v>440.4802098274231</v>
       </c>
       <c r="B260" t="n">
-        <v>400.0116577148438</v>
+        <v>400.01416015625</v>
       </c>
       <c r="C260" t="n">
-        <v>50.42095565795898</v>
+        <v>50.42127227783203</v>
       </c>
       <c r="D260" t="n">
-        <v>283.36962890625</v>
+        <v>283.3700256347656</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>441.8759517669678</v>
+        <v>441.9106857776642</v>
       </c>
       <c r="B261" t="n">
-        <v>400.0258178710938</v>
+        <v>400.0245361328125</v>
       </c>
       <c r="C261" t="n">
-        <v>50.42440414428711</v>
+        <v>50.42424011230469</v>
       </c>
       <c r="D261" t="n">
-        <v>295.0260009765625</v>
+        <v>295.02392578125</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>444.2770912647247</v>
+        <v>444.311710357666</v>
       </c>
       <c r="B262" t="n">
-        <v>400.0024108886719</v>
+        <v>400.0020141601562</v>
       </c>
       <c r="C262" t="n">
-        <v>62.11205673217773</v>
+        <v>62.11199569702148</v>
       </c>
       <c r="D262" t="n">
-        <v>259.95068359375</v>
+        <v>259.9516906738281</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>445.706693649292</v>
+        <v>445.7407128810883</v>
       </c>
       <c r="B263" t="n">
-        <v>400.0051574707031</v>
+        <v>400.0045166015625</v>
       </c>
       <c r="C263" t="n">
-        <v>62.10409927368164</v>
+        <v>62.10400390625</v>
       </c>
       <c r="D263" t="n">
-        <v>271.6864929199219</v>
+        <v>271.6897888183594</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>447.136058807373</v>
+        <v>447.1711902618408</v>
       </c>
       <c r="B264" t="n">
-        <v>400.0133666992188</v>
+        <v>400.0173950195312</v>
       </c>
       <c r="C264" t="n">
-        <v>62.0936393737793</v>
+        <v>62.09426498413086</v>
       </c>
       <c r="D264" t="n">
-        <v>283.3592529296875</v>
+        <v>283.3577270507812</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>448.5657362937927</v>
+        <v>448.5997228622437</v>
       </c>
       <c r="B265" t="n">
-        <v>400.0081176757812</v>
+        <v>400.0117797851562</v>
       </c>
       <c r="C265" t="n">
-        <v>62.09030914306641</v>
+        <v>62.09087753295898</v>
       </c>
       <c r="D265" t="n">
-        <v>295.0166931152344</v>
+        <v>295.0262756347656</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>450.9669938087463</v>
+        <v>451.0007140636444</v>
       </c>
       <c r="B266" t="n">
-        <v>399.9981994628906</v>
+        <v>399.999267578125</v>
       </c>
       <c r="C266" t="n">
-        <v>73.79892730712891</v>
+        <v>73.79489135742188</v>
       </c>
       <c r="D266" t="n">
-        <v>259.9361877441406</v>
+        <v>259.9258728027344</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>452.3970432281494</v>
+        <v>452.4302685260773</v>
       </c>
       <c r="B267" t="n">
-        <v>400.0020446777344</v>
+        <v>400.0025634765625</v>
       </c>
       <c r="C267" t="n">
-        <v>73.75392913818359</v>
+        <v>73.75825500488281</v>
       </c>
       <c r="D267" t="n">
-        <v>271.6848754882812</v>
+        <v>271.6830749511719</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>453.8280124664307</v>
+        <v>453.8608572483063</v>
       </c>
       <c r="B268" t="n">
-        <v>400.0162048339844</v>
+        <v>400.0189819335938</v>
       </c>
       <c r="C268" t="n">
-        <v>73.75484466552734</v>
+        <v>73.75535583496094</v>
       </c>
       <c r="D268" t="n">
-        <v>283.3814086914062</v>
+        <v>283.3848266601562</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>455.2560968399048</v>
+        <v>455.2947685718536</v>
       </c>
       <c r="B269" t="n">
-        <v>400.0175476074219</v>
+        <v>400.0190124511719</v>
       </c>
       <c r="C269" t="n">
-        <v>73.75678253173828</v>
+        <v>73.75705718994141</v>
       </c>
       <c r="D269" t="n">
-        <v>295.0334777832031</v>
+        <v>295.0386047363281</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>457.6588079929352</v>
+        <v>457.700902223587</v>
       </c>
       <c r="B270" t="n">
-        <v>400.0099182128906</v>
+        <v>400.0093994140625</v>
       </c>
       <c r="C270" t="n">
-        <v>85.45716857910156</v>
+        <v>85.46047973632812</v>
       </c>
       <c r="D270" t="n">
-        <v>259.93994140625</v>
+        <v>259.9422912597656</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>459.0887718200684</v>
+        <v>459.1305129528046</v>
       </c>
       <c r="B271" t="n">
-        <v>400.0188598632812</v>
+        <v>400.0187683105469</v>
       </c>
       <c r="C271" t="n">
-        <v>85.43254089355469</v>
+        <v>85.42738342285156</v>
       </c>
       <c r="D271" t="n">
-        <v>271.6969299316406</v>
+        <v>271.6955871582031</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>460.5178060531616</v>
+        <v>460.5603952407837</v>
       </c>
       <c r="B272" t="n">
-        <v>400.0025024414062</v>
+        <v>399.9997863769531</v>
       </c>
       <c r="C272" t="n">
-        <v>85.41963195800781</v>
+        <v>85.41905212402344</v>
       </c>
       <c r="D272" t="n">
-        <v>283.3762512207031</v>
+        <v>283.3751831054688</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>461.9499957561493</v>
+        <v>461.9905865192413</v>
       </c>
       <c r="B273" t="n">
-        <v>400.0073852539062</v>
+        <v>400.009033203125</v>
       </c>
       <c r="C273" t="n">
-        <v>85.42153167724609</v>
+        <v>85.42273712158203</v>
       </c>
       <c r="D273" t="n">
-        <v>295.0081176757812</v>
+        <v>295.008544921875</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>464.3485577106476</v>
+        <v>464.3894336223602</v>
       </c>
       <c r="B274" t="n">
-        <v>399.9960632324219</v>
+        <v>399.99169921875</v>
       </c>
       <c r="C274" t="n">
-        <v>97.11770629882812</v>
+        <v>97.12184906005859</v>
       </c>
       <c r="D274" t="n">
-        <v>259.9352416992188</v>
+        <v>259.9359741210938</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>465.7787477970123</v>
+        <v>465.8171615600586</v>
       </c>
       <c r="B275" t="n">
-        <v>399.9971618652344</v>
+        <v>399.9991149902344</v>
       </c>
       <c r="C275" t="n">
-        <v>97.10063934326172</v>
+        <v>97.09504699707031</v>
       </c>
       <c r="D275" t="n">
-        <v>271.67919921875</v>
+        <v>271.6854553222656</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>467.2078592777252</v>
+        <v>467.2504382133484</v>
       </c>
       <c r="B276" t="n">
-        <v>400.0263671875</v>
+        <v>400.0274353027344</v>
       </c>
       <c r="C276" t="n">
-        <v>97.09299468994141</v>
+        <v>97.09064483642578</v>
       </c>
       <c r="D276" t="n">
-        <v>283.3650817871094</v>
+        <v>283.362548828125</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>468.6403620243073</v>
+        <v>468.6807405948639</v>
       </c>
       <c r="B277" t="n">
-        <v>400.0113525390625</v>
+        <v>400.0115051269531</v>
       </c>
       <c r="C277" t="n">
-        <v>97.08934783935547</v>
+        <v>97.08852386474609</v>
       </c>
       <c r="D277" t="n">
-        <v>295.0419616699219</v>
+        <v>295.0443420410156</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>471.0413200855255</v>
+        <v>471.0802938938141</v>
       </c>
       <c r="B278" t="n">
-        <v>400.0019836425781</v>
+        <v>400.0032348632812</v>
       </c>
       <c r="C278" t="n">
-        <v>108.7967071533203</v>
+        <v>108.7952880859375</v>
       </c>
       <c r="D278" t="n">
-        <v>259.9403076171875</v>
+        <v>259.9375610351562</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>472.4699909687042</v>
+        <v>472.5098628997803</v>
       </c>
       <c r="B279" t="n">
-        <v>400.020263671875</v>
+        <v>400.02099609375</v>
       </c>
       <c r="C279" t="n">
-        <v>108.7568435668945</v>
+        <v>108.7570419311523</v>
       </c>
       <c r="D279" t="n">
-        <v>271.6944274902344</v>
+        <v>271.6878051757812</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>473.8996348381042</v>
+        <v>473.9393711090088</v>
       </c>
       <c r="B280" t="n">
-        <v>400.0095825195312</v>
+        <v>400.0124816894531</v>
       </c>
       <c r="C280" t="n">
-        <v>108.7539367675781</v>
+        <v>108.7547225952148</v>
       </c>
       <c r="D280" t="n">
-        <v>283.3435668945312</v>
+        <v>283.3452758789062</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>475.3275535106659</v>
+        <v>475.36780834198</v>
       </c>
       <c r="B281" t="n">
-        <v>400.0016174316406</v>
+        <v>400.0023803710938</v>
       </c>
       <c r="C281" t="n">
-        <v>108.753532409668</v>
+        <v>108.7537384033203</v>
       </c>
       <c r="D281" t="n">
-        <v>295.0163879394531</v>
+        <v>295.0186462402344</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Robot_XYZ.xlsx
+++ b/Results/Robot_XYZ.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>z</t>
+          <t>y</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -451,3928 +451,3928 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>z</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.668930053710938e-06</v>
+        <v>1.9073486328125e-06</v>
       </c>
       <c r="B2" t="n">
-        <v>299.9862365722656</v>
+        <v>-50.01760864257812</v>
       </c>
       <c r="C2" t="n">
-        <v>38.73059844970703</v>
+        <v>-35.00609588623047</v>
       </c>
       <c r="D2" t="n">
-        <v>259.9827270507812</v>
+        <v>-15.01861572265625</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.428916931152344</v>
+        <v>1.430945158004761</v>
       </c>
       <c r="B3" t="n">
-        <v>300.0135192871094</v>
+        <v>-49.9832763671875</v>
       </c>
       <c r="C3" t="n">
-        <v>38.75971221923828</v>
+        <v>-34.99764633178711</v>
       </c>
       <c r="D3" t="n">
-        <v>271.703857421875</v>
+        <v>-3.296661376953125</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.857269048690796</v>
+        <v>2.861461639404297</v>
       </c>
       <c r="B4" t="n">
-        <v>300.0259399414062</v>
+        <v>-49.97186279296875</v>
       </c>
       <c r="C4" t="n">
-        <v>38.76319122314453</v>
+        <v>-34.98964309692383</v>
       </c>
       <c r="D4" t="n">
-        <v>283.3597106933594</v>
+        <v>8.363006591796875</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4.285760641098022</v>
+        <v>4.292459726333618</v>
       </c>
       <c r="B5" t="n">
-        <v>300.0090637207031</v>
+        <v>-49.98916625976562</v>
       </c>
       <c r="C5" t="n">
-        <v>38.76038360595703</v>
+        <v>-34.99063491821289</v>
       </c>
       <c r="D5" t="n">
-        <v>295.0316162109375</v>
+        <v>20.02859497070312</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6.684832096099854</v>
+        <v>6.693392753601074</v>
       </c>
       <c r="B6" t="n">
-        <v>300.0025329589844</v>
+        <v>-49.9981689453125</v>
       </c>
       <c r="C6" t="n">
-        <v>50.44277572631836</v>
+        <v>-23.30481338500977</v>
       </c>
       <c r="D6" t="n">
-        <v>259.9562377929688</v>
+        <v>-15.04879760742188</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8.115867376327515</v>
+        <v>8.122939586639404</v>
       </c>
       <c r="B7" t="n">
-        <v>300.0106811523438</v>
+        <v>-49.99191284179688</v>
       </c>
       <c r="C7" t="n">
-        <v>50.43278503417969</v>
+        <v>-23.31954574584961</v>
       </c>
       <c r="D7" t="n">
-        <v>271.6791076660156</v>
+        <v>-3.320465087890625</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>9.543721914291382</v>
+        <v>9.553781747817993</v>
       </c>
       <c r="B8" t="n">
-        <v>300.0068054199219</v>
+        <v>-49.99078369140625</v>
       </c>
       <c r="C8" t="n">
-        <v>50.42266082763672</v>
+        <v>-23.32693099975586</v>
       </c>
       <c r="D8" t="n">
-        <v>283.3583068847656</v>
+        <v>8.365509033203125</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>10.97275257110596</v>
+        <v>10.98259305953979</v>
       </c>
       <c r="B9" t="n">
-        <v>300.0028991699219</v>
+        <v>-50.00131225585938</v>
       </c>
       <c r="C9" t="n">
-        <v>50.42200469970703</v>
+        <v>-23.32870101928711</v>
       </c>
       <c r="D9" t="n">
-        <v>295.0065612792969</v>
+        <v>20.00949096679688</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>13.37311673164368</v>
+        <v>13.38195395469666</v>
       </c>
       <c r="B10" t="n">
-        <v>300.0028991699219</v>
+        <v>-49.999755859375</v>
       </c>
       <c r="C10" t="n">
-        <v>62.10904312133789</v>
+        <v>-11.63574600219727</v>
       </c>
       <c r="D10" t="n">
-        <v>259.9593811035156</v>
+        <v>-15.04446411132812</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>14.8038113117218</v>
+        <v>14.81369805335999</v>
       </c>
       <c r="B11" t="n">
-        <v>300.0048217773438</v>
+        <v>-49.99301147460938</v>
       </c>
       <c r="C11" t="n">
-        <v>62.09535980224609</v>
+        <v>-11.66059494018555</v>
       </c>
       <c r="D11" t="n">
-        <v>271.6768798828125</v>
+        <v>-3.326934814453125</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>16.24448871612549</v>
+        <v>16.24658274650574</v>
       </c>
       <c r="B12" t="n">
-        <v>300.0155334472656</v>
+        <v>-49.98385620117188</v>
       </c>
       <c r="C12" t="n">
-        <v>62.09181213378906</v>
+        <v>-11.65934371948242</v>
       </c>
       <c r="D12" t="n">
-        <v>283.3680114746094</v>
+        <v>8.37255859375</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>17.67296004295349</v>
+        <v>17.67563581466675</v>
       </c>
       <c r="B13" t="n">
-        <v>300.0028991699219</v>
+        <v>-49.99612426757812</v>
       </c>
       <c r="C13" t="n">
-        <v>62.08919906616211</v>
+        <v>-11.66123962402344</v>
       </c>
       <c r="D13" t="n">
-        <v>295.0114135742188</v>
+        <v>20.01467895507812</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>20.07643485069275</v>
+        <v>20.0756311416626</v>
       </c>
       <c r="B14" t="n">
-        <v>299.9857788085938</v>
+        <v>-50.01101684570312</v>
       </c>
       <c r="C14" t="n">
-        <v>73.78208160400391</v>
+        <v>0.0218048095703125</v>
       </c>
       <c r="D14" t="n">
-        <v>259.9368286132812</v>
+        <v>-15.06826782226562</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>21.50688886642456</v>
+        <v>21.50758934020996</v>
       </c>
       <c r="B15" t="n">
-        <v>300.0257263183594</v>
+        <v>-49.97793579101562</v>
       </c>
       <c r="C15" t="n">
-        <v>73.761962890625</v>
+        <v>0.0208282470703125</v>
       </c>
       <c r="D15" t="n">
-        <v>271.7055358886719</v>
+        <v>-3.28814697265625</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>22.93645167350769</v>
+        <v>22.94158577919006</v>
       </c>
       <c r="B16" t="n">
-        <v>300.0166931152344</v>
+        <v>-49.98727416992188</v>
       </c>
       <c r="C16" t="n">
-        <v>73.75713348388672</v>
+        <v>0.0094146728515625</v>
       </c>
       <c r="D16" t="n">
-        <v>283.3704223632812</v>
+        <v>8.3631591796875</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>24.3672730922699</v>
+        <v>24.37155556678772</v>
       </c>
       <c r="B17" t="n">
-        <v>300.0173034667969</v>
+        <v>-49.9906005859375</v>
       </c>
       <c r="C17" t="n">
-        <v>73.7579345703125</v>
+        <v>0.00730133056640625</v>
       </c>
       <c r="D17" t="n">
-        <v>295.0317993164062</v>
+        <v>20.03384399414062</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>26.76645827293396</v>
+        <v>26.77234816551208</v>
       </c>
       <c r="B18" t="n">
-        <v>299.991943359375</v>
+        <v>-50.0032958984375</v>
       </c>
       <c r="C18" t="n">
-        <v>85.4560546875</v>
+        <v>11.69215393066406</v>
       </c>
       <c r="D18" t="n">
-        <v>259.9533386230469</v>
+        <v>-15.05307006835938</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>28.19614410400391</v>
+        <v>28.20450186729431</v>
       </c>
       <c r="B19" t="n">
-        <v>300.0162963867188</v>
+        <v>-49.98193359375</v>
       </c>
       <c r="C19" t="n">
-        <v>85.42449951171875</v>
+        <v>11.68694305419922</v>
       </c>
       <c r="D19" t="n">
-        <v>271.6958312988281</v>
+        <v>-3.303375244140625</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>29.62460517883301</v>
+        <v>29.6383318901062</v>
       </c>
       <c r="B20" t="n">
-        <v>300.019775390625</v>
+        <v>-49.99191284179688</v>
       </c>
       <c r="C20" t="n">
-        <v>85.42481994628906</v>
+        <v>11.67348480224609</v>
       </c>
       <c r="D20" t="n">
-        <v>283.3697204589844</v>
+        <v>8.365264892578125</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>31.05373501777649</v>
+        <v>31.06095504760742</v>
       </c>
       <c r="B21" t="n">
-        <v>300.0210571289062</v>
+        <v>-49.97897338867188</v>
       </c>
       <c r="C21" t="n">
-        <v>85.42584991455078</v>
+        <v>11.676513671875</v>
       </c>
       <c r="D21" t="n">
-        <v>295.0318908691406</v>
+        <v>20.02334594726562</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>33.45375490188599</v>
+        <v>33.46089291572571</v>
       </c>
       <c r="B22" t="n">
-        <v>299.9877624511719</v>
+        <v>-50.01373291015625</v>
       </c>
       <c r="C22" t="n">
-        <v>97.11030578613281</v>
+        <v>23.36661529541016</v>
       </c>
       <c r="D22" t="n">
-        <v>259.9336547851562</v>
+        <v>-15.06890869140625</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>34.88500285148621</v>
+        <v>34.89298415184021</v>
       </c>
       <c r="B23" t="n">
-        <v>300.0214538574219</v>
+        <v>-49.97711181640625</v>
       </c>
       <c r="C23" t="n">
-        <v>97.10222625732422</v>
+        <v>23.3438720703125</v>
       </c>
       <c r="D23" t="n">
-        <v>271.6960754394531</v>
+        <v>-3.30267333984375</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>36.31599879264832</v>
+        <v>36.32285833358765</v>
       </c>
       <c r="B24" t="n">
-        <v>300.01220703125</v>
+        <v>-49.99282836914062</v>
       </c>
       <c r="C24" t="n">
-        <v>97.09042358398438</v>
+        <v>23.33811187744141</v>
       </c>
       <c r="D24" t="n">
-        <v>283.3561401367188</v>
+        <v>8.363189697265625</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>37.74695229530334</v>
+        <v>37.75201821327209</v>
       </c>
       <c r="B25" t="n">
-        <v>300.0015869140625</v>
+        <v>-49.99594116210938</v>
       </c>
       <c r="C25" t="n">
-        <v>97.08765411376953</v>
+        <v>23.33846282958984</v>
       </c>
       <c r="D25" t="n">
-        <v>295.0034790039062</v>
+        <v>20.00357055664062</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>40.14601898193359</v>
+        <v>40.15205121040344</v>
       </c>
       <c r="B26" t="n">
-        <v>299.9960327148438</v>
+        <v>-50.01138305664062</v>
       </c>
       <c r="C26" t="n">
-        <v>108.7721252441406</v>
+        <v>35.02986145019531</v>
       </c>
       <c r="D26" t="n">
-        <v>259.9510192871094</v>
+        <v>-15.04440307617188</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>41.57465887069702</v>
+        <v>41.58355402946472</v>
       </c>
       <c r="B27" t="n">
-        <v>300.0154113769531</v>
+        <v>-49.98129272460938</v>
       </c>
       <c r="C27" t="n">
-        <v>108.7708206176758</v>
+        <v>35.01437377929688</v>
       </c>
       <c r="D27" t="n">
-        <v>271.7012634277344</v>
+        <v>-3.298095703125</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>43.00401329994202</v>
+        <v>43.01481986045837</v>
       </c>
       <c r="B28" t="n">
-        <v>300.0108337402344</v>
+        <v>-49.99163818359375</v>
       </c>
       <c r="C28" t="n">
-        <v>108.7594375610352</v>
+        <v>35.00506591796875</v>
       </c>
       <c r="D28" t="n">
-        <v>283.3529052734375</v>
+        <v>8.348175048828125</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>44.43446230888367</v>
+        <v>44.43667507171631</v>
       </c>
       <c r="B29" t="n">
-        <v>300.0043334960938</v>
+        <v>-49.99383544921875</v>
       </c>
       <c r="C29" t="n">
-        <v>108.7556838989258</v>
+        <v>35.00495910644531</v>
       </c>
       <c r="D29" t="n">
-        <v>295.0298461914062</v>
+        <v>20.03253173828125</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>47.86475944519043</v>
+        <v>47.87045526504517</v>
       </c>
       <c r="B30" t="n">
-        <v>311.1217956542969</v>
+        <v>-38.88143920898438</v>
       </c>
       <c r="C30" t="n">
-        <v>38.74184799194336</v>
+        <v>-35.01049041748047</v>
       </c>
       <c r="D30" t="n">
-        <v>259.959228515625</v>
+        <v>-15.03631591796875</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>49.29454684257507</v>
+        <v>49.30093383789062</v>
       </c>
       <c r="B31" t="n">
-        <v>311.1162414550781</v>
+        <v>-38.87979125976562</v>
       </c>
       <c r="C31" t="n">
-        <v>38.74827194213867</v>
+        <v>-35.00059127807617</v>
       </c>
       <c r="D31" t="n">
-        <v>271.6913452148438</v>
+        <v>-3.303375244140625</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>50.73216104507446</v>
+        <v>50.73279929161072</v>
       </c>
       <c r="B32" t="n">
-        <v>311.1386108398438</v>
+        <v>-38.86309814453125</v>
       </c>
       <c r="C32" t="n">
-        <v>38.76139831542969</v>
+        <v>-34.98816680908203</v>
       </c>
       <c r="D32" t="n">
-        <v>283.3683166503906</v>
+        <v>8.362396240234375</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>52.16095757484436</v>
+        <v>52.16389632225037</v>
       </c>
       <c r="B33" t="n">
-        <v>311.1262512207031</v>
+        <v>-38.87359619140625</v>
       </c>
       <c r="C33" t="n">
-        <v>38.7605094909668</v>
+        <v>-34.98947525024414</v>
       </c>
       <c r="D33" t="n">
-        <v>295.0435485839844</v>
+        <v>20.04153442382812</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>54.5615451335907</v>
+        <v>54.56644892692566</v>
       </c>
       <c r="B34" t="n">
-        <v>311.1118469238281</v>
+        <v>-38.88888549804688</v>
       </c>
       <c r="C34" t="n">
-        <v>50.43826675415039</v>
+        <v>-23.30009078979492</v>
       </c>
       <c r="D34" t="n">
-        <v>259.9354248046875</v>
+        <v>-15.06195068359375</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>55.99714517593384</v>
+        <v>55.99859762191772</v>
       </c>
       <c r="B35" t="n">
-        <v>311.1196594238281</v>
+        <v>-38.88543701171875</v>
       </c>
       <c r="C35" t="n">
-        <v>50.43431091308594</v>
+        <v>-23.32501220703125</v>
       </c>
       <c r="D35" t="n">
-        <v>271.6859741210938</v>
+        <v>-3.30377197265625</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>57.43197154998779</v>
+        <v>57.43155550956726</v>
       </c>
       <c r="B36" t="n">
-        <v>311.1275939941406</v>
+        <v>-38.87396240234375</v>
       </c>
       <c r="C36" t="n">
-        <v>50.42709732055664</v>
+        <v>-23.32707214355469</v>
       </c>
       <c r="D36" t="n">
-        <v>283.3668212890625</v>
+        <v>8.37200927734375</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>58.86250185966492</v>
+        <v>58.86422777175903</v>
       </c>
       <c r="B37" t="n">
-        <v>311.1205444335938</v>
+        <v>-38.8812255859375</v>
       </c>
       <c r="C37" t="n">
-        <v>50.42465209960938</v>
+        <v>-23.32693862915039</v>
       </c>
       <c r="D37" t="n">
-        <v>295.011962890625</v>
+        <v>20.02633666992188</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>61.26757097244263</v>
+        <v>61.26627135276794</v>
       </c>
       <c r="B38" t="n">
-        <v>311.1110229492188</v>
+        <v>-38.89260864257812</v>
       </c>
       <c r="C38" t="n">
-        <v>62.10557556152344</v>
+        <v>-11.63455581665039</v>
       </c>
       <c r="D38" t="n">
-        <v>259.9345703125</v>
+        <v>-15.05892944335938</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>62.69612145423889</v>
+        <v>62.69723558425903</v>
       </c>
       <c r="B39" t="n">
-        <v>311.1170959472656</v>
+        <v>-38.88552856445312</v>
       </c>
       <c r="C39" t="n">
-        <v>62.09619522094727</v>
+        <v>-11.6616096496582</v>
       </c>
       <c r="D39" t="n">
-        <v>271.6877746582031</v>
+        <v>-3.307098388671875</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>64.12660765647888</v>
+        <v>64.12716698646545</v>
       </c>
       <c r="B40" t="n">
-        <v>311.1312866210938</v>
+        <v>-38.86868286132812</v>
       </c>
       <c r="C40" t="n">
-        <v>62.09240341186523</v>
+        <v>-11.65890884399414</v>
       </c>
       <c r="D40" t="n">
-        <v>283.3786315917969</v>
+        <v>8.382598876953125</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>65.55521011352539</v>
+        <v>65.56299781799316</v>
       </c>
       <c r="B41" t="n">
-        <v>311.1288146972656</v>
+        <v>-38.8734130859375</v>
       </c>
       <c r="C41" t="n">
-        <v>62.09191513061523</v>
+        <v>-11.65853118896484</v>
       </c>
       <c r="D41" t="n">
-        <v>295.0294799804688</v>
+        <v>20.04458618164062</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>67.95532321929932</v>
+        <v>67.96776628494263</v>
       </c>
       <c r="B42" t="n">
-        <v>311.1015319824219</v>
+        <v>-38.89910888671875</v>
       </c>
       <c r="C42" t="n">
-        <v>73.78115844726562</v>
+        <v>0.01755523681640625</v>
       </c>
       <c r="D42" t="n">
-        <v>259.9446411132812</v>
+        <v>-15.0560302734375</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>69.38890433311462</v>
+        <v>69.4058792591095</v>
       </c>
       <c r="B43" t="n">
-        <v>311.1354675292969</v>
+        <v>-38.86883544921875</v>
       </c>
       <c r="C43" t="n">
-        <v>73.76633453369141</v>
+        <v>0.02002716064453125</v>
       </c>
       <c r="D43" t="n">
-        <v>271.7046813964844</v>
+        <v>-3.29864501953125</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>70.81758141517639</v>
+        <v>70.83712482452393</v>
       </c>
       <c r="B44" t="n">
-        <v>311.1255187988281</v>
+        <v>-38.87844848632812</v>
       </c>
       <c r="C44" t="n">
-        <v>73.75657653808594</v>
+        <v>0.010345458984375</v>
       </c>
       <c r="D44" t="n">
-        <v>283.3472595214844</v>
+        <v>8.343902587890625</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>72.24990701675415</v>
+        <v>72.27720546722412</v>
       </c>
       <c r="B45" t="n">
-        <v>311.1075744628906</v>
+        <v>-38.8895263671875</v>
       </c>
       <c r="C45" t="n">
-        <v>73.75299835205078</v>
+        <v>0.00569915771484375</v>
       </c>
       <c r="D45" t="n">
-        <v>295.0196533203125</v>
+        <v>20.01910400390625</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>74.6518771648407</v>
+        <v>74.67728710174561</v>
       </c>
       <c r="B46" t="n">
-        <v>311.1148071289062</v>
+        <v>-38.89077758789062</v>
       </c>
       <c r="C46" t="n">
-        <v>85.43924713134766</v>
+        <v>11.70277404785156</v>
       </c>
       <c r="D46" t="n">
-        <v>259.9537963867188</v>
+        <v>-15.0435791015625</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>76.08116149902344</v>
+        <v>76.10904574394226</v>
       </c>
       <c r="B47" t="n">
-        <v>311.12841796875</v>
+        <v>-38.86514282226562</v>
       </c>
       <c r="C47" t="n">
-        <v>85.43476867675781</v>
+        <v>11.67626190185547</v>
       </c>
       <c r="D47" t="n">
-        <v>271.7007446289062</v>
+        <v>-3.298583984375</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>77.51007270812988</v>
+        <v>77.55122685432434</v>
       </c>
       <c r="B48" t="n">
-        <v>311.115966796875</v>
+        <v>-38.88308715820312</v>
       </c>
       <c r="C48" t="n">
-        <v>85.42313385009766</v>
+        <v>11.67133331298828</v>
       </c>
       <c r="D48" t="n">
-        <v>283.3424072265625</v>
+        <v>8.338409423828125</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>78.94341635704041</v>
+        <v>78.98124241828918</v>
       </c>
       <c r="B49" t="n">
-        <v>311.1071166992188</v>
+        <v>-38.89230346679688</v>
       </c>
       <c r="C49" t="n">
-        <v>85.42002105712891</v>
+        <v>11.67017364501953</v>
       </c>
       <c r="D49" t="n">
-        <v>295.0228881835938</v>
+        <v>20.02957153320312</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>81.34459733963013</v>
+        <v>81.38245940208435</v>
       </c>
       <c r="B50" t="n">
-        <v>311.0987243652344</v>
+        <v>-38.89971923828125</v>
       </c>
       <c r="C50" t="n">
-        <v>97.10687255859375</v>
+        <v>23.36293792724609</v>
       </c>
       <c r="D50" t="n">
-        <v>259.9342041015625</v>
+        <v>-15.0711669921875</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>82.78233551979065</v>
+        <v>82.81582117080688</v>
       </c>
       <c r="B51" t="n">
-        <v>311.1220092773438</v>
+        <v>-38.87728881835938</v>
       </c>
       <c r="C51" t="n">
-        <v>97.10435485839844</v>
+        <v>23.34828186035156</v>
       </c>
       <c r="D51" t="n">
-        <v>271.6882934570312</v>
+        <v>-3.317047119140625</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>84.21167135238647</v>
+        <v>84.24942469596863</v>
       </c>
       <c r="B52" t="n">
-        <v>311.1332702636719</v>
+        <v>-38.8677978515625</v>
       </c>
       <c r="C52" t="n">
-        <v>97.09458923339844</v>
+        <v>23.34217071533203</v>
       </c>
       <c r="D52" t="n">
-        <v>283.3697509765625</v>
+        <v>8.379791259765625</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>85.64093542098999</v>
+        <v>85.68070197105408</v>
       </c>
       <c r="B53" t="n">
-        <v>311.1270141601562</v>
+        <v>-38.87069702148438</v>
       </c>
       <c r="C53" t="n">
-        <v>97.09194183349609</v>
+        <v>23.34195709228516</v>
       </c>
       <c r="D53" t="n">
-        <v>295.0475463867188</v>
+        <v>20.03945922851562</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>88.03936433792114</v>
+        <v>88.07168364524841</v>
       </c>
       <c r="B54" t="n">
-        <v>311.1018371582031</v>
+        <v>-38.89373779296875</v>
       </c>
       <c r="C54" t="n">
-        <v>108.7837066650391</v>
+        <v>35.01667022705078</v>
       </c>
       <c r="D54" t="n">
-        <v>259.9434204101562</v>
+        <v>-15.05923461914062</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>89.47067785263062</v>
+        <v>89.5012571811676</v>
       </c>
       <c r="B55" t="n">
-        <v>311.1330261230469</v>
+        <v>-38.8697509765625</v>
       </c>
       <c r="C55" t="n">
-        <v>108.7617340087891</v>
+        <v>35.02077484130859</v>
       </c>
       <c r="D55" t="n">
-        <v>271.700927734375</v>
+        <v>-3.305816650390625</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>90.90041041374207</v>
+        <v>90.93370795249939</v>
       </c>
       <c r="B56" t="n">
-        <v>311.1275024414062</v>
+        <v>-38.8719482421875</v>
       </c>
       <c r="C56" t="n">
-        <v>108.7569580078125</v>
+        <v>35.01286315917969</v>
       </c>
       <c r="D56" t="n">
-        <v>283.3467407226562</v>
+        <v>8.347442626953125</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>92.33007884025574</v>
+        <v>92.36882162094116</v>
       </c>
       <c r="B57" t="n">
-        <v>311.1289978027344</v>
+        <v>-38.87570190429688</v>
       </c>
       <c r="C57" t="n">
-        <v>108.758903503418</v>
+        <v>35.01011657714844</v>
       </c>
       <c r="D57" t="n">
-        <v>295.0573425292969</v>
+        <v>20.05520629882812</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>95.76224780082703</v>
+        <v>95.8015763759613</v>
       </c>
       <c r="B58" t="n">
-        <v>322.2247619628906</v>
+        <v>-27.77261352539062</v>
       </c>
       <c r="C58" t="n">
-        <v>38.72833633422852</v>
+        <v>-35.01866912841797</v>
       </c>
       <c r="D58" t="n">
-        <v>259.9492492675781</v>
+        <v>-15.05740356445312</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>97.19126057624817</v>
+        <v>97.2315788269043</v>
       </c>
       <c r="B59" t="n">
-        <v>322.2467956542969</v>
+        <v>-27.75531005859375</v>
       </c>
       <c r="C59" t="n">
-        <v>38.75506973266602</v>
+        <v>-34.9971923828125</v>
       </c>
       <c r="D59" t="n">
-        <v>271.6968383789062</v>
+        <v>-3.30914306640625</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>98.62167692184448</v>
+        <v>98.66167640686035</v>
       </c>
       <c r="B60" t="n">
-        <v>322.2353820800781</v>
+        <v>-27.7647705078125</v>
       </c>
       <c r="C60" t="n">
-        <v>38.76172256469727</v>
+        <v>-34.98829650878906</v>
       </c>
       <c r="D60" t="n">
-        <v>283.3536071777344</v>
+        <v>8.3582763671875</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>100.0494134426117</v>
+        <v>100.0909113883972</v>
       </c>
       <c r="B61" t="n">
-        <v>322.2354431152344</v>
+        <v>-27.76309204101562</v>
       </c>
       <c r="C61" t="n">
-        <v>38.76106262207031</v>
+        <v>-34.98809432983398</v>
       </c>
       <c r="D61" t="n">
-        <v>295.0462646484375</v>
+        <v>20.0382080078125</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>102.4487562179565</v>
+        <v>102.493216753006</v>
       </c>
       <c r="B62" t="n">
-        <v>322.2196655273438</v>
+        <v>-27.78125</v>
       </c>
       <c r="C62" t="n">
-        <v>50.44601440429688</v>
+        <v>-23.3075065612793</v>
       </c>
       <c r="D62" t="n">
-        <v>259.9522399902344</v>
+        <v>-15.04974365234375</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>103.8787388801575</v>
+        <v>103.9242560863495</v>
       </c>
       <c r="B63" t="n">
-        <v>322.2423706054688</v>
+        <v>-27.75888061523438</v>
       </c>
       <c r="C63" t="n">
-        <v>50.43605804443359</v>
+        <v>-23.3134651184082</v>
       </c>
       <c r="D63" t="n">
-        <v>271.7108764648438</v>
+        <v>-3.293792724609375</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>105.3085486888885</v>
+        <v>105.3465292453766</v>
       </c>
       <c r="B64" t="n">
-        <v>322.2288818359375</v>
+        <v>-27.77194213867188</v>
       </c>
       <c r="C64" t="n">
-        <v>50.42246246337891</v>
+        <v>-23.32631683349609</v>
       </c>
       <c r="D64" t="n">
-        <v>283.3479614257812</v>
+        <v>8.34661865234375</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>106.7381932735443</v>
+        <v>106.7774896621704</v>
       </c>
       <c r="B65" t="n">
-        <v>322.2254028320312</v>
+        <v>-27.77606201171875</v>
       </c>
       <c r="C65" t="n">
-        <v>50.42191696166992</v>
+        <v>-23.32763671875</v>
       </c>
       <c r="D65" t="n">
-        <v>295.0278015136719</v>
+        <v>20.03720092773438</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>109.136846780777</v>
+        <v>109.1821925640106</v>
       </c>
       <c r="B66" t="n">
-        <v>322.2202758789062</v>
+        <v>-27.78204345703125</v>
       </c>
       <c r="C66" t="n">
-        <v>62.10736083984375</v>
+        <v>-11.62667083740234</v>
       </c>
       <c r="D66" t="n">
-        <v>259.942626953125</v>
+        <v>-15.062744140625</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>110.5661509037018</v>
+        <v>110.6122467517853</v>
       </c>
       <c r="B67" t="n">
-        <v>322.245361328125</v>
+        <v>-27.75363159179688</v>
       </c>
       <c r="C67" t="n">
-        <v>62.10193634033203</v>
+        <v>-11.65812301635742</v>
       </c>
       <c r="D67" t="n">
-        <v>271.7019348144531</v>
+        <v>-3.3040771484375</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>111.9955747127533</v>
+        <v>112.0419590473175</v>
       </c>
       <c r="B68" t="n">
-        <v>322.2408142089844</v>
+        <v>-27.75640869140625</v>
       </c>
       <c r="C68" t="n">
-        <v>62.09217071533203</v>
+        <v>-11.65866088867188</v>
       </c>
       <c r="D68" t="n">
-        <v>283.3479309082031</v>
+        <v>8.3499755859375</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>113.4264326095581</v>
+        <v>113.4764997959137</v>
       </c>
       <c r="B69" t="n">
-        <v>322.2349243164062</v>
+        <v>-27.76492309570312</v>
       </c>
       <c r="C69" t="n">
-        <v>62.09103393554688</v>
+        <v>-11.65961837768555</v>
       </c>
       <c r="D69" t="n">
-        <v>295.0468139648438</v>
+        <v>20.0474853515625</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>115.8297955989838</v>
+        <v>115.8769171237946</v>
       </c>
       <c r="B70" t="n">
-        <v>322.2188720703125</v>
+        <v>-27.78118896484375</v>
       </c>
       <c r="C70" t="n">
-        <v>73.77946472167969</v>
+        <v>0.0363922119140625</v>
       </c>
       <c r="D70" t="n">
-        <v>259.9534301757812</v>
+        <v>-15.03656005859375</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>117.2593455314636</v>
+        <v>117.3071677684784</v>
       </c>
       <c r="B71" t="n">
-        <v>322.2301635742188</v>
+        <v>-27.76849365234375</v>
       </c>
       <c r="C71" t="n">
-        <v>73.76609039306641</v>
+        <v>0.0073699951171875</v>
       </c>
       <c r="D71" t="n">
-        <v>271.697021484375</v>
+        <v>-3.294891357421875</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>118.6901338100433</v>
+        <v>118.7361829280853</v>
       </c>
       <c r="B72" t="n">
-        <v>322.2295837402344</v>
+        <v>-27.772705078125</v>
       </c>
       <c r="C72" t="n">
-        <v>73.75554656982422</v>
+        <v>0.00432586669921875</v>
       </c>
       <c r="D72" t="n">
-        <v>283.3647155761719</v>
+        <v>8.363372802734375</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>120.118577003479</v>
+        <v>120.1659030914307</v>
       </c>
       <c r="B73" t="n">
-        <v>322.2272033691406</v>
+        <v>-27.77618408203125</v>
       </c>
       <c r="C73" t="n">
-        <v>73.75569915771484</v>
+        <v>0.0042266845703125</v>
       </c>
       <c r="D73" t="n">
-        <v>295.0055847167969</v>
+        <v>20.00823974609375</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>122.5202195644379</v>
+        <v>122.5674026012421</v>
       </c>
       <c r="B74" t="n">
-        <v>322.2180480957031</v>
+        <v>-27.78030395507812</v>
       </c>
       <c r="C74" t="n">
-        <v>85.43668365478516</v>
+        <v>11.69770812988281</v>
       </c>
       <c r="D74" t="n">
-        <v>259.9542541503906</v>
+        <v>-15.037109375</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>123.9495851993561</v>
+        <v>124.0018448829651</v>
       </c>
       <c r="B75" t="n">
-        <v>322.2220458984375</v>
+        <v>-27.77490234375</v>
       </c>
       <c r="C75" t="n">
-        <v>85.42997741699219</v>
+        <v>11.67301940917969</v>
       </c>
       <c r="D75" t="n">
-        <v>271.6892700195312</v>
+        <v>-3.305999755859375</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>125.3796253204346</v>
+        <v>125.4329562187195</v>
       </c>
       <c r="B76" t="n">
-        <v>322.2214050292969</v>
+        <v>-27.77716064453125</v>
       </c>
       <c r="C76" t="n">
-        <v>85.42204284667969</v>
+        <v>11.67031097412109</v>
       </c>
       <c r="D76" t="n">
-        <v>283.3613891601562</v>
+        <v>8.35321044921875</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>126.8122553825378</v>
+        <v>126.863340139389</v>
       </c>
       <c r="B77" t="n">
-        <v>322.2303466796875</v>
+        <v>-27.771728515625</v>
       </c>
       <c r="C77" t="n">
-        <v>85.42441558837891</v>
+        <v>11.67315673828125</v>
       </c>
       <c r="D77" t="n">
-        <v>295.001953125</v>
+        <v>20.01358032226562</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>129.2120127677917</v>
+        <v>129.2651016712189</v>
       </c>
       <c r="B78" t="n">
-        <v>322.2164916992188</v>
+        <v>-27.78033447265625</v>
       </c>
       <c r="C78" t="n">
-        <v>97.12223052978516</v>
+        <v>23.36527252197266</v>
       </c>
       <c r="D78" t="n">
-        <v>259.9427185058594</v>
+        <v>-15.057373046875</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>130.6466369628906</v>
+        <v>130.695850610733</v>
       </c>
       <c r="B79" t="n">
-        <v>322.2472839355469</v>
+        <v>-27.75482177734375</v>
       </c>
       <c r="C79" t="n">
-        <v>97.0933837890625</v>
+        <v>23.35282135009766</v>
       </c>
       <c r="D79" t="n">
-        <v>271.6948852539062</v>
+        <v>-3.30718994140625</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>132.0762233734131</v>
+        <v>132.1252913475037</v>
       </c>
       <c r="B80" t="n">
-        <v>322.2462158203125</v>
+        <v>-27.7572021484375</v>
       </c>
       <c r="C80" t="n">
-        <v>97.09234619140625</v>
+        <v>23.34275817871094</v>
       </c>
       <c r="D80" t="n">
-        <v>283.3643188476562</v>
+        <v>8.3712158203125</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>133.5055525302887</v>
+        <v>133.557932138443</v>
       </c>
       <c r="B81" t="n">
-        <v>322.2381286621094</v>
+        <v>-27.76275634765625</v>
       </c>
       <c r="C81" t="n">
-        <v>97.09134674072266</v>
+        <v>23.34180450439453</v>
       </c>
       <c r="D81" t="n">
-        <v>295.0504150390625</v>
+        <v>20.040771484375</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>135.9051558971405</v>
+        <v>135.9578468799591</v>
       </c>
       <c r="B82" t="n">
-        <v>322.2278137207031</v>
+        <v>-27.77264404296875</v>
       </c>
       <c r="C82" t="n">
-        <v>108.782112121582</v>
+        <v>35.03195953369141</v>
       </c>
       <c r="D82" t="n">
-        <v>259.9385986328125</v>
+        <v>-15.05386352539062</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>137.3384158611298</v>
+        <v>137.3863394260406</v>
       </c>
       <c r="B83" t="n">
-        <v>322.244873046875</v>
+        <v>-27.7574462890625</v>
       </c>
       <c r="C83" t="n">
-        <v>108.7628936767578</v>
+        <v>35.01212310791016</v>
       </c>
       <c r="D83" t="n">
-        <v>271.7009582519531</v>
+        <v>-3.296234130859375</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>138.7694234848022</v>
+        <v>138.8172445297241</v>
       </c>
       <c r="B84" t="n">
-        <v>322.2364196777344</v>
+        <v>-27.7630615234375</v>
       </c>
       <c r="C84" t="n">
-        <v>108.7563705444336</v>
+        <v>35.00728607177734</v>
       </c>
       <c r="D84" t="n">
-        <v>283.3533325195312</v>
+        <v>8.3623046875</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>140.200532913208</v>
+        <v>140.248012304306</v>
       </c>
       <c r="B85" t="n">
-        <v>322.2353210449219</v>
+        <v>-27.76568603515625</v>
       </c>
       <c r="C85" t="n">
-        <v>108.7574691772461</v>
+        <v>35.00785827636719</v>
       </c>
       <c r="D85" t="n">
-        <v>295.0497131347656</v>
+        <v>20.04208374023438</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>143.6300628185272</v>
+        <v>143.679233789444</v>
       </c>
       <c r="B86" t="n">
-        <v>333.3338928222656</v>
+        <v>-16.66213989257812</v>
       </c>
       <c r="C86" t="n">
-        <v>38.73141860961914</v>
+        <v>-35.03056335449219</v>
       </c>
       <c r="D86" t="n">
-        <v>259.9443664550781</v>
+        <v>-15.0489501953125</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>145.0624556541443</v>
+        <v>145.1108229160309</v>
       </c>
       <c r="B87" t="n">
-        <v>333.3351440429688</v>
+        <v>-16.66949462890625</v>
       </c>
       <c r="C87" t="n">
-        <v>38.74885177612305</v>
+        <v>-34.99063110351562</v>
       </c>
       <c r="D87" t="n">
-        <v>271.6879577636719</v>
+        <v>-3.307891845703125</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>146.4931621551514</v>
+        <v>146.5400984287262</v>
       </c>
       <c r="B88" t="n">
-        <v>333.3408203125</v>
+        <v>-16.66168212890625</v>
       </c>
       <c r="C88" t="n">
-        <v>38.76126480102539</v>
+        <v>-34.9890251159668</v>
       </c>
       <c r="D88" t="n">
-        <v>283.371337890625</v>
+        <v>8.3699951171875</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>147.9220054149628</v>
+        <v>147.969895362854</v>
       </c>
       <c r="B89" t="n">
-        <v>333.3375549316406</v>
+        <v>-16.66378784179688</v>
       </c>
       <c r="C89" t="n">
-        <v>38.76019287109375</v>
+        <v>-34.98996353149414</v>
       </c>
       <c r="D89" t="n">
-        <v>295.0097961425781</v>
+        <v>20.00222778320312</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>150.320442199707</v>
+        <v>150.3743216991425</v>
       </c>
       <c r="B90" t="n">
-        <v>333.3324279785156</v>
+        <v>-16.66986083984375</v>
       </c>
       <c r="C90" t="n">
-        <v>50.44147872924805</v>
+        <v>-23.30607604980469</v>
       </c>
       <c r="D90" t="n">
-        <v>259.94677734375</v>
+        <v>-15.05181884765625</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>151.7482233047485</v>
+        <v>151.8076922893524</v>
       </c>
       <c r="B91" t="n">
-        <v>333.3516845703125</v>
+        <v>-16.6539306640625</v>
       </c>
       <c r="C91" t="n">
-        <v>50.43601989746094</v>
+        <v>-23.31761932373047</v>
       </c>
       <c r="D91" t="n">
-        <v>271.6968078613281</v>
+        <v>-3.300323486328125</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>153.1826419830322</v>
+        <v>153.2380886077881</v>
       </c>
       <c r="B92" t="n">
-        <v>333.35205078125</v>
+        <v>-16.65216064453125</v>
       </c>
       <c r="C92" t="n">
-        <v>50.42630767822266</v>
+        <v>-23.32572555541992</v>
       </c>
       <c r="D92" t="n">
-        <v>283.3822326660156</v>
+        <v>8.38641357421875</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>154.6140322685242</v>
+        <v>154.6704001426697</v>
       </c>
       <c r="B93" t="n">
-        <v>333.3385314941406</v>
+        <v>-16.66238403320312</v>
       </c>
       <c r="C93" t="n">
-        <v>50.4228630065918</v>
+        <v>-23.3272705078125</v>
       </c>
       <c r="D93" t="n">
-        <v>295.0209350585938</v>
+        <v>20.011962890625</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>157.0146887302399</v>
+        <v>157.0726187229156</v>
       </c>
       <c r="B94" t="n">
-        <v>333.3232727050781</v>
+        <v>-16.67510986328125</v>
       </c>
       <c r="C94" t="n">
-        <v>62.12617874145508</v>
+        <v>-11.64045715332031</v>
       </c>
       <c r="D94" t="n">
-        <v>259.9483947753906</v>
+        <v>-15.05429077148438</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>158.4463827610016</v>
+        <v>158.5017464160919</v>
       </c>
       <c r="B95" t="n">
-        <v>333.3398742675781</v>
+        <v>-16.66488647460938</v>
       </c>
       <c r="C95" t="n">
-        <v>62.08762741088867</v>
+        <v>-11.64843368530273</v>
       </c>
       <c r="D95" t="n">
-        <v>271.6999206542969</v>
+        <v>-3.302093505859375</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>159.8765442371368</v>
+        <v>159.9380822181702</v>
       </c>
       <c r="B96" t="n">
-        <v>333.3483276367188</v>
+        <v>-16.65316772460938</v>
       </c>
       <c r="C96" t="n">
-        <v>62.08920288085938</v>
+        <v>-11.65895843505859</v>
       </c>
       <c r="D96" t="n">
-        <v>283.3743896484375</v>
+        <v>8.368896484375</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>161.3067467212677</v>
+        <v>161.3673987388611</v>
       </c>
       <c r="B97" t="n">
-        <v>333.3403015136719</v>
+        <v>-16.66030883789062</v>
       </c>
       <c r="C97" t="n">
-        <v>62.08841323852539</v>
+        <v>-11.6602897644043</v>
       </c>
       <c r="D97" t="n">
-        <v>295.0015563964844</v>
+        <v>20.00570678710938</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>163.7062380313873</v>
+        <v>163.7664465904236</v>
       </c>
       <c r="B98" t="n">
-        <v>333.3440856933594</v>
+        <v>-16.66287231445312</v>
       </c>
       <c r="C98" t="n">
-        <v>73.7760009765625</v>
+        <v>0.0387725830078125</v>
       </c>
       <c r="D98" t="n">
-        <v>259.9522094726562</v>
+        <v>-15.03936767578125</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>165.1337957382202</v>
+        <v>165.1966924667358</v>
       </c>
       <c r="B99" t="n">
-        <v>333.3566284179688</v>
+        <v>-16.64501953125</v>
       </c>
       <c r="C99" t="n">
-        <v>73.77234649658203</v>
+        <v>0.010528564453125</v>
       </c>
       <c r="D99" t="n">
-        <v>271.7120666503906</v>
+        <v>-3.282928466796875</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>166.562292098999</v>
+        <v>166.6294889450073</v>
       </c>
       <c r="B100" t="n">
-        <v>333.3509521484375</v>
+        <v>-16.65304565429688</v>
       </c>
       <c r="C100" t="n">
-        <v>73.76178741455078</v>
+        <v>0.0051727294921875</v>
       </c>
       <c r="D100" t="n">
-        <v>283.3730163574219</v>
+        <v>8.3828125</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>167.9902250766754</v>
+        <v>168.0626902580261</v>
       </c>
       <c r="B101" t="n">
-        <v>333.3363342285156</v>
+        <v>-16.66232299804688</v>
       </c>
       <c r="C101" t="n">
-        <v>73.75640106201172</v>
+        <v>0.00455474853515625</v>
       </c>
       <c r="D101" t="n">
-        <v>295.0230102539062</v>
+        <v>20.0146484375</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>170.3905394077301</v>
+        <v>170.464715719223</v>
       </c>
       <c r="B102" t="n">
-        <v>333.3343811035156</v>
+        <v>-16.66790771484375</v>
       </c>
       <c r="C102" t="n">
-        <v>85.45049285888672</v>
+        <v>11.70645141601562</v>
       </c>
       <c r="D102" t="n">
-        <v>259.9561462402344</v>
+        <v>-15.04733276367188</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>171.824036359787</v>
+        <v>171.8953514099121</v>
       </c>
       <c r="B103" t="n">
-        <v>333.3495483398438</v>
+        <v>-16.65127563476562</v>
       </c>
       <c r="C103" t="n">
-        <v>85.42966461181641</v>
+        <v>11.67291259765625</v>
       </c>
       <c r="D103" t="n">
-        <v>271.7183837890625</v>
+        <v>-3.28497314453125</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>173.2566521167755</v>
+        <v>173.33358335495</v>
       </c>
       <c r="B104" t="n">
-        <v>333.3487854003906</v>
+        <v>-16.652099609375</v>
       </c>
       <c r="C104" t="n">
-        <v>85.42292785644531</v>
+        <v>11.67269897460938</v>
       </c>
       <c r="D104" t="n">
-        <v>283.3792114257812</v>
+        <v>8.382049560546875</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>174.6928141117096</v>
+        <v>174.7649903297424</v>
       </c>
       <c r="B105" t="n">
-        <v>333.3376770019531</v>
+        <v>-16.662109375</v>
       </c>
       <c r="C105" t="n">
-        <v>85.42080688476562</v>
+        <v>11.67158508300781</v>
       </c>
       <c r="D105" t="n">
-        <v>295.0101928710938</v>
+        <v>20.00949096679688</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>177.096604347229</v>
+        <v>177.168607711792</v>
       </c>
       <c r="B106" t="n">
-        <v>333.323486328125</v>
+        <v>-16.67941284179688</v>
       </c>
       <c r="C106" t="n">
-        <v>97.10354614257812</v>
+        <v>23.37415313720703</v>
       </c>
       <c r="D106" t="n">
-        <v>259.9417114257812</v>
+        <v>-15.05227661132812</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>178.5275139808655</v>
+        <v>178.5998024940491</v>
       </c>
       <c r="B107" t="n">
-        <v>333.3418273925781</v>
+        <v>-16.65548706054688</v>
       </c>
       <c r="C107" t="n">
-        <v>97.10222625732422</v>
+        <v>23.33821105957031</v>
       </c>
       <c r="D107" t="n">
-        <v>271.6864929199219</v>
+        <v>-3.306488037109375</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>179.9566993713379</v>
+        <v>180.0313999652863</v>
       </c>
       <c r="B108" t="n">
-        <v>333.3401794433594</v>
+        <v>-16.6624755859375</v>
       </c>
       <c r="C108" t="n">
-        <v>97.09212493896484</v>
+        <v>23.33617401123047</v>
       </c>
       <c r="D108" t="n">
-        <v>283.3595581054688</v>
+        <v>8.364654541015625</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>181.3870506286621</v>
+        <v>181.4627103805542</v>
       </c>
       <c r="B109" t="n">
-        <v>333.3465881347656</v>
+        <v>-16.65188598632812</v>
       </c>
       <c r="C109" t="n">
-        <v>97.09177398681641</v>
+        <v>23.34147644042969</v>
       </c>
       <c r="D109" t="n">
-        <v>295.0437622070312</v>
+        <v>20.0416259765625</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>183.7866606712341</v>
+        <v>183.8645017147064</v>
       </c>
       <c r="B110" t="n">
-        <v>333.31591796875</v>
+        <v>-16.68051147460938</v>
       </c>
       <c r="C110" t="n">
-        <v>108.7822189331055</v>
+        <v>35.02358245849609</v>
       </c>
       <c r="D110" t="n">
-        <v>259.9397583007812</v>
+        <v>-15.06317138671875</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>185.2197089195251</v>
+        <v>185.2886216640472</v>
       </c>
       <c r="B111" t="n">
-        <v>333.3399963378906</v>
+        <v>-16.66278076171875</v>
       </c>
       <c r="C111" t="n">
-        <v>108.7553634643555</v>
+        <v>35.01351165771484</v>
       </c>
       <c r="D111" t="n">
-        <v>271.6905517578125</v>
+        <v>-3.314422607421875</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>186.6500997543335</v>
+        <v>186.7221102714539</v>
       </c>
       <c r="B112" t="n">
-        <v>333.3364868164062</v>
+        <v>-16.66671752929688</v>
       </c>
       <c r="C112" t="n">
-        <v>108.7527084350586</v>
+        <v>35.00392913818359</v>
       </c>
       <c r="D112" t="n">
-        <v>283.3550720214844</v>
+        <v>8.35736083984375</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>188.0796778202057</v>
+        <v>188.1519858837128</v>
       </c>
       <c r="B113" t="n">
-        <v>333.3555603027344</v>
+        <v>-16.64569091796875</v>
       </c>
       <c r="C113" t="n">
-        <v>108.7604446411133</v>
+        <v>35.01078796386719</v>
       </c>
       <c r="D113" t="n">
-        <v>295.0397644042969</v>
+        <v>20.03341674804688</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>191.5291175842285</v>
+        <v>191.5813097953796</v>
       </c>
       <c r="B114" t="n">
-        <v>344.4438171386719</v>
+        <v>-5.557281494140625</v>
       </c>
       <c r="C114" t="n">
-        <v>38.7391357421875</v>
+        <v>-35.02383804321289</v>
       </c>
       <c r="D114" t="n">
-        <v>259.9360046386719</v>
+        <v>-15.0576171875</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>192.9592878818512</v>
+        <v>193.0120892524719</v>
       </c>
       <c r="B115" t="n">
-        <v>344.45751953125</v>
+        <v>-5.544342041015625</v>
       </c>
       <c r="C115" t="n">
-        <v>38.74710083007812</v>
+        <v>-34.99454498291016</v>
       </c>
       <c r="D115" t="n">
-        <v>271.6732788085938</v>
+        <v>-3.327392578125</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>194.3922543525696</v>
+        <v>194.4420790672302</v>
       </c>
       <c r="B116" t="n">
-        <v>344.4588012695312</v>
+        <v>-5.548797607421875</v>
       </c>
       <c r="C116" t="n">
-        <v>38.7586669921875</v>
+        <v>-34.98862075805664</v>
       </c>
       <c r="D116" t="n">
-        <v>283.3525390625</v>
+        <v>8.347930908203125</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>195.8207068443298</v>
+        <v>195.8741517066956</v>
       </c>
       <c r="B117" t="n">
-        <v>344.4536437988281</v>
+        <v>-5.54583740234375</v>
       </c>
       <c r="C117" t="n">
-        <v>38.75951385498047</v>
+        <v>-34.9890022277832</v>
       </c>
       <c r="D117" t="n">
-        <v>295.0408630371094</v>
+        <v>20.05276489257812</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>198.2223780155182</v>
+        <v>198.2744479179382</v>
       </c>
       <c r="B118" t="n">
-        <v>344.4468383789062</v>
+        <v>-5.55462646484375</v>
       </c>
       <c r="C118" t="n">
-        <v>50.43597793579102</v>
+        <v>-23.29623413085938</v>
       </c>
       <c r="D118" t="n">
-        <v>259.943359375</v>
+        <v>-15.05538940429688</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>199.6550250053406</v>
+        <v>199.704897403717</v>
       </c>
       <c r="B119" t="n">
-        <v>344.4639892578125</v>
+        <v>-5.536651611328125</v>
       </c>
       <c r="C119" t="n">
-        <v>50.43416976928711</v>
+        <v>-23.32600402832031</v>
       </c>
       <c r="D119" t="n">
-        <v>271.6780090332031</v>
+        <v>-3.328887939453125</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>201.0844843387604</v>
+        <v>201.1376628875732</v>
       </c>
       <c r="B120" t="n">
-        <v>344.4673767089844</v>
+        <v>-5.5374755859375</v>
       </c>
       <c r="C120" t="n">
-        <v>50.42890167236328</v>
+        <v>-23.32612991333008</v>
       </c>
       <c r="D120" t="n">
-        <v>283.361572265625</v>
+        <v>8.34918212890625</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>202.5143303871155</v>
+        <v>202.5687763690948</v>
       </c>
       <c r="B121" t="n">
-        <v>344.4459838867188</v>
+        <v>-5.558135986328125</v>
       </c>
       <c r="C121" t="n">
-        <v>50.42433166503906</v>
+        <v>-23.32770919799805</v>
       </c>
       <c r="D121" t="n">
-        <v>295.0252685546875</v>
+        <v>20.0345458984375</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>204.9140915870667</v>
+        <v>204.9681777954102</v>
       </c>
       <c r="B122" t="n">
-        <v>344.4341125488281</v>
+        <v>-5.5670166015625</v>
       </c>
       <c r="C122" t="n">
-        <v>62.10979843139648</v>
+        <v>-11.63385391235352</v>
       </c>
       <c r="D122" t="n">
-        <v>259.9433898925781</v>
+        <v>-15.05877685546875</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>206.3450047969818</v>
+        <v>206.3894340991974</v>
       </c>
       <c r="B123" t="n">
-        <v>344.4441528320312</v>
+        <v>-5.554443359375</v>
       </c>
       <c r="C123" t="n">
-        <v>62.10069274902344</v>
+        <v>-11.65560150146484</v>
       </c>
       <c r="D123" t="n">
-        <v>271.6929626464844</v>
+        <v>-3.306365966796875</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>207.7744433879852</v>
+        <v>207.8196034431458</v>
       </c>
       <c r="B124" t="n">
-        <v>344.441162109375</v>
+        <v>-5.5631103515625</v>
       </c>
       <c r="C124" t="n">
-        <v>62.08778381347656</v>
+        <v>-11.6644401550293</v>
       </c>
       <c r="D124" t="n">
-        <v>283.3595886230469</v>
+        <v>8.362640380859375</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>209.2024531364441</v>
+        <v>209.2533502578735</v>
       </c>
       <c r="B125" t="n">
-        <v>344.4606628417969</v>
+        <v>-5.5386962890625</v>
       </c>
       <c r="C125" t="n">
-        <v>62.09056854248047</v>
+        <v>-11.66004180908203</v>
       </c>
       <c r="D125" t="n">
-        <v>295.0408935546875</v>
+        <v>20.03591918945312</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>211.60169506073</v>
+        <v>211.653900384903</v>
       </c>
       <c r="B126" t="n">
-        <v>344.4489440917969</v>
+        <v>-5.555877685546875</v>
       </c>
       <c r="C126" t="n">
-        <v>73.77079010009766</v>
+        <v>0.03672027587890625</v>
       </c>
       <c r="D126" t="n">
-        <v>259.9580078125</v>
+        <v>-15.04119873046875</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>213.0353074073792</v>
+        <v>213.0827379226685</v>
       </c>
       <c r="B127" t="n">
-        <v>344.4652404785156</v>
+        <v>-5.53680419921875</v>
       </c>
       <c r="C127" t="n">
-        <v>73.77059936523438</v>
+        <v>0.00836944580078125</v>
       </c>
       <c r="D127" t="n">
-        <v>271.7010803222656</v>
+        <v>-3.29443359375</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>214.4642632007599</v>
+        <v>214.514319896698</v>
       </c>
       <c r="B128" t="n">
-        <v>344.462158203125</v>
+        <v>-5.539093017578125</v>
       </c>
       <c r="C128" t="n">
-        <v>73.76256561279297</v>
+        <v>0.00640106201171875</v>
       </c>
       <c r="D128" t="n">
-        <v>283.3633422851562</v>
+        <v>8.37060546875</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>215.8943681716919</v>
+        <v>215.9431262016296</v>
       </c>
       <c r="B129" t="n">
-        <v>344.4403381347656</v>
+        <v>-5.557342529296875</v>
       </c>
       <c r="C129" t="n">
-        <v>73.75568389892578</v>
+        <v>0.00396728515625</v>
       </c>
       <c r="D129" t="n">
-        <v>295.0316772460938</v>
+        <v>20.03228759765625</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>218.2938561439514</v>
+        <v>218.3447141647339</v>
       </c>
       <c r="B130" t="n">
-        <v>344.447998046875</v>
+        <v>-5.546142578125</v>
       </c>
       <c r="C130" t="n">
-        <v>85.45581817626953</v>
+        <v>11.69005584716797</v>
       </c>
       <c r="D130" t="n">
-        <v>259.9428405761719</v>
+        <v>-15.06021118164062</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>219.7224349975586</v>
+        <v>219.7796700000763</v>
       </c>
       <c r="B131" t="n">
-        <v>344.4637756347656</v>
+        <v>-5.5439453125</v>
       </c>
       <c r="C131" t="n">
-        <v>85.43128967285156</v>
+        <v>11.68536376953125</v>
       </c>
       <c r="D131" t="n">
-        <v>271.710693359375</v>
+        <v>-3.303802490234375</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>221.1521635055542</v>
+        <v>221.2093527317047</v>
       </c>
       <c r="B132" t="n">
-        <v>344.45751953125</v>
+        <v>-5.544677734375</v>
       </c>
       <c r="C132" t="n">
-        <v>85.42225646972656</v>
+        <v>11.67769622802734</v>
       </c>
       <c r="D132" t="n">
-        <v>283.3672790527344</v>
+        <v>8.363128662109375</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>222.5804905891418</v>
+        <v>222.6421384811401</v>
       </c>
       <c r="B133" t="n">
-        <v>344.464111328125</v>
+        <v>-5.5355224609375</v>
       </c>
       <c r="C133" t="n">
-        <v>85.42463684082031</v>
+        <v>11.67772674560547</v>
       </c>
       <c r="D133" t="n">
-        <v>295.0321960449219</v>
+        <v>20.028564453125</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>224.9802865982056</v>
+        <v>225.0457539558411</v>
       </c>
       <c r="B134" t="n">
-        <v>344.4364929199219</v>
+        <v>-5.562164306640625</v>
       </c>
       <c r="C134" t="n">
-        <v>97.10233306884766</v>
+        <v>23.36564636230469</v>
       </c>
       <c r="D134" t="n">
-        <v>259.9324340820312</v>
+        <v>-15.06875610351562</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>226.4138073921204</v>
+        <v>226.4749433994293</v>
       </c>
       <c r="B135" t="n">
-        <v>344.4502563476562</v>
+        <v>-5.542694091796875</v>
       </c>
       <c r="C135" t="n">
-        <v>97.10316467285156</v>
+        <v>23.34297943115234</v>
       </c>
       <c r="D135" t="n">
-        <v>271.6970825195312</v>
+        <v>-3.299713134765625</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>227.8448522090912</v>
+        <v>227.906046628952</v>
       </c>
       <c r="B136" t="n">
-        <v>344.4532165527344</v>
+        <v>-5.54022216796875</v>
       </c>
       <c r="C136" t="n">
-        <v>97.09487152099609</v>
+        <v>23.33987426757812</v>
       </c>
       <c r="D136" t="n">
-        <v>283.3743591308594</v>
+        <v>8.379119873046875</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>229.274224281311</v>
+        <v>229.3393938541412</v>
       </c>
       <c r="B137" t="n">
-        <v>344.4483947753906</v>
+        <v>-5.551239013671875</v>
       </c>
       <c r="C137" t="n">
-        <v>97.08971405029297</v>
+        <v>23.33753204345703</v>
       </c>
       <c r="D137" t="n">
-        <v>295.0201416015625</v>
+        <v>20.00863647460938</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>231.6723072528839</v>
+        <v>231.7403612136841</v>
       </c>
       <c r="B138" t="n">
-        <v>344.4356689453125</v>
+        <v>-5.568756103515625</v>
       </c>
       <c r="C138" t="n">
-        <v>108.7694473266602</v>
+        <v>35.03199768066406</v>
       </c>
       <c r="D138" t="n">
-        <v>259.9469909667969</v>
+        <v>-15.04644775390625</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>233.1009166240692</v>
+        <v>233.1701521873474</v>
       </c>
       <c r="B139" t="n">
-        <v>344.4616394042969</v>
+        <v>-5.532623291015625</v>
       </c>
       <c r="C139" t="n">
-        <v>108.7737655639648</v>
+        <v>35.01782989501953</v>
       </c>
       <c r="D139" t="n">
-        <v>271.6779479980469</v>
+        <v>-3.313812255859375</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>234.530045747757</v>
+        <v>234.6076622009277</v>
       </c>
       <c r="B140" t="n">
-        <v>344.462158203125</v>
+        <v>-5.530242919921875</v>
       </c>
       <c r="C140" t="n">
-        <v>108.7654113769531</v>
+        <v>35.01006317138672</v>
       </c>
       <c r="D140" t="n">
-        <v>283.3626403808594</v>
+        <v>8.360870361328125</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>235.9585974216461</v>
+        <v>236.0380256175995</v>
       </c>
       <c r="B141" t="n">
-        <v>344.4539489746094</v>
+        <v>-5.54815673828125</v>
       </c>
       <c r="C141" t="n">
-        <v>108.7581634521484</v>
+        <v>35.00517272949219</v>
       </c>
       <c r="D141" t="n">
-        <v>295.0135498046875</v>
+        <v>20.01947021484375</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>239.3865804672241</v>
+        <v>239.4688987731934</v>
       </c>
       <c r="B142" t="n">
-        <v>355.5700073242188</v>
+        <v>5.570343017578125</v>
       </c>
       <c r="C142" t="n">
-        <v>38.73761749267578</v>
+        <v>-35.02412796020508</v>
       </c>
       <c r="D142" t="n">
-        <v>259.9547729492188</v>
+        <v>-15.04522705078125</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>240.8174095153809</v>
+        <v>240.900294303894</v>
       </c>
       <c r="B143" t="n">
-        <v>355.5841979980469</v>
+        <v>5.583984375</v>
       </c>
       <c r="C143" t="n">
-        <v>38.74946975708008</v>
+        <v>-34.98950576782227</v>
       </c>
       <c r="D143" t="n">
-        <v>271.7026062011719</v>
+        <v>-3.301849365234375</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>242.2548038959503</v>
+        <v>242.3358864784241</v>
       </c>
       <c r="B144" t="n">
-        <v>355.5751647949219</v>
+        <v>5.578338623046875</v>
       </c>
       <c r="C144" t="n">
-        <v>38.7602653503418</v>
+        <v>-34.98644256591797</v>
       </c>
       <c r="D144" t="n">
-        <v>283.3797607421875</v>
+        <v>8.3717041015625</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>243.6841523647308</v>
+        <v>243.7670443058014</v>
       </c>
       <c r="B145" t="n">
-        <v>355.5684204101562</v>
+        <v>5.56695556640625</v>
       </c>
       <c r="C145" t="n">
-        <v>38.7602653503418</v>
+        <v>-34.98841857910156</v>
       </c>
       <c r="D145" t="n">
-        <v>295.0086669921875</v>
+        <v>20.015869140625</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>246.0831732749939</v>
+        <v>246.1688158512115</v>
       </c>
       <c r="B146" t="n">
-        <v>355.5503845214844</v>
+        <v>5.55364990234375</v>
       </c>
       <c r="C146" t="n">
-        <v>50.45385360717773</v>
+        <v>-23.30830001831055</v>
       </c>
       <c r="D146" t="n">
-        <v>259.9381713867188</v>
+        <v>-15.05697631835938</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>247.5134301185608</v>
+        <v>247.6000349521637</v>
       </c>
       <c r="B147" t="n">
-        <v>355.5826110839844</v>
+        <v>5.58154296875</v>
       </c>
       <c r="C147" t="n">
-        <v>50.42502212524414</v>
+        <v>-23.31696319580078</v>
       </c>
       <c r="D147" t="n">
-        <v>271.7016906738281</v>
+        <v>-3.300506591796875</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>248.9425957202911</v>
+        <v>249.0297963619232</v>
       </c>
       <c r="B148" t="n">
-        <v>355.5746765136719</v>
+        <v>5.577728271484375</v>
       </c>
       <c r="C148" t="n">
-        <v>50.42389678955078</v>
+        <v>-23.32344055175781</v>
       </c>
       <c r="D148" t="n">
-        <v>283.372802734375</v>
+        <v>8.3704833984375</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>250.3725161552429</v>
+        <v>250.4595401287079</v>
       </c>
       <c r="B149" t="n">
-        <v>355.5670471191406</v>
+        <v>5.568603515625</v>
       </c>
       <c r="C149" t="n">
-        <v>50.42430114746094</v>
+        <v>-23.32473754882812</v>
       </c>
       <c r="D149" t="n">
-        <v>295.0008544921875</v>
+        <v>20.00076293945312</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>252.7742502689362</v>
+        <v>252.8603889942169</v>
       </c>
       <c r="B150" t="n">
-        <v>355.5577697753906</v>
+        <v>5.560943603515625</v>
       </c>
       <c r="C150" t="n">
-        <v>62.11174774169922</v>
+        <v>-11.63020324707031</v>
       </c>
       <c r="D150" t="n">
-        <v>259.9551696777344</v>
+        <v>-15.04812622070312</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>254.204582452774</v>
+        <v>254.2929410934448</v>
       </c>
       <c r="B151" t="n">
-        <v>355.57470703125</v>
+        <v>5.57244873046875</v>
       </c>
       <c r="C151" t="n">
-        <v>62.10570526123047</v>
+        <v>-11.65218353271484</v>
       </c>
       <c r="D151" t="n">
-        <v>271.7037048339844</v>
+        <v>-3.28814697265625</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>255.6338109970093</v>
+        <v>255.721647977829</v>
       </c>
       <c r="B152" t="n">
-        <v>355.5676574707031</v>
+        <v>5.561614990234375</v>
       </c>
       <c r="C152" t="n">
-        <v>62.09172439575195</v>
+        <v>-11.66232681274414</v>
       </c>
       <c r="D152" t="n">
-        <v>283.3590393066406</v>
+        <v>8.370361328125</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>257.0644145011902</v>
+        <v>257.1436223983765</v>
       </c>
       <c r="B153" t="n">
-        <v>355.5724182128906</v>
+        <v>5.572662353515625</v>
       </c>
       <c r="C153" t="n">
-        <v>62.0918083190918</v>
+        <v>-11.65964889526367</v>
       </c>
       <c r="D153" t="n">
-        <v>295.0538024902344</v>
+        <v>20.04800415039062</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>259.4659852981567</v>
+        <v>259.5456140041351</v>
       </c>
       <c r="B154" t="n">
-        <v>355.5457458496094</v>
+        <v>5.552276611328125</v>
       </c>
       <c r="C154" t="n">
-        <v>73.78934478759766</v>
+        <v>0.03462982177734375</v>
       </c>
       <c r="D154" t="n">
-        <v>259.9415893554688</v>
+        <v>-15.06106567382812</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>260.8946249485016</v>
+        <v>260.9791467189789</v>
       </c>
       <c r="B155" t="n">
-        <v>355.5740356445312</v>
+        <v>5.57513427734375</v>
       </c>
       <c r="C155" t="n">
-        <v>73.75650024414062</v>
+        <v>0.0074920654296875</v>
       </c>
       <c r="D155" t="n">
-        <v>271.71533203125</v>
+        <v>-3.280517578125</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>262.3199851512909</v>
+        <v>262.4167656898499</v>
       </c>
       <c r="B156" t="n">
-        <v>355.5787353515625</v>
+        <v>5.573150634765625</v>
       </c>
       <c r="C156" t="n">
-        <v>73.75747680664062</v>
+        <v>0.007080078125</v>
       </c>
       <c r="D156" t="n">
-        <v>283.3799438476562</v>
+        <v>8.38909912109375</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>263.7479667663574</v>
+        <v>263.8477923870087</v>
       </c>
       <c r="B157" t="n">
-        <v>355.5582275390625</v>
+        <v>5.559967041015625</v>
       </c>
       <c r="C157" t="n">
-        <v>73.75474548339844</v>
+        <v>0.00586700439453125</v>
       </c>
       <c r="D157" t="n">
-        <v>295.0370178222656</v>
+        <v>20.03836059570312</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>266.1473624706268</v>
+        <v>266.2493364810944</v>
       </c>
       <c r="B158" t="n">
-        <v>355.5425720214844</v>
+        <v>5.54522705078125</v>
       </c>
       <c r="C158" t="n">
-        <v>85.45825958251953</v>
+        <v>11.69581604003906</v>
       </c>
       <c r="D158" t="n">
-        <v>259.9441528320312</v>
+        <v>-15.04348754882812</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>267.5767765045166</v>
+        <v>267.6811656951904</v>
       </c>
       <c r="B159" t="n">
-        <v>355.5842895507812</v>
+        <v>5.582122802734375</v>
       </c>
       <c r="C159" t="n">
-        <v>85.42518615722656</v>
+        <v>11.68929290771484</v>
       </c>
       <c r="D159" t="n">
-        <v>271.6961669921875</v>
+        <v>-3.30548095703125</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>269.0077240467072</v>
+        <v>269.1116919517517</v>
       </c>
       <c r="B160" t="n">
-        <v>355.5786437988281</v>
+        <v>5.577392578125</v>
       </c>
       <c r="C160" t="n">
-        <v>85.423828125</v>
+        <v>11.67583465576172</v>
       </c>
       <c r="D160" t="n">
-        <v>283.3770751953125</v>
+        <v>8.364837646484375</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>270.4422154426575</v>
+        <v>270.5462248325348</v>
       </c>
       <c r="B161" t="n">
-        <v>355.5714111328125</v>
+        <v>5.57501220703125</v>
       </c>
       <c r="C161" t="n">
-        <v>85.42362976074219</v>
+        <v>11.67526245117188</v>
       </c>
       <c r="D161" t="n">
-        <v>295.0215148925781</v>
+        <v>20.024169921875</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>272.8413138389587</v>
+        <v>272.9467666149139</v>
       </c>
       <c r="B162" t="n">
-        <v>355.547119140625</v>
+        <v>5.54547119140625</v>
       </c>
       <c r="C162" t="n">
-        <v>97.11185455322266</v>
+        <v>23.37000274658203</v>
       </c>
       <c r="D162" t="n">
-        <v>259.9530639648438</v>
+        <v>-15.05062866210938</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>274.271075963974</v>
+        <v>274.3786270618439</v>
       </c>
       <c r="B163" t="n">
-        <v>355.5641479492188</v>
+        <v>5.5673828125</v>
       </c>
       <c r="C163" t="n">
-        <v>97.09539794921875</v>
+        <v>23.33924865722656</v>
       </c>
       <c r="D163" t="n">
-        <v>271.6732482910156</v>
+        <v>-3.318206787109375</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>275.7022967338562</v>
+        <v>275.8089115619659</v>
       </c>
       <c r="B164" t="n">
-        <v>355.5683898925781</v>
+        <v>5.573333740234375</v>
       </c>
       <c r="C164" t="n">
-        <v>97.08951568603516</v>
+        <v>23.34086608886719</v>
       </c>
       <c r="D164" t="n">
-        <v>283.3547973632812</v>
+        <v>8.35443115234375</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>277.131938457489</v>
+        <v>277.2319116592407</v>
       </c>
       <c r="B165" t="n">
-        <v>355.5599670410156</v>
+        <v>5.559539794921875</v>
       </c>
       <c r="C165" t="n">
-        <v>97.08721923828125</v>
+        <v>23.33866119384766</v>
       </c>
       <c r="D165" t="n">
-        <v>295.0077514648438</v>
+        <v>20.00918579101562</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>279.5322592258453</v>
+        <v>279.6361560821533</v>
       </c>
       <c r="B166" t="n">
-        <v>355.5457763671875</v>
+        <v>5.5494384765625</v>
       </c>
       <c r="C166" t="n">
-        <v>108.7847061157227</v>
+        <v>35.02230072021484</v>
       </c>
       <c r="D166" t="n">
-        <v>259.9375610351562</v>
+        <v>-15.0579833984375</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>280.9610605239868</v>
+        <v>281.0649616718292</v>
       </c>
       <c r="B167" t="n">
-        <v>355.5567321777344</v>
+        <v>5.560150146484375</v>
       </c>
       <c r="C167" t="n">
-        <v>108.7618026733398</v>
+        <v>35.01840972900391</v>
       </c>
       <c r="D167" t="n">
-        <v>271.6916198730469</v>
+        <v>-3.311126708984375</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>282.3934347629547</v>
+        <v>282.4966993331909</v>
       </c>
       <c r="B168" t="n">
-        <v>355.5691223144531</v>
+        <v>5.56805419921875</v>
       </c>
       <c r="C168" t="n">
-        <v>108.7560424804688</v>
+        <v>35.01048278808594</v>
       </c>
       <c r="D168" t="n">
-        <v>283.3811340332031</v>
+        <v>8.3892822265625</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>283.8244276046753</v>
+        <v>283.9268879890442</v>
       </c>
       <c r="B169" t="n">
-        <v>355.5545043945312</v>
+        <v>5.554229736328125</v>
       </c>
       <c r="C169" t="n">
-        <v>108.7523574829102</v>
+        <v>35.00466918945312</v>
       </c>
       <c r="D169" t="n">
-        <v>295.0191040039062</v>
+        <v>20.02789306640625</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>287.2522566318512</v>
+        <v>287.3588006496429</v>
       </c>
       <c r="B170" t="n">
-        <v>366.6806335449219</v>
+        <v>16.67999267578125</v>
       </c>
       <c r="C170" t="n">
-        <v>38.73366165161133</v>
+        <v>-35.03310012817383</v>
       </c>
       <c r="D170" t="n">
-        <v>259.9569091796875</v>
+        <v>-15.03912353515625</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>288.6803517341614</v>
+        <v>288.7884981632233</v>
       </c>
       <c r="B171" t="n">
-        <v>366.6800231933594</v>
+        <v>16.68020629882812</v>
       </c>
       <c r="C171" t="n">
-        <v>38.7487678527832</v>
+        <v>-34.98831176757812</v>
       </c>
       <c r="D171" t="n">
-        <v>271.6790161132812</v>
+        <v>-3.32635498046875</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>290.1087212562561</v>
+        <v>290.2168207168579</v>
       </c>
       <c r="B172" t="n">
-        <v>366.6671752929688</v>
+        <v>16.66741943359375</v>
       </c>
       <c r="C172" t="n">
-        <v>38.75955200195312</v>
+        <v>-34.98966598510742</v>
       </c>
       <c r="D172" t="n">
-        <v>283.3601379394531</v>
+        <v>8.35870361328125</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>291.5406060218811</v>
+        <v>291.6387832164764</v>
       </c>
       <c r="B173" t="n">
-        <v>366.6752319335938</v>
+        <v>16.67947387695312</v>
       </c>
       <c r="C173" t="n">
-        <v>38.76040267944336</v>
+        <v>-34.98915100097656</v>
       </c>
       <c r="D173" t="n">
-        <v>295.0274353027344</v>
+        <v>20.018310546875</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>293.9407510757446</v>
+        <v>294.039354801178</v>
       </c>
       <c r="B174" t="n">
-        <v>366.6625061035156</v>
+        <v>16.66543579101562</v>
       </c>
       <c r="C174" t="n">
-        <v>50.44642639160156</v>
+        <v>-23.29705429077148</v>
       </c>
       <c r="D174" t="n">
-        <v>259.9573364257812</v>
+        <v>-15.0350341796875</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>295.3701298236847</v>
+        <v>295.4714548587799</v>
       </c>
       <c r="B175" t="n">
-        <v>366.6802368164062</v>
+        <v>16.67962646484375</v>
       </c>
       <c r="C175" t="n">
-        <v>50.42898941040039</v>
+        <v>-23.32644653320312</v>
       </c>
       <c r="D175" t="n">
-        <v>271.679931640625</v>
+        <v>-3.322906494140625</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>296.8006391525269</v>
+        <v>296.9017565250397</v>
       </c>
       <c r="B176" t="n">
-        <v>366.6674194335938</v>
+        <v>16.66958618164062</v>
       </c>
       <c r="C176" t="n">
-        <v>50.42187118530273</v>
+        <v>-23.32782745361328</v>
       </c>
       <c r="D176" t="n">
-        <v>283.354248046875</v>
+        <v>8.3482666015625</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>298.2330756187439</v>
+        <v>298.3367109298706</v>
       </c>
       <c r="B177" t="n">
-        <v>366.6827392578125</v>
+        <v>16.68344116210938</v>
       </c>
       <c r="C177" t="n">
-        <v>50.42474365234375</v>
+        <v>-23.32516098022461</v>
       </c>
       <c r="D177" t="n">
-        <v>295.0301513671875</v>
+        <v>20.02056884765625</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>300.6354615688324</v>
+        <v>300.7280266284943</v>
       </c>
       <c r="B178" t="n">
-        <v>366.6692199707031</v>
+        <v>16.66806030273438</v>
       </c>
       <c r="C178" t="n">
-        <v>62.11367416381836</v>
+        <v>-11.62957382202148</v>
       </c>
       <c r="D178" t="n">
-        <v>259.9408874511719</v>
+        <v>-15.05911254882812</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>302.0654091835022</v>
+        <v>302.160017490387</v>
       </c>
       <c r="B179" t="n">
-        <v>366.6634521484375</v>
+        <v>16.66839599609375</v>
       </c>
       <c r="C179" t="n">
-        <v>62.10112380981445</v>
+        <v>-11.65730667114258</v>
       </c>
       <c r="D179" t="n">
-        <v>271.6951599121094</v>
+        <v>-3.308135986328125</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>303.4968860149384</v>
+        <v>303.5890824794769</v>
       </c>
       <c r="B180" t="n">
-        <v>366.6733093261719</v>
+        <v>16.67364501953125</v>
       </c>
       <c r="C180" t="n">
-        <v>62.08966827392578</v>
+        <v>-11.66181945800781</v>
       </c>
       <c r="D180" t="n">
-        <v>283.3688659667969</v>
+        <v>8.380706787109375</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>304.9271652698517</v>
+        <v>305.018878698349</v>
       </c>
       <c r="B181" t="n">
-        <v>366.6646728515625</v>
+        <v>16.66372680664062</v>
       </c>
       <c r="C181" t="n">
-        <v>62.08743286132812</v>
+        <v>-11.66272735595703</v>
       </c>
       <c r="D181" t="n">
-        <v>295.017578125</v>
+        <v>20.02572631835938</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>307.3279292583466</v>
+        <v>307.4217479228973</v>
       </c>
       <c r="B182" t="n">
-        <v>366.6657104492188</v>
+        <v>16.66940307617188</v>
       </c>
       <c r="C182" t="n">
-        <v>73.78260040283203</v>
+        <v>0.025543212890625</v>
       </c>
       <c r="D182" t="n">
-        <v>259.9410095214844</v>
+        <v>-15.05328369140625</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>308.7571518421173</v>
+        <v>308.8507931232452</v>
       </c>
       <c r="B183" t="n">
-        <v>366.6808776855469</v>
+        <v>16.67935180664062</v>
       </c>
       <c r="C183" t="n">
-        <v>73.7598876953125</v>
+        <v>0.01348876953125</v>
       </c>
       <c r="D183" t="n">
-        <v>271.6853637695312</v>
+        <v>-3.323455810546875</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>310.1864330768585</v>
+        <v>310.2788834571838</v>
       </c>
       <c r="B184" t="n">
-        <v>366.6607971191406</v>
+        <v>16.66253662109375</v>
       </c>
       <c r="C184" t="n">
-        <v>73.75116729736328</v>
+        <v>0.0038604736328125</v>
       </c>
       <c r="D184" t="n">
-        <v>283.3540649414062</v>
+        <v>8.362060546875</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>311.6194698810577</v>
+        <v>311.7117969989777</v>
       </c>
       <c r="B185" t="n">
-        <v>366.6703491210938</v>
+        <v>16.6689453125</v>
       </c>
       <c r="C185" t="n">
-        <v>73.75464630126953</v>
+        <v>0.00592803955078125</v>
       </c>
       <c r="D185" t="n">
-        <v>295.0420532226562</v>
+        <v>20.0399169921875</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>314.0193107128143</v>
+        <v>314.1135160923004</v>
       </c>
       <c r="B186" t="n">
-        <v>366.6701965332031</v>
+        <v>16.6729736328125</v>
       </c>
       <c r="C186" t="n">
-        <v>85.45699310302734</v>
+        <v>11.69498443603516</v>
       </c>
       <c r="D186" t="n">
-        <v>259.9496154785156</v>
+        <v>-15.05776977539062</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>315.4532182216644</v>
+        <v>315.5441865921021</v>
       </c>
       <c r="B187" t="n">
-        <v>366.6694030761719</v>
+        <v>16.66387939453125</v>
       </c>
       <c r="C187" t="n">
-        <v>85.42279815673828</v>
+        <v>11.68337249755859</v>
       </c>
       <c r="D187" t="n">
-        <v>271.6959838867188</v>
+        <v>-3.30670166015625</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>316.8831429481506</v>
+        <v>316.9765636920929</v>
       </c>
       <c r="B188" t="n">
-        <v>366.6731872558594</v>
+        <v>16.67922973632812</v>
       </c>
       <c r="C188" t="n">
-        <v>85.41971588134766</v>
+        <v>11.67508697509766</v>
       </c>
       <c r="D188" t="n">
-        <v>283.349365234375</v>
+        <v>8.355316162109375</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>318.3167297840118</v>
+        <v>318.4089846611023</v>
       </c>
       <c r="B189" t="n">
-        <v>366.6764831542969</v>
+        <v>16.67169189453125</v>
       </c>
       <c r="C189" t="n">
-        <v>85.42207336425781</v>
+        <v>11.67253875732422</v>
       </c>
       <c r="D189" t="n">
-        <v>295.0067443847656</v>
+        <v>20.01907348632812</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>320.7166800498962</v>
+        <v>320.8120350837708</v>
       </c>
       <c r="B190" t="n">
-        <v>366.6594848632812</v>
+        <v>16.66287231445312</v>
       </c>
       <c r="C190" t="n">
-        <v>97.11521148681641</v>
+        <v>23.35888671875</v>
       </c>
       <c r="D190" t="n">
-        <v>259.9336547851562</v>
+        <v>-15.06491088867188</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>322.146107673645</v>
+        <v>322.2420177459717</v>
       </c>
       <c r="B191" t="n">
-        <v>366.6857604980469</v>
+        <v>16.68624877929688</v>
       </c>
       <c r="C191" t="n">
-        <v>97.09567260742188</v>
+        <v>23.34981536865234</v>
       </c>
       <c r="D191" t="n">
-        <v>271.7164916992188</v>
+        <v>-3.287384033203125</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>323.5766565799713</v>
+        <v>323.6703886985779</v>
       </c>
       <c r="B192" t="n">
-        <v>366.6750183105469</v>
+        <v>16.67086791992188</v>
       </c>
       <c r="C192" t="n">
-        <v>97.08881378173828</v>
+        <v>23.33932495117188</v>
       </c>
       <c r="D192" t="n">
-        <v>283.3548583984375</v>
+        <v>8.365814208984375</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>325.0074701309204</v>
+        <v>325.1012978553772</v>
       </c>
       <c r="B193" t="n">
-        <v>366.6867370605469</v>
+        <v>16.67587280273438</v>
       </c>
       <c r="C193" t="n">
-        <v>97.09271240234375</v>
+        <v>23.34064483642578</v>
       </c>
       <c r="D193" t="n">
-        <v>295.0409545898438</v>
+        <v>20.053955078125</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>327.4065396785736</v>
+        <v>327.5020079612732</v>
       </c>
       <c r="B194" t="n">
-        <v>366.6608581542969</v>
+        <v>16.66326904296875</v>
       </c>
       <c r="C194" t="n">
-        <v>108.7766799926758</v>
+        <v>35.03311157226562</v>
       </c>
       <c r="D194" t="n">
-        <v>259.9326477050781</v>
+        <v>-15.07098388671875</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>328.8353748321533</v>
+        <v>328.9323937892914</v>
       </c>
       <c r="B195" t="n">
-        <v>366.6777038574219</v>
+        <v>16.677978515625</v>
       </c>
       <c r="C195" t="n">
-        <v>108.7702484130859</v>
+        <v>35.01543426513672</v>
       </c>
       <c r="D195" t="n">
-        <v>271.7166748046875</v>
+        <v>-3.28387451171875</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>330.2635850906372</v>
+        <v>330.3618829250336</v>
       </c>
       <c r="B196" t="n">
-        <v>366.6731567382812</v>
+        <v>16.67385864257812</v>
       </c>
       <c r="C196" t="n">
-        <v>108.7558364868164</v>
+        <v>35.00440979003906</v>
       </c>
       <c r="D196" t="n">
-        <v>283.34130859375</v>
+        <v>8.34051513671875</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>331.6950149536133</v>
+        <v>331.7938694953918</v>
       </c>
       <c r="B197" t="n">
-        <v>366.6766357421875</v>
+        <v>16.67657470703125</v>
       </c>
       <c r="C197" t="n">
-        <v>108.7568664550781</v>
+        <v>35.00604248046875</v>
       </c>
       <c r="D197" t="n">
-        <v>295.0111389160156</v>
+        <v>20.01495361328125</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>335.1256592273712</v>
+        <v>335.2227983474731</v>
       </c>
       <c r="B198" t="n">
-        <v>377.7886352539062</v>
+        <v>27.79156494140625</v>
       </c>
       <c r="C198" t="n">
-        <v>38.7293586730957</v>
+        <v>-35.02503204345703</v>
       </c>
       <c r="D198" t="n">
-        <v>259.9633178710938</v>
+        <v>-15.0421142578125</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>336.5559923648834</v>
+        <v>336.6543035507202</v>
       </c>
       <c r="B199" t="n">
-        <v>377.7891845703125</v>
+        <v>27.78390502929688</v>
       </c>
       <c r="C199" t="n">
-        <v>38.75206756591797</v>
+        <v>-34.99066162109375</v>
       </c>
       <c r="D199" t="n">
-        <v>271.6848449707031</v>
+        <v>-3.316070556640625</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>337.9856715202332</v>
+        <v>338.0846683979034</v>
       </c>
       <c r="B200" t="n">
-        <v>377.7791748046875</v>
+        <v>27.78408813476562</v>
       </c>
       <c r="C200" t="n">
-        <v>38.76041793823242</v>
+        <v>-34.98830032348633</v>
       </c>
       <c r="D200" t="n">
-        <v>283.3598022460938</v>
+        <v>8.3577880859375</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>339.4205586910248</v>
+        <v>339.5128626823425</v>
       </c>
       <c r="B201" t="n">
-        <v>377.77880859375</v>
+        <v>27.77783203125</v>
       </c>
       <c r="C201" t="n">
-        <v>38.75959777832031</v>
+        <v>-34.99050521850586</v>
       </c>
       <c r="D201" t="n">
-        <v>295.0234680175781</v>
+        <v>20.01312255859375</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>341.8206834793091</v>
+        <v>341.9046521186829</v>
       </c>
       <c r="B202" t="n">
-        <v>377.7723388671875</v>
+        <v>27.78091430664062</v>
       </c>
       <c r="C202" t="n">
-        <v>50.4547233581543</v>
+        <v>-23.3004264831543</v>
       </c>
       <c r="D202" t="n">
-        <v>259.9356689453125</v>
+        <v>-15.06842041015625</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>343.2498188018799</v>
+        <v>343.3347404003143</v>
       </c>
       <c r="B203" t="n">
-        <v>377.79638671875</v>
+        <v>27.790771484375</v>
       </c>
       <c r="C203" t="n">
-        <v>50.4256706237793</v>
+        <v>-23.32271575927734</v>
       </c>
       <c r="D203" t="n">
-        <v>271.702392578125</v>
+        <v>-3.29315185546875</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>344.6802010536194</v>
+        <v>344.7651681900024</v>
       </c>
       <c r="B204" t="n">
-        <v>377.7848815917969</v>
+        <v>27.7862548828125</v>
       </c>
       <c r="C204" t="n">
-        <v>50.42177581787109</v>
+        <v>-23.32725524902344</v>
       </c>
       <c r="D204" t="n">
-        <v>283.3536071777344</v>
+        <v>8.344451904296875</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>346.110976934433</v>
+        <v>346.1967296600342</v>
       </c>
       <c r="B205" t="n">
-        <v>377.7909851074219</v>
+        <v>27.788818359375</v>
       </c>
       <c r="C205" t="n">
-        <v>50.42337799072266</v>
+        <v>-23.32612609863281</v>
       </c>
       <c r="D205" t="n">
-        <v>295.0288391113281</v>
+        <v>20.01705932617188</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>348.5135617256165</v>
+        <v>348.5959279537201</v>
       </c>
       <c r="B206" t="n">
-        <v>377.780517578125</v>
+        <v>27.78189086914062</v>
       </c>
       <c r="C206" t="n">
-        <v>62.11744689941406</v>
+        <v>-11.62677001953125</v>
       </c>
       <c r="D206" t="n">
-        <v>259.9607543945312</v>
+        <v>-15.03948974609375</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>349.9469773769379</v>
+        <v>350.0237171649933</v>
       </c>
       <c r="B207" t="n">
-        <v>377.7856750488281</v>
+        <v>27.78936767578125</v>
       </c>
       <c r="C207" t="n">
-        <v>62.09923934936523</v>
+        <v>-11.66047668457031</v>
       </c>
       <c r="D207" t="n">
-        <v>271.6830139160156</v>
+        <v>-3.321685791015625</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>351.3763647079468</v>
+        <v>351.4528276920319</v>
       </c>
       <c r="B208" t="n">
-        <v>377.7955932617188</v>
+        <v>27.79421997070312</v>
       </c>
       <c r="C208" t="n">
-        <v>62.08975601196289</v>
+        <v>-11.66205978393555</v>
       </c>
       <c r="D208" t="n">
-        <v>283.3870239257812</v>
+        <v>8.38720703125</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>352.8077292442322</v>
+        <v>352.8832988739014</v>
       </c>
       <c r="B209" t="n">
-        <v>377.785400390625</v>
+        <v>27.78671264648438</v>
       </c>
       <c r="C209" t="n">
-        <v>62.08807754516602</v>
+        <v>-11.66170501708984</v>
       </c>
       <c r="D209" t="n">
-        <v>295.0548706054688</v>
+        <v>20.05694580078125</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>355.2064332962036</v>
+        <v>355.2832343578339</v>
       </c>
       <c r="B210" t="n">
-        <v>377.76953125</v>
+        <v>27.78067016601562</v>
       </c>
       <c r="C210" t="n">
-        <v>73.78659820556641</v>
+        <v>0.02272796630859375</v>
       </c>
       <c r="D210" t="n">
-        <v>259.9430236816406</v>
+        <v>-15.055908203125</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>356.6366016864777</v>
+        <v>356.7135398387909</v>
       </c>
       <c r="B211" t="n">
-        <v>377.7937927246094</v>
+        <v>27.7880859375</v>
       </c>
       <c r="C211" t="n">
-        <v>73.75762939453125</v>
+        <v>0.01694488525390625</v>
       </c>
       <c r="D211" t="n">
-        <v>271.684326171875</v>
+        <v>-3.309814453125</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>358.0646500587463</v>
+        <v>358.1484785079956</v>
       </c>
       <c r="B212" t="n">
-        <v>377.7861328125</v>
+        <v>27.79061889648438</v>
       </c>
       <c r="C212" t="n">
-        <v>73.75453186035156</v>
+        <v>0.01021575927734375</v>
       </c>
       <c r="D212" t="n">
-        <v>283.36962890625</v>
+        <v>8.36370849609375</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>359.4964115619659</v>
+        <v>359.5774490833282</v>
       </c>
       <c r="B213" t="n">
-        <v>377.7821350097656</v>
+        <v>27.78350830078125</v>
       </c>
       <c r="C213" t="n">
-        <v>73.75535583496094</v>
+        <v>0.007232666015625</v>
       </c>
       <c r="D213" t="n">
-        <v>295.027099609375</v>
+        <v>20.02236938476562</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>361.8998486995697</v>
+        <v>361.9779369831085</v>
       </c>
       <c r="B214" t="n">
-        <v>377.7739562988281</v>
+        <v>27.78073120117188</v>
       </c>
       <c r="C214" t="n">
-        <v>85.45523834228516</v>
+        <v>11.69214630126953</v>
       </c>
       <c r="D214" t="n">
-        <v>259.9515075683594</v>
+        <v>-15.05059814453125</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>363.3177161216736</v>
+        <v>363.408118724823</v>
       </c>
       <c r="B215" t="n">
-        <v>377.7814025878906</v>
+        <v>27.78216552734375</v>
       </c>
       <c r="C215" t="n">
-        <v>85.42442321777344</v>
+        <v>11.68515777587891</v>
       </c>
       <c r="D215" t="n">
-        <v>271.6747436523438</v>
+        <v>-3.3341064453125</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>364.7491874694824</v>
+        <v>364.8365225791931</v>
       </c>
       <c r="B216" t="n">
-        <v>377.7931213378906</v>
+        <v>27.78973388671875</v>
       </c>
       <c r="C216" t="n">
-        <v>85.42219543457031</v>
+        <v>11.67630767822266</v>
       </c>
       <c r="D216" t="n">
-        <v>283.3858337402344</v>
+        <v>8.390716552734375</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>366.1807067394257</v>
+        <v>366.2706437110901</v>
       </c>
       <c r="B217" t="n">
-        <v>377.7913208007812</v>
+        <v>27.790283203125</v>
       </c>
       <c r="C217" t="n">
-        <v>85.42259979248047</v>
+        <v>11.6748046875</v>
       </c>
       <c r="D217" t="n">
-        <v>295.0490112304688</v>
+        <v>20.05880737304688</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>368.5858914852142</v>
+        <v>368.6602113246918</v>
       </c>
       <c r="B218" t="n">
-        <v>377.7627868652344</v>
+        <v>27.76959228515625</v>
       </c>
       <c r="C218" t="n">
-        <v>97.12979125976562</v>
+        <v>23.36588287353516</v>
       </c>
       <c r="D218" t="n">
-        <v>259.9331359863281</v>
+        <v>-15.06729125976562</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>370.0163769721985</v>
+        <v>370.0917918682098</v>
       </c>
       <c r="B219" t="n">
-        <v>377.793212890625</v>
+        <v>27.7830810546875</v>
       </c>
       <c r="C219" t="n">
-        <v>97.08816528320312</v>
+        <v>23.34709930419922</v>
       </c>
       <c r="D219" t="n">
-        <v>271.7030029296875</v>
+        <v>-3.29425048828125</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>371.4455008506775</v>
+        <v>371.5225291252136</v>
       </c>
       <c r="B220" t="n">
-        <v>377.7846069335938</v>
+        <v>27.78701782226562</v>
       </c>
       <c r="C220" t="n">
-        <v>97.08677673339844</v>
+        <v>23.33821868896484</v>
       </c>
       <c r="D220" t="n">
-        <v>283.3557739257812</v>
+        <v>8.35235595703125</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>372.8766927719116</v>
+        <v>372.9517827033997</v>
       </c>
       <c r="B221" t="n">
-        <v>377.7800903320312</v>
+        <v>27.78201293945312</v>
       </c>
       <c r="C221" t="n">
-        <v>97.08726501464844</v>
+        <v>23.33776092529297</v>
       </c>
       <c r="D221" t="n">
-        <v>295.0238342285156</v>
+        <v>20.01824951171875</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>375.2766714096069</v>
+        <v>375.3550086021423</v>
       </c>
       <c r="B222" t="n">
-        <v>377.7767944335938</v>
+        <v>27.77349853515625</v>
       </c>
       <c r="C222" t="n">
-        <v>108.7749786376953</v>
+        <v>35.04579925537109</v>
       </c>
       <c r="D222" t="n">
-        <v>259.9251403808594</v>
+        <v>-15.06686401367188</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>376.7047588825226</v>
+        <v>376.7866945266724</v>
       </c>
       <c r="B223" t="n">
-        <v>377.7763977050781</v>
+        <v>27.77767944335938</v>
       </c>
       <c r="C223" t="n">
-        <v>108.7690048217773</v>
+        <v>35.00096130371094</v>
       </c>
       <c r="D223" t="n">
-        <v>271.6856689453125</v>
+        <v>-3.3074951171875</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>378.1340305805206</v>
+        <v>378.2173094749451</v>
       </c>
       <c r="B224" t="n">
-        <v>377.7922668457031</v>
+        <v>27.79556274414062</v>
       </c>
       <c r="C224" t="n">
-        <v>108.7618560791016</v>
+        <v>35.006103515625</v>
       </c>
       <c r="D224" t="n">
-        <v>283.3712463378906</v>
+        <v>8.367889404296875</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>379.5648150444031</v>
+        <v>379.6482076644897</v>
       </c>
       <c r="B225" t="n">
-        <v>377.7881774902344</v>
+        <v>27.792236328125</v>
       </c>
       <c r="C225" t="n">
-        <v>108.7581634521484</v>
+        <v>35.00682067871094</v>
       </c>
       <c r="D225" t="n">
-        <v>295.0421447753906</v>
+        <v>20.04779052734375</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>382.9966015815735</v>
+        <v>383.0774133205414</v>
       </c>
       <c r="B226" t="n">
-        <v>388.8929748535156</v>
+        <v>38.8885498046875</v>
       </c>
       <c r="C226" t="n">
-        <v>38.71326446533203</v>
+        <v>-35.01226043701172</v>
       </c>
       <c r="D226" t="n">
-        <v>259.9320678710938</v>
+        <v>-15.06527709960938</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>384.4293291568756</v>
+        <v>384.5113084316254</v>
       </c>
       <c r="B227" t="n">
-        <v>388.915771484375</v>
+        <v>38.91354370117188</v>
       </c>
       <c r="C227" t="n">
-        <v>38.76375579833984</v>
+        <v>-35.00012588500977</v>
       </c>
       <c r="D227" t="n">
-        <v>271.7037048339844</v>
+        <v>-3.2843017578125</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>385.8622415065765</v>
+        <v>385.9423940181732</v>
       </c>
       <c r="B228" t="n">
-        <v>388.8946533203125</v>
+        <v>38.894775390625</v>
       </c>
       <c r="C228" t="n">
-        <v>38.76165390014648</v>
+        <v>-34.99155044555664</v>
       </c>
       <c r="D228" t="n">
-        <v>283.3600463867188</v>
+        <v>8.352386474609375</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>387.2934038639069</v>
+        <v>387.3718695640564</v>
       </c>
       <c r="B229" t="n">
-        <v>388.89404296875</v>
+        <v>38.89715576171875</v>
       </c>
       <c r="C229" t="n">
-        <v>38.76079177856445</v>
+        <v>-34.98970413208008</v>
       </c>
       <c r="D229" t="n">
-        <v>295.0287475585938</v>
+        <v>20.02911376953125</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>389.6955580711365</v>
+        <v>389.7733969688416</v>
       </c>
       <c r="B230" t="n">
-        <v>388.8854370117188</v>
+        <v>38.88369750976562</v>
       </c>
       <c r="C230" t="n">
-        <v>50.45983505249023</v>
+        <v>-23.30900573730469</v>
       </c>
       <c r="D230" t="n">
-        <v>259.9369201660156</v>
+        <v>-15.056884765625</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>391.1270895004272</v>
+        <v>391.2048034667969</v>
       </c>
       <c r="B231" t="n">
-        <v>388.9106140136719</v>
+        <v>38.90957641601562</v>
       </c>
       <c r="C231" t="n">
-        <v>50.42263793945312</v>
+        <v>-23.31535720825195</v>
       </c>
       <c r="D231" t="n">
-        <v>271.7234802246094</v>
+        <v>-3.282012939453125</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>392.556095123291</v>
+        <v>392.635626077652</v>
       </c>
       <c r="B232" t="n">
-        <v>388.8991088867188</v>
+        <v>38.89645385742188</v>
       </c>
       <c r="C232" t="n">
-        <v>50.42114639282227</v>
+        <v>-23.32514953613281</v>
       </c>
       <c r="D232" t="n">
-        <v>283.3446350097656</v>
+        <v>8.335723876953125</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>393.9867238998413</v>
+        <v>394.0661957263947</v>
       </c>
       <c r="B233" t="n">
-        <v>388.8988952636719</v>
+        <v>38.89901733398438</v>
       </c>
       <c r="C233" t="n">
-        <v>50.42273712158203</v>
+        <v>-23.32563018798828</v>
       </c>
       <c r="D233" t="n">
-        <v>295.0189819335938</v>
+        <v>20.015869140625</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>396.3874490261078</v>
+        <v>396.464732170105</v>
       </c>
       <c r="B234" t="n">
-        <v>388.8885498046875</v>
+        <v>38.8895263671875</v>
       </c>
       <c r="C234" t="n">
-        <v>62.13323593139648</v>
+        <v>-11.63455963134766</v>
       </c>
       <c r="D234" t="n">
-        <v>259.9178161621094</v>
+        <v>-15.07412719726562</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>397.8170590400696</v>
+        <v>397.8949468135834</v>
       </c>
       <c r="B235" t="n">
-        <v>388.9022521972656</v>
+        <v>38.89669799804688</v>
       </c>
       <c r="C235" t="n">
-        <v>62.08808898925781</v>
+        <v>-11.64892578125</v>
       </c>
       <c r="D235" t="n">
-        <v>271.6974487304688</v>
+        <v>-3.293548583984375</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>399.2467920780182</v>
+        <v>399.3282399177551</v>
       </c>
       <c r="B236" t="n">
-        <v>388.8984680175781</v>
+        <v>38.90213012695312</v>
       </c>
       <c r="C236" t="n">
-        <v>62.08748245239258</v>
+        <v>-11.65948104858398</v>
       </c>
       <c r="D236" t="n">
-        <v>283.3609008789062</v>
+        <v>8.35650634765625</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>400.6764476299286</v>
+        <v>400.7589361667633</v>
       </c>
       <c r="B237" t="n">
-        <v>388.8967895507812</v>
+        <v>38.89889526367188</v>
       </c>
       <c r="C237" t="n">
-        <v>62.08803558349609</v>
+        <v>-11.65999984741211</v>
       </c>
       <c r="D237" t="n">
-        <v>295.0339050292969</v>
+        <v>20.0396728515625</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>403.0797498226166</v>
+        <v>403.1597309112549</v>
       </c>
       <c r="B238" t="n">
-        <v>388.87744140625</v>
+        <v>38.87521362304688</v>
       </c>
       <c r="C238" t="n">
-        <v>73.78983306884766</v>
+        <v>0.02787017822265625</v>
       </c>
       <c r="D238" t="n">
-        <v>259.947998046875</v>
+        <v>-15.05194091796875</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>404.5112016201019</v>
+        <v>404.5910892486572</v>
       </c>
       <c r="B239" t="n">
-        <v>388.9080810546875</v>
+        <v>38.907470703125</v>
       </c>
       <c r="C239" t="n">
-        <v>73.75853729248047</v>
+        <v>0.0207977294921875</v>
       </c>
       <c r="D239" t="n">
-        <v>271.7142333984375</v>
+        <v>-3.28997802734375</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>405.9449236392975</v>
+        <v>406.0110533237457</v>
       </c>
       <c r="B240" t="n">
-        <v>388.89501953125</v>
+        <v>38.89532470703125</v>
       </c>
       <c r="C240" t="n">
-        <v>73.75359344482422</v>
+        <v>0.0069427490234375</v>
       </c>
       <c r="D240" t="n">
-        <v>283.3402099609375</v>
+        <v>8.344696044921875</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>407.3750257492065</v>
+        <v>407.4421710968018</v>
       </c>
       <c r="B241" t="n">
-        <v>388.892822265625</v>
+        <v>38.89459228515625</v>
       </c>
       <c r="C241" t="n">
-        <v>73.75482177734375</v>
+        <v>0.00598907470703125</v>
       </c>
       <c r="D241" t="n">
-        <v>295.0073852539062</v>
+        <v>20.0040283203125</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>409.7758808135986</v>
+        <v>409.8470249176025</v>
       </c>
       <c r="B242" t="n">
-        <v>388.8860473632812</v>
+        <v>38.87982177734375</v>
       </c>
       <c r="C242" t="n">
-        <v>85.44438934326172</v>
+        <v>11.70970916748047</v>
       </c>
       <c r="D242" t="n">
-        <v>259.9476928710938</v>
+        <v>-15.04940795898438</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>411.2054064273834</v>
+        <v>411.2756681442261</v>
       </c>
       <c r="B243" t="n">
-        <v>388.8947143554688</v>
+        <v>38.89794921875</v>
       </c>
       <c r="C243" t="n">
-        <v>85.43795776367188</v>
+        <v>11.67198181152344</v>
       </c>
       <c r="D243" t="n">
-        <v>271.7029724121094</v>
+        <v>-3.297698974609375</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>412.6383759975433</v>
+        <v>412.706330537796</v>
       </c>
       <c r="B244" t="n">
-        <v>388.9056701660156</v>
+        <v>38.91317749023438</v>
       </c>
       <c r="C244" t="n">
-        <v>85.42784118652344</v>
+        <v>11.67365264892578</v>
       </c>
       <c r="D244" t="n">
-        <v>283.3630981445312</v>
+        <v>8.360687255859375</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>414.0691764354706</v>
+        <v>414.1367499828339</v>
       </c>
       <c r="B245" t="n">
-        <v>388.9085083007812</v>
+        <v>38.91220092773438</v>
       </c>
       <c r="C245" t="n">
-        <v>85.42596435546875</v>
+        <v>11.67510986328125</v>
       </c>
       <c r="D245" t="n">
-        <v>295.0487365722656</v>
+        <v>20.03582763671875</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>416.4698348045349</v>
+        <v>416.5416595935822</v>
       </c>
       <c r="B246" t="n">
-        <v>388.8792419433594</v>
+        <v>38.8797607421875</v>
       </c>
       <c r="C246" t="n">
-        <v>97.12802124023438</v>
+        <v>23.35786437988281</v>
       </c>
       <c r="D246" t="n">
-        <v>259.9356384277344</v>
+        <v>-15.07998657226562</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>417.9034245014191</v>
+        <v>417.97150349617</v>
       </c>
       <c r="B247" t="n">
-        <v>388.9106750488281</v>
+        <v>38.90960693359375</v>
       </c>
       <c r="C247" t="n">
-        <v>97.09529113769531</v>
+        <v>23.35770416259766</v>
       </c>
       <c r="D247" t="n">
-        <v>271.6922607421875</v>
+        <v>-3.30474853515625</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>419.3335855007172</v>
+        <v>419.4007601737976</v>
       </c>
       <c r="B248" t="n">
-        <v>388.8870239257812</v>
+        <v>38.88479614257812</v>
       </c>
       <c r="C248" t="n">
-        <v>97.08515930175781</v>
+        <v>23.34136199951172</v>
       </c>
       <c r="D248" t="n">
-        <v>283.3648376464844</v>
+        <v>8.372772216796875</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>420.7667634487152</v>
+        <v>420.8288753032684</v>
       </c>
       <c r="B249" t="n">
-        <v>388.8941345214844</v>
+        <v>38.89004516601562</v>
       </c>
       <c r="C249" t="n">
-        <v>97.08777618408203</v>
+        <v>23.33929443359375</v>
       </c>
       <c r="D249" t="n">
-        <v>295.0128479003906</v>
+        <v>20.03436279296875</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>423.1681332588196</v>
+        <v>423.229234457016</v>
       </c>
       <c r="B250" t="n">
-        <v>388.8801879882812</v>
+        <v>38.87960815429688</v>
       </c>
       <c r="C250" t="n">
-        <v>108.7809143066406</v>
+        <v>35.03418731689453</v>
       </c>
       <c r="D250" t="n">
-        <v>259.9287719726562</v>
+        <v>-15.076171875</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>424.5987732410431</v>
+        <v>424.660279750824</v>
       </c>
       <c r="B251" t="n">
-        <v>388.9075622558594</v>
+        <v>38.90597534179688</v>
       </c>
       <c r="C251" t="n">
-        <v>108.7714080810547</v>
+        <v>35.01410675048828</v>
       </c>
       <c r="D251" t="n">
-        <v>271.6932067871094</v>
+        <v>-3.3060302734375</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>426.0280554294586</v>
+        <v>426.080881357193</v>
       </c>
       <c r="B252" t="n">
-        <v>388.9026794433594</v>
+        <v>38.9049072265625</v>
       </c>
       <c r="C252" t="n">
-        <v>108.7571716308594</v>
+        <v>35.00693511962891</v>
       </c>
       <c r="D252" t="n">
-        <v>283.3767395019531</v>
+        <v>8.384979248046875</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>427.456983089447</v>
+        <v>427.5108532905579</v>
       </c>
       <c r="B253" t="n">
-        <v>388.9117126464844</v>
+        <v>38.90658569335938</v>
       </c>
       <c r="C253" t="n">
-        <v>108.7597045898438</v>
+        <v>35.00826263427734</v>
       </c>
       <c r="D253" t="n">
-        <v>295.0381164550781</v>
+        <v>20.05313110351562</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>430.893693447113</v>
+        <v>430.9417681694031</v>
       </c>
       <c r="B254" t="n">
-        <v>400.0037841796875</v>
+        <v>50.00799560546875</v>
       </c>
       <c r="C254" t="n">
-        <v>38.7432746887207</v>
+        <v>-35.02862548828125</v>
       </c>
       <c r="D254" t="n">
-        <v>259.9651489257812</v>
+        <v>-15.03436279296875</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>432.3254776000977</v>
+        <v>432.3720417022705</v>
       </c>
       <c r="B255" t="n">
-        <v>400.0114440917969</v>
+        <v>50.01223754882812</v>
       </c>
       <c r="C255" t="n">
-        <v>38.74897384643555</v>
+        <v>-34.98855209350586</v>
       </c>
       <c r="D255" t="n">
-        <v>271.7026977539062</v>
+        <v>-3.308502197265625</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>433.7583811283112</v>
+        <v>433.8083536624908</v>
       </c>
       <c r="B256" t="n">
-        <v>400.0227661132812</v>
+        <v>50.0233154296875</v>
       </c>
       <c r="C256" t="n">
-        <v>38.75833511352539</v>
+        <v>-34.98665237426758</v>
       </c>
       <c r="D256" t="n">
-        <v>283.3657836914062</v>
+        <v>8.362518310546875</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>435.188952922821</v>
+        <v>435.236634016037</v>
       </c>
       <c r="B257" t="n">
-        <v>400.0260009765625</v>
+        <v>50.02359008789062</v>
       </c>
       <c r="C257" t="n">
-        <v>38.76112747192383</v>
+        <v>-34.98745346069336</v>
       </c>
       <c r="D257" t="n">
-        <v>295.0568237304688</v>
+        <v>20.03765869140625</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>437.5876841545105</v>
+        <v>437.6390726566315</v>
       </c>
       <c r="B258" t="n">
-        <v>399.9919128417969</v>
+        <v>49.99691772460938</v>
       </c>
       <c r="C258" t="n">
-        <v>50.4633674621582</v>
+        <v>-23.30678939819336</v>
       </c>
       <c r="D258" t="n">
-        <v>259.9322204589844</v>
+        <v>-15.07601928710938</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>439.0170712471008</v>
+        <v>439.069509267807</v>
       </c>
       <c r="B259" t="n">
-        <v>400.0167846679688</v>
+        <v>50.01528930664062</v>
       </c>
       <c r="C259" t="n">
-        <v>50.42160034179688</v>
+        <v>-23.31278610229492</v>
       </c>
       <c r="D259" t="n">
-        <v>271.6818237304688</v>
+        <v>-3.330078125</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>440.4469673633575</v>
+        <v>440.4987990856171</v>
       </c>
       <c r="B260" t="n">
-        <v>400.0116577148438</v>
+        <v>50.01101684570312</v>
       </c>
       <c r="C260" t="n">
-        <v>50.42095565795898</v>
+        <v>-23.32413482666016</v>
       </c>
       <c r="D260" t="n">
-        <v>283.36962890625</v>
+        <v>8.3829345703125</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>441.8759517669678</v>
+        <v>441.929803609848</v>
       </c>
       <c r="B261" t="n">
-        <v>400.0258178710938</v>
+        <v>50.02481079101562</v>
       </c>
       <c r="C261" t="n">
-        <v>50.42440414428711</v>
+        <v>-23.32406234741211</v>
       </c>
       <c r="D261" t="n">
-        <v>295.0260009765625</v>
+        <v>20.026123046875</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>444.2770912647247</v>
+        <v>444.3300702571869</v>
       </c>
       <c r="B262" t="n">
-        <v>400.0024108886719</v>
+        <v>50.00149536132812</v>
       </c>
       <c r="C262" t="n">
-        <v>62.11205673217773</v>
+        <v>-11.61880493164062</v>
       </c>
       <c r="D262" t="n">
-        <v>259.95068359375</v>
+        <v>-15.05593872070312</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>445.706693649292</v>
+        <v>445.7620630264282</v>
       </c>
       <c r="B263" t="n">
-        <v>400.0051574707031</v>
+        <v>50.01327514648438</v>
       </c>
       <c r="C263" t="n">
-        <v>62.10409927368164</v>
+        <v>-11.66056823730469</v>
       </c>
       <c r="D263" t="n">
-        <v>271.6864929199219</v>
+        <v>-3.320068359375</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>447.136058807373</v>
+        <v>447.1913824081421</v>
       </c>
       <c r="B264" t="n">
-        <v>400.0133666992188</v>
+        <v>50.01156616210938</v>
       </c>
       <c r="C264" t="n">
-        <v>62.0936393737793</v>
+        <v>-11.66167068481445</v>
       </c>
       <c r="D264" t="n">
-        <v>283.3592529296875</v>
+        <v>8.36602783203125</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>448.5657362937927</v>
+        <v>448.6208152770996</v>
       </c>
       <c r="B265" t="n">
-        <v>400.0081176757812</v>
+        <v>50.01254272460938</v>
       </c>
       <c r="C265" t="n">
-        <v>62.09030914306641</v>
+        <v>-11.66068267822266</v>
       </c>
       <c r="D265" t="n">
-        <v>295.0166931152344</v>
+        <v>20.01214599609375</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>450.9669938087463</v>
+        <v>451.0220074653625</v>
       </c>
       <c r="B266" t="n">
-        <v>399.9981994628906</v>
+        <v>49.99993896484375</v>
       </c>
       <c r="C266" t="n">
-        <v>73.79892730712891</v>
+        <v>0.02977752685546875</v>
       </c>
       <c r="D266" t="n">
-        <v>259.9361877441406</v>
+        <v>-15.0611572265625</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>452.3970432281494</v>
+        <v>452.4570195674896</v>
       </c>
       <c r="B267" t="n">
-        <v>400.0020446777344</v>
+        <v>49.9962158203125</v>
       </c>
       <c r="C267" t="n">
-        <v>73.75392913818359</v>
+        <v>0.01978302001953125</v>
       </c>
       <c r="D267" t="n">
-        <v>271.6848754882812</v>
+        <v>-3.30511474609375</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>453.8280124664307</v>
+        <v>453.8896210193634</v>
       </c>
       <c r="B268" t="n">
-        <v>400.0162048339844</v>
+        <v>50.01638793945312</v>
       </c>
       <c r="C268" t="n">
-        <v>73.75484466552734</v>
+        <v>0.00995635986328125</v>
       </c>
       <c r="D268" t="n">
-        <v>283.3814086914062</v>
+        <v>8.37890625</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>455.2560968399048</v>
+        <v>455.3189177513123</v>
       </c>
       <c r="B269" t="n">
-        <v>400.0175476074219</v>
+        <v>50.01058959960938</v>
       </c>
       <c r="C269" t="n">
-        <v>73.75678253173828</v>
+        <v>0.00719451904296875</v>
       </c>
       <c r="D269" t="n">
-        <v>295.0334777832031</v>
+        <v>20.04635620117188</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>457.6588079929352</v>
+        <v>457.720418214798</v>
       </c>
       <c r="B270" t="n">
-        <v>400.0099182128906</v>
+        <v>50.00881958007812</v>
       </c>
       <c r="C270" t="n">
-        <v>85.45716857910156</v>
+        <v>11.70008087158203</v>
       </c>
       <c r="D270" t="n">
-        <v>259.93994140625</v>
+        <v>-15.05001831054688</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>459.0887718200684</v>
+        <v>459.1525192260742</v>
       </c>
       <c r="B271" t="n">
-        <v>400.0188598632812</v>
+        <v>50.01736450195312</v>
       </c>
       <c r="C271" t="n">
-        <v>85.43254089355469</v>
+        <v>11.68564605712891</v>
       </c>
       <c r="D271" t="n">
-        <v>271.6969299316406</v>
+        <v>-3.28546142578125</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>460.5178060531616</v>
+        <v>460.5838103294373</v>
       </c>
       <c r="B272" t="n">
-        <v>400.0025024414062</v>
+        <v>49.99899291992188</v>
       </c>
       <c r="C272" t="n">
-        <v>85.41963195800781</v>
+        <v>11.67145538330078</v>
       </c>
       <c r="D272" t="n">
-        <v>283.3762512207031</v>
+        <v>8.376007080078125</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>461.9499957561493</v>
+        <v>462.0144565105438</v>
       </c>
       <c r="B273" t="n">
-        <v>400.0073852539062</v>
+        <v>50.00360107421875</v>
       </c>
       <c r="C273" t="n">
-        <v>85.42153167724609</v>
+        <v>11.67243194580078</v>
       </c>
       <c r="D273" t="n">
-        <v>295.0081176757812</v>
+        <v>20.02206420898438</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>464.3485577106476</v>
+        <v>464.4168300628662</v>
       </c>
       <c r="B274" t="n">
-        <v>399.9960632324219</v>
+        <v>49.99835205078125</v>
       </c>
       <c r="C274" t="n">
-        <v>97.11770629882812</v>
+        <v>23.361328125</v>
       </c>
       <c r="D274" t="n">
-        <v>259.9352416992188</v>
+        <v>-15.07366943359375</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>465.7787477970123</v>
+        <v>465.849109172821</v>
       </c>
       <c r="B275" t="n">
-        <v>399.9971618652344</v>
+        <v>49.99978637695312</v>
       </c>
       <c r="C275" t="n">
-        <v>97.10063934326172</v>
+        <v>23.35128021240234</v>
       </c>
       <c r="D275" t="n">
-        <v>271.67919921875</v>
+        <v>-3.3221435546875</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>467.2078592777252</v>
+        <v>467.2781112194061</v>
       </c>
       <c r="B276" t="n">
-        <v>400.0263671875</v>
+        <v>50.02590942382812</v>
       </c>
       <c r="C276" t="n">
-        <v>97.09299468994141</v>
+        <v>23.34548187255859</v>
       </c>
       <c r="D276" t="n">
-        <v>283.3650817871094</v>
+        <v>8.362548828125</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>468.6403620243073</v>
+        <v>468.708634853363</v>
       </c>
       <c r="B277" t="n">
-        <v>400.0113525390625</v>
+        <v>50.01458740234375</v>
       </c>
       <c r="C277" t="n">
-        <v>97.08934783935547</v>
+        <v>23.34099578857422</v>
       </c>
       <c r="D277" t="n">
-        <v>295.0419616699219</v>
+        <v>20.0279541015625</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>471.0413200855255</v>
+        <v>471.1106548309326</v>
       </c>
       <c r="B278" t="n">
-        <v>400.0019836425781</v>
+        <v>50.00753784179688</v>
       </c>
       <c r="C278" t="n">
-        <v>108.7967071533203</v>
+        <v>35.02799224853516</v>
       </c>
       <c r="D278" t="n">
-        <v>259.9403076171875</v>
+        <v>-15.05599975585938</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>472.4699909687042</v>
+        <v>472.5422079563141</v>
       </c>
       <c r="B279" t="n">
-        <v>400.020263671875</v>
+        <v>50.01919555664062</v>
       </c>
       <c r="C279" t="n">
-        <v>108.7568435668945</v>
+        <v>35.01885223388672</v>
       </c>
       <c r="D279" t="n">
-        <v>271.6944274902344</v>
+        <v>-3.3076171875</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>473.8996348381042</v>
+        <v>473.974814414978</v>
       </c>
       <c r="B280" t="n">
-        <v>400.0095825195312</v>
+        <v>50.00228881835938</v>
       </c>
       <c r="C280" t="n">
-        <v>108.7539367675781</v>
+        <v>35.00547027587891</v>
       </c>
       <c r="D280" t="n">
-        <v>283.3435668945312</v>
+        <v>8.361541748046875</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>475.3275535106659</v>
+        <v>475.4051969051361</v>
       </c>
       <c r="B281" t="n">
-        <v>400.0016174316406</v>
+        <v>50.00531005859375</v>
       </c>
       <c r="C281" t="n">
-        <v>108.753532409668</v>
+        <v>35.00628662109375</v>
       </c>
       <c r="D281" t="n">
-        <v>295.0163879394531</v>
+        <v>20.00692749023438</v>
       </c>
     </row>
   </sheetData>
